--- a/BackTest/2020-01-14 BackTest MIX.xlsx
+++ b/BackTest/2020-01-14 BackTest MIX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M175"/>
+  <dimension ref="A1:M176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.085</v>
+        <v>3.1</v>
       </c>
       <c r="C2" t="n">
-        <v>3.085</v>
+        <v>3.115</v>
       </c>
       <c r="D2" t="n">
-        <v>3.085</v>
+        <v>3.115</v>
       </c>
       <c r="E2" t="n">
-        <v>3.085</v>
+        <v>3.1</v>
       </c>
       <c r="F2" t="n">
-        <v>510</v>
+        <v>9451.483899999999</v>
       </c>
       <c r="G2" t="n">
-        <v>3.084616666666661</v>
+        <v>3.084733333333328</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>3.085</v>
       </c>
       <c r="F3" t="n">
-        <v>10093.8078</v>
+        <v>510</v>
       </c>
       <c r="G3" t="n">
-        <v>3.083866666666661</v>
+        <v>3.084616666666661</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>3.085</v>
       </c>
       <c r="F4" t="n">
-        <v>16149.2217</v>
+        <v>10093.8078</v>
       </c>
       <c r="G4" t="n">
-        <v>3.083749999999995</v>
+        <v>3.083866666666661</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.08</v>
+        <v>3.085</v>
       </c>
       <c r="C5" t="n">
-        <v>3.08</v>
+        <v>3.085</v>
       </c>
       <c r="D5" t="n">
-        <v>3.08</v>
+        <v>3.085</v>
       </c>
       <c r="E5" t="n">
-        <v>3.08</v>
+        <v>3.085</v>
       </c>
       <c r="F5" t="n">
-        <v>510</v>
+        <v>16149.2217</v>
       </c>
       <c r="G5" t="n">
-        <v>3.083183333333329</v>
+        <v>3.083749999999995</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>3.08</v>
       </c>
       <c r="F6" t="n">
-        <v>3973.407</v>
+        <v>510</v>
       </c>
       <c r="G6" t="n">
-        <v>3.083016666666662</v>
+        <v>3.083183333333329</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>3.08</v>
       </c>
       <c r="C7" t="n">
-        <v>3.084</v>
+        <v>3.08</v>
       </c>
       <c r="D7" t="n">
-        <v>3.084</v>
+        <v>3.08</v>
       </c>
       <c r="E7" t="n">
         <v>3.08</v>
       </c>
       <c r="F7" t="n">
-        <v>77943.4633</v>
+        <v>3973.407</v>
       </c>
       <c r="G7" t="n">
-        <v>3.082516666666662</v>
+        <v>3.083016666666662</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.07</v>
+        <v>3.08</v>
       </c>
       <c r="C8" t="n">
-        <v>3.07</v>
+        <v>3.084</v>
       </c>
       <c r="D8" t="n">
-        <v>3.07</v>
+        <v>3.084</v>
       </c>
       <c r="E8" t="n">
-        <v>3.07</v>
+        <v>3.08</v>
       </c>
       <c r="F8" t="n">
-        <v>833.6825</v>
+        <v>77943.4633</v>
       </c>
       <c r="G8" t="n">
-        <v>3.081766666666661</v>
+        <v>3.082516666666662</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.084</v>
+        <v>3.07</v>
       </c>
       <c r="C9" t="n">
-        <v>3.084</v>
+        <v>3.07</v>
       </c>
       <c r="D9" t="n">
-        <v>3.084</v>
+        <v>3.07</v>
       </c>
       <c r="E9" t="n">
-        <v>3.084</v>
+        <v>3.07</v>
       </c>
       <c r="F9" t="n">
-        <v>510</v>
+        <v>833.6825</v>
       </c>
       <c r="G9" t="n">
-        <v>3.081499999999995</v>
+        <v>3.081766666666661</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>3.084</v>
       </c>
       <c r="F10" t="n">
-        <v>267.8453</v>
+        <v>510</v>
       </c>
       <c r="G10" t="n">
-        <v>3.081233333333329</v>
+        <v>3.081499999999995</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.07</v>
+        <v>3.084</v>
       </c>
       <c r="C11" t="n">
-        <v>3.07</v>
+        <v>3.084</v>
       </c>
       <c r="D11" t="n">
-        <v>3.07</v>
+        <v>3.084</v>
       </c>
       <c r="E11" t="n">
-        <v>3.07</v>
+        <v>3.084</v>
       </c>
       <c r="F11" t="n">
-        <v>8799</v>
+        <v>267.8453</v>
       </c>
       <c r="G11" t="n">
-        <v>3.080983333333328</v>
+        <v>3.081233333333329</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.084</v>
+        <v>3.07</v>
       </c>
       <c r="C12" t="n">
-        <v>3.084</v>
+        <v>3.07</v>
       </c>
       <c r="D12" t="n">
-        <v>3.084</v>
+        <v>3.07</v>
       </c>
       <c r="E12" t="n">
-        <v>3.084</v>
+        <v>3.07</v>
       </c>
       <c r="F12" t="n">
-        <v>3242.54215304799</v>
+        <v>8799</v>
       </c>
       <c r="G12" t="n">
-        <v>3.080866666666661</v>
+        <v>3.080983333333328</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.07</v>
+        <v>3.084</v>
       </c>
       <c r="C13" t="n">
-        <v>3.065</v>
+        <v>3.084</v>
       </c>
       <c r="D13" t="n">
-        <v>3.07</v>
+        <v>3.084</v>
       </c>
       <c r="E13" t="n">
-        <v>3.065</v>
+        <v>3.084</v>
       </c>
       <c r="F13" t="n">
-        <v>162244.8074</v>
+        <v>3242.54215304799</v>
       </c>
       <c r="G13" t="n">
-        <v>3.080433333333328</v>
+        <v>3.080866666666661</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,10 +853,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="C14" t="n">
         <v>3.065</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3.07</v>
       </c>
       <c r="D14" t="n">
         <v>3.07</v>
@@ -865,10 +865,10 @@
         <v>3.065</v>
       </c>
       <c r="F14" t="n">
-        <v>1245.3287</v>
+        <v>162244.8074</v>
       </c>
       <c r="G14" t="n">
-        <v>3.079766666666661</v>
+        <v>3.080433333333328</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>3.065</v>
       </c>
       <c r="C15" t="n">
-        <v>3.065</v>
+        <v>3.07</v>
       </c>
       <c r="D15" t="n">
-        <v>3.065</v>
+        <v>3.07</v>
       </c>
       <c r="E15" t="n">
         <v>3.065</v>
       </c>
       <c r="F15" t="n">
-        <v>2545.6583</v>
+        <v>1245.3287</v>
       </c>
       <c r="G15" t="n">
-        <v>3.078933333333327</v>
+        <v>3.079766666666661</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.06</v>
+        <v>3.065</v>
       </c>
       <c r="C16" t="n">
-        <v>3.06</v>
+        <v>3.065</v>
       </c>
       <c r="D16" t="n">
-        <v>3.06</v>
+        <v>3.065</v>
       </c>
       <c r="E16" t="n">
-        <v>3.06</v>
+        <v>3.065</v>
       </c>
       <c r="F16" t="n">
-        <v>3000</v>
+        <v>2545.6583</v>
       </c>
       <c r="G16" t="n">
-        <v>3.078099999999994</v>
+        <v>3.078933333333327</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.059</v>
+        <v>3.06</v>
       </c>
       <c r="C17" t="n">
-        <v>3.059</v>
+        <v>3.06</v>
       </c>
       <c r="D17" t="n">
-        <v>3.059</v>
+        <v>3.06</v>
       </c>
       <c r="E17" t="n">
-        <v>3.059</v>
+        <v>3.06</v>
       </c>
       <c r="F17" t="n">
-        <v>10075.4698</v>
+        <v>3000</v>
       </c>
       <c r="G17" t="n">
-        <v>3.077583333333327</v>
+        <v>3.078099999999994</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.05</v>
+        <v>3.059</v>
       </c>
       <c r="C18" t="n">
-        <v>3.047</v>
+        <v>3.059</v>
       </c>
       <c r="D18" t="n">
-        <v>3.05</v>
+        <v>3.059</v>
       </c>
       <c r="E18" t="n">
-        <v>3.047</v>
+        <v>3.059</v>
       </c>
       <c r="F18" t="n">
-        <v>166390.7342</v>
+        <v>10075.4698</v>
       </c>
       <c r="G18" t="n">
-        <v>3.076699999999994</v>
+        <v>3.077583333333327</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.047</v>
+        <v>3.05</v>
       </c>
       <c r="C19" t="n">
         <v>3.047</v>
       </c>
       <c r="D19" t="n">
-        <v>3.047</v>
+        <v>3.05</v>
       </c>
       <c r="E19" t="n">
         <v>3.047</v>
       </c>
       <c r="F19" t="n">
-        <v>1639878.443</v>
+        <v>166390.7342</v>
       </c>
       <c r="G19" t="n">
-        <v>3.075816666666661</v>
+        <v>3.076699999999994</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.059</v>
+        <v>3.047</v>
       </c>
       <c r="C20" t="n">
-        <v>3.059</v>
+        <v>3.047</v>
       </c>
       <c r="D20" t="n">
-        <v>3.059</v>
+        <v>3.047</v>
       </c>
       <c r="E20" t="n">
-        <v>3.059</v>
+        <v>3.047</v>
       </c>
       <c r="F20" t="n">
-        <v>522.4858</v>
+        <v>1639878.443</v>
       </c>
       <c r="G20" t="n">
-        <v>3.075133333333327</v>
+        <v>3.075816666666661</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.044</v>
+        <v>3.059</v>
       </c>
       <c r="C21" t="n">
-        <v>3.044</v>
+        <v>3.059</v>
       </c>
       <c r="D21" t="n">
-        <v>3.044</v>
+        <v>3.059</v>
       </c>
       <c r="E21" t="n">
-        <v>3.044</v>
+        <v>3.059</v>
       </c>
       <c r="F21" t="n">
-        <v>42751.5545</v>
+        <v>522.4858</v>
       </c>
       <c r="G21" t="n">
-        <v>3.074199999999994</v>
+        <v>3.075133333333327</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>3.044</v>
       </c>
       <c r="F22" t="n">
-        <v>1278.4455</v>
+        <v>42751.5545</v>
       </c>
       <c r="G22" t="n">
-        <v>3.073099999999994</v>
+        <v>3.074199999999994</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.043</v>
+        <v>3.044</v>
       </c>
       <c r="C23" t="n">
-        <v>3.016</v>
+        <v>3.044</v>
       </c>
       <c r="D23" t="n">
-        <v>3.043</v>
+        <v>3.044</v>
       </c>
       <c r="E23" t="n">
-        <v>3.012</v>
+        <v>3.044</v>
       </c>
       <c r="F23" t="n">
-        <v>1244976.5197</v>
+        <v>1278.4455</v>
       </c>
       <c r="G23" t="n">
-        <v>3.071699999999994</v>
+        <v>3.073099999999994</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.016</v>
+        <v>3.043</v>
       </c>
       <c r="C24" t="n">
         <v>3.016</v>
       </c>
       <c r="D24" t="n">
-        <v>3.016</v>
+        <v>3.043</v>
       </c>
       <c r="E24" t="n">
-        <v>3.016</v>
+        <v>3.012</v>
       </c>
       <c r="F24" t="n">
-        <v>67531.5772</v>
+        <v>1244976.5197</v>
       </c>
       <c r="G24" t="n">
-        <v>3.070466666666661</v>
+        <v>3.071699999999994</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.049</v>
+        <v>3.016</v>
       </c>
       <c r="C25" t="n">
-        <v>3.049</v>
+        <v>3.016</v>
       </c>
       <c r="D25" t="n">
-        <v>3.049</v>
+        <v>3.016</v>
       </c>
       <c r="E25" t="n">
-        <v>3.049</v>
+        <v>3.016</v>
       </c>
       <c r="F25" t="n">
-        <v>8244.546200000001</v>
+        <v>67531.5772</v>
       </c>
       <c r="G25" t="n">
-        <v>3.069783333333327</v>
+        <v>3.070466666666661</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,19 +1285,23 @@
         <v>3.049</v>
       </c>
       <c r="F26" t="n">
-        <v>15666.7743</v>
+        <v>8244.546200000001</v>
       </c>
       <c r="G26" t="n">
-        <v>3.069099999999994</v>
+        <v>3.069783333333327</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
@@ -1308,32 +1312,40 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.023</v>
+        <v>3.049</v>
       </c>
       <c r="C27" t="n">
-        <v>3.012</v>
+        <v>3.049</v>
       </c>
       <c r="D27" t="n">
-        <v>3.023</v>
+        <v>3.049</v>
       </c>
       <c r="E27" t="n">
-        <v>3.012</v>
+        <v>3.049</v>
       </c>
       <c r="F27" t="n">
-        <v>100000</v>
+        <v>15666.7743</v>
       </c>
       <c r="G27" t="n">
-        <v>3.067633333333327</v>
+        <v>3.069099999999994</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,22 +1355,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.049</v>
+        <v>3.023</v>
       </c>
       <c r="C28" t="n">
-        <v>3.05</v>
+        <v>3.012</v>
       </c>
       <c r="D28" t="n">
-        <v>3.05</v>
+        <v>3.023</v>
       </c>
       <c r="E28" t="n">
-        <v>3.049</v>
+        <v>3.012</v>
       </c>
       <c r="F28" t="n">
-        <v>10504.5661</v>
+        <v>100000</v>
       </c>
       <c r="G28" t="n">
-        <v>3.066799999999994</v>
+        <v>3.067633333333327</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,8 +1379,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1381,19 +1399,19 @@
         <v>3.049</v>
       </c>
       <c r="C29" t="n">
-        <v>3.023</v>
+        <v>3.05</v>
       </c>
       <c r="D29" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E29" t="n">
         <v>3.049</v>
       </c>
-      <c r="E29" t="n">
-        <v>3.023</v>
-      </c>
       <c r="F29" t="n">
-        <v>16817.9014</v>
+        <v>10504.5661</v>
       </c>
       <c r="G29" t="n">
-        <v>3.065899999999994</v>
+        <v>3.066799999999994</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1402,8 +1420,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1413,22 +1437,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.05</v>
+        <v>3.049</v>
       </c>
       <c r="C30" t="n">
-        <v>3.05</v>
+        <v>3.023</v>
       </c>
       <c r="D30" t="n">
-        <v>3.05</v>
+        <v>3.049</v>
       </c>
       <c r="E30" t="n">
-        <v>3.05</v>
+        <v>3.023</v>
       </c>
       <c r="F30" t="n">
-        <v>1554.412</v>
+        <v>16817.9014</v>
       </c>
       <c r="G30" t="n">
-        <v>3.065283333333328</v>
+        <v>3.065899999999994</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1437,8 +1461,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1448,22 +1478,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.023</v>
+        <v>3.05</v>
       </c>
       <c r="C31" t="n">
-        <v>3.023</v>
+        <v>3.05</v>
       </c>
       <c r="D31" t="n">
-        <v>3.023</v>
+        <v>3.05</v>
       </c>
       <c r="E31" t="n">
-        <v>3.023</v>
+        <v>3.05</v>
       </c>
       <c r="F31" t="n">
-        <v>510</v>
+        <v>1554.412</v>
       </c>
       <c r="G31" t="n">
-        <v>3.064383333333328</v>
+        <v>3.065283333333328</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1472,8 +1502,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1483,22 +1519,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.05</v>
+        <v>3.023</v>
       </c>
       <c r="C32" t="n">
-        <v>3.05</v>
+        <v>3.023</v>
       </c>
       <c r="D32" t="n">
-        <v>3.05</v>
+        <v>3.023</v>
       </c>
       <c r="E32" t="n">
-        <v>3.05</v>
+        <v>3.023</v>
       </c>
       <c r="F32" t="n">
-        <v>2954.0506</v>
+        <v>510</v>
       </c>
       <c r="G32" t="n">
-        <v>3.063933333333329</v>
+        <v>3.064383333333328</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,8 +1543,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1521,19 +1563,19 @@
         <v>3.05</v>
       </c>
       <c r="C33" t="n">
-        <v>3.059</v>
+        <v>3.05</v>
       </c>
       <c r="D33" t="n">
-        <v>3.059</v>
+        <v>3.05</v>
       </c>
       <c r="E33" t="n">
         <v>3.05</v>
       </c>
       <c r="F33" t="n">
-        <v>510</v>
+        <v>2954.0506</v>
       </c>
       <c r="G33" t="n">
-        <v>3.063633333333328</v>
+        <v>3.063933333333329</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1542,8 +1584,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1553,7 +1601,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.059</v>
+        <v>3.05</v>
       </c>
       <c r="C34" t="n">
         <v>3.059</v>
@@ -1562,13 +1610,13 @@
         <v>3.059</v>
       </c>
       <c r="E34" t="n">
-        <v>3.059</v>
+        <v>3.05</v>
       </c>
       <c r="F34" t="n">
         <v>510</v>
       </c>
       <c r="G34" t="n">
-        <v>3.062949999999995</v>
+        <v>3.063633333333328</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1577,8 +1625,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1600,10 +1654,10 @@
         <v>3.059</v>
       </c>
       <c r="F35" t="n">
-        <v>689.7662</v>
+        <v>510</v>
       </c>
       <c r="G35" t="n">
-        <v>3.062766666666662</v>
+        <v>3.062949999999995</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1612,8 +1666,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,22 +1683,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.033</v>
+        <v>3.059</v>
       </c>
       <c r="C36" t="n">
-        <v>3.033</v>
+        <v>3.059</v>
       </c>
       <c r="D36" t="n">
-        <v>3.033</v>
+        <v>3.059</v>
       </c>
       <c r="E36" t="n">
-        <v>3.033</v>
+        <v>3.059</v>
       </c>
       <c r="F36" t="n">
-        <v>13160</v>
+        <v>689.7662</v>
       </c>
       <c r="G36" t="n">
-        <v>3.062149999999995</v>
+        <v>3.062766666666662</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1647,8 +1707,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1658,22 +1724,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.023</v>
+        <v>3.033</v>
       </c>
       <c r="C37" t="n">
-        <v>3.018</v>
+        <v>3.033</v>
       </c>
       <c r="D37" t="n">
-        <v>3.023</v>
+        <v>3.033</v>
       </c>
       <c r="E37" t="n">
-        <v>3.018</v>
+        <v>3.033</v>
       </c>
       <c r="F37" t="n">
-        <v>510</v>
+        <v>13160</v>
       </c>
       <c r="G37" t="n">
-        <v>3.060783333333328</v>
+        <v>3.062149999999995</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1682,8 +1748,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,22 +1765,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.018</v>
+        <v>3.023</v>
       </c>
       <c r="C38" t="n">
         <v>3.018</v>
       </c>
       <c r="D38" t="n">
-        <v>3.018</v>
+        <v>3.023</v>
       </c>
       <c r="E38" t="n">
         <v>3.018</v>
       </c>
       <c r="F38" t="n">
-        <v>68379.9826</v>
+        <v>510</v>
       </c>
       <c r="G38" t="n">
-        <v>3.059749999999995</v>
+        <v>3.060783333333328</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1717,8 +1789,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,22 +1806,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.013</v>
+        <v>3.018</v>
       </c>
       <c r="C39" t="n">
-        <v>3.013</v>
+        <v>3.018</v>
       </c>
       <c r="D39" t="n">
-        <v>3.013</v>
+        <v>3.018</v>
       </c>
       <c r="E39" t="n">
-        <v>3.013</v>
+        <v>3.018</v>
       </c>
       <c r="F39" t="n">
-        <v>510</v>
+        <v>68379.9826</v>
       </c>
       <c r="G39" t="n">
-        <v>3.058799999999995</v>
+        <v>3.059749999999995</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,8 +1830,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1775,10 +1859,10 @@
         <v>3.013</v>
       </c>
       <c r="F40" t="n">
-        <v>67288.70080000001</v>
+        <v>510</v>
       </c>
       <c r="G40" t="n">
-        <v>3.057849999999995</v>
+        <v>3.058799999999995</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,8 +1871,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,22 +1888,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.018</v>
+        <v>3.013</v>
       </c>
       <c r="C41" t="n">
-        <v>3.018</v>
+        <v>3.013</v>
       </c>
       <c r="D41" t="n">
-        <v>3.018</v>
+        <v>3.013</v>
       </c>
       <c r="E41" t="n">
-        <v>3.018</v>
+        <v>3.013</v>
       </c>
       <c r="F41" t="n">
-        <v>510</v>
+        <v>67288.70080000001</v>
       </c>
       <c r="G41" t="n">
-        <v>3.057083333333329</v>
+        <v>3.057849999999995</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1822,8 +1912,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1833,22 +1929,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.012</v>
+        <v>3.018</v>
       </c>
       <c r="C42" t="n">
-        <v>3.012</v>
+        <v>3.018</v>
       </c>
       <c r="D42" t="n">
-        <v>3.012</v>
+        <v>3.018</v>
       </c>
       <c r="E42" t="n">
-        <v>3.012</v>
+        <v>3.018</v>
       </c>
       <c r="F42" t="n">
-        <v>9599.634</v>
+        <v>510</v>
       </c>
       <c r="G42" t="n">
-        <v>3.056449999999995</v>
+        <v>3.057083333333329</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1857,8 +1953,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1868,36 +1970,36 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.022</v>
+        <v>3.012</v>
       </c>
       <c r="C43" t="n">
         <v>3.012</v>
       </c>
       <c r="D43" t="n">
-        <v>3.022</v>
+        <v>3.012</v>
       </c>
       <c r="E43" t="n">
         <v>3.012</v>
       </c>
       <c r="F43" t="n">
-        <v>32825.9252</v>
+        <v>9599.634</v>
       </c>
       <c r="G43" t="n">
-        <v>3.055899999999995</v>
+        <v>3.056449999999995</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>3.012</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M43" t="n">
@@ -1909,33 +2011,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.02</v>
+        <v>3.022</v>
       </c>
       <c r="C44" t="n">
-        <v>3.013</v>
+        <v>3.012</v>
       </c>
       <c r="D44" t="n">
-        <v>3.02</v>
+        <v>3.022</v>
       </c>
       <c r="E44" t="n">
-        <v>3.013</v>
+        <v>3.012</v>
       </c>
       <c r="F44" t="n">
-        <v>28360.3429</v>
+        <v>32825.9252</v>
       </c>
       <c r="G44" t="n">
-        <v>3.055433333333329</v>
+        <v>3.055899999999995</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>3.012</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1953,19 +2055,19 @@
         <v>3.02</v>
       </c>
       <c r="C45" t="n">
-        <v>3.02</v>
+        <v>3.013</v>
       </c>
       <c r="D45" t="n">
         <v>3.02</v>
       </c>
       <c r="E45" t="n">
-        <v>3.02</v>
+        <v>3.013</v>
       </c>
       <c r="F45" t="n">
-        <v>510</v>
+        <v>28360.3429</v>
       </c>
       <c r="G45" t="n">
-        <v>3.055083333333329</v>
+        <v>3.055433333333329</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1974,7 +2076,9 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1989,22 +2093,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.049</v>
+        <v>3.02</v>
       </c>
       <c r="C46" t="n">
-        <v>3.049</v>
+        <v>3.02</v>
       </c>
       <c r="D46" t="n">
-        <v>3.049</v>
+        <v>3.02</v>
       </c>
       <c r="E46" t="n">
-        <v>3.049</v>
+        <v>3.02</v>
       </c>
       <c r="F46" t="n">
-        <v>200</v>
+        <v>510</v>
       </c>
       <c r="G46" t="n">
-        <v>3.055199999999996</v>
+        <v>3.055083333333329</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2013,7 +2117,9 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2040,21 +2146,21 @@
         <v>3.049</v>
       </c>
       <c r="F47" t="n">
-        <v>510</v>
+        <v>200</v>
       </c>
       <c r="G47" t="n">
-        <v>3.055333333333329</v>
+        <v>3.055199999999996</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2069,22 +2175,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.013</v>
+        <v>3.049</v>
       </c>
       <c r="C48" t="n">
-        <v>3.013</v>
+        <v>3.049</v>
       </c>
       <c r="D48" t="n">
-        <v>3.013</v>
+        <v>3.049</v>
       </c>
       <c r="E48" t="n">
-        <v>3.013</v>
+        <v>3.049</v>
       </c>
       <c r="F48" t="n">
         <v>510</v>
       </c>
       <c r="G48" t="n">
-        <v>3.05488333333333</v>
+        <v>3.055333333333329</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2093,7 +2199,9 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2108,22 +2216,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.049</v>
+        <v>3.013</v>
       </c>
       <c r="C49" t="n">
-        <v>3.05</v>
+        <v>3.013</v>
       </c>
       <c r="D49" t="n">
-        <v>3.05</v>
+        <v>3.013</v>
       </c>
       <c r="E49" t="n">
-        <v>3.049</v>
+        <v>3.013</v>
       </c>
       <c r="F49" t="n">
-        <v>12164.3528</v>
+        <v>510</v>
       </c>
       <c r="G49" t="n">
-        <v>3.055116666666663</v>
+        <v>3.05488333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2132,7 +2240,9 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2147,7 +2257,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.05</v>
+        <v>3.049</v>
       </c>
       <c r="C50" t="n">
         <v>3.05</v>
@@ -2156,13 +2266,13 @@
         <v>3.05</v>
       </c>
       <c r="E50" t="n">
-        <v>3.05</v>
+        <v>3.049</v>
       </c>
       <c r="F50" t="n">
-        <v>4078.5053</v>
+        <v>12164.3528</v>
       </c>
       <c r="G50" t="n">
-        <v>3.05538333333333</v>
+        <v>3.055116666666663</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2171,7 +2281,9 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2198,10 +2310,10 @@
         <v>3.05</v>
       </c>
       <c r="F51" t="n">
-        <v>7623.9535</v>
+        <v>4078.5053</v>
       </c>
       <c r="G51" t="n">
-        <v>3.055649999999997</v>
+        <v>3.05538333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2210,7 +2322,9 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2225,22 +2339,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3.049</v>
+        <v>3.05</v>
       </c>
       <c r="C52" t="n">
-        <v>3.049</v>
+        <v>3.05</v>
       </c>
       <c r="D52" t="n">
-        <v>3.049</v>
+        <v>3.05</v>
       </c>
       <c r="E52" t="n">
-        <v>3.049</v>
+        <v>3.05</v>
       </c>
       <c r="F52" t="n">
-        <v>90240</v>
+        <v>7623.9535</v>
       </c>
       <c r="G52" t="n">
-        <v>3.055783333333331</v>
+        <v>3.055649999999997</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2249,7 +2363,9 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2276,10 +2392,10 @@
         <v>3.049</v>
       </c>
       <c r="F53" t="n">
-        <v>510</v>
+        <v>90240</v>
       </c>
       <c r="G53" t="n">
-        <v>3.055766666666664</v>
+        <v>3.055783333333331</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2288,7 +2404,9 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2303,22 +2421,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.04</v>
+        <v>3.049</v>
       </c>
       <c r="C54" t="n">
-        <v>3.04</v>
+        <v>3.049</v>
       </c>
       <c r="D54" t="n">
-        <v>3.04</v>
+        <v>3.049</v>
       </c>
       <c r="E54" t="n">
-        <v>3.04</v>
+        <v>3.049</v>
       </c>
       <c r="F54" t="n">
-        <v>70000</v>
+        <v>510</v>
       </c>
       <c r="G54" t="n">
-        <v>3.055299999999997</v>
+        <v>3.055766666666664</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2327,7 +2445,9 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2342,22 +2462,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3.039</v>
+        <v>3.04</v>
       </c>
       <c r="C55" t="n">
-        <v>3.039</v>
+        <v>3.04</v>
       </c>
       <c r="D55" t="n">
-        <v>3.039</v>
+        <v>3.04</v>
       </c>
       <c r="E55" t="n">
-        <v>3.039</v>
+        <v>3.04</v>
       </c>
       <c r="F55" t="n">
-        <v>34097.969</v>
+        <v>70000</v>
       </c>
       <c r="G55" t="n">
-        <v>3.054116666666663</v>
+        <v>3.055299999999997</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2366,7 +2486,9 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2381,22 +2503,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="C56" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="D56" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="E56" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="F56" t="n">
-        <v>585</v>
+        <v>34097.969</v>
       </c>
       <c r="G56" t="n">
-        <v>3.052899999999996</v>
+        <v>3.054116666666663</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2405,7 +2527,9 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2420,22 +2544,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.04</v>
+        <v>3.037</v>
       </c>
       <c r="C57" t="n">
-        <v>3.04</v>
+        <v>3.037</v>
       </c>
       <c r="D57" t="n">
-        <v>3.04</v>
+        <v>3.037</v>
       </c>
       <c r="E57" t="n">
-        <v>3.04</v>
+        <v>3.037</v>
       </c>
       <c r="F57" t="n">
-        <v>544</v>
+        <v>585</v>
       </c>
       <c r="G57" t="n">
-        <v>3.051749999999996</v>
+        <v>3.052899999999996</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2444,7 +2568,9 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2459,22 +2585,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3.035</v>
+        <v>3.04</v>
       </c>
       <c r="C58" t="n">
-        <v>3.035</v>
+        <v>3.04</v>
       </c>
       <c r="D58" t="n">
-        <v>3.035</v>
+        <v>3.04</v>
       </c>
       <c r="E58" t="n">
-        <v>3.035</v>
+        <v>3.04</v>
       </c>
       <c r="F58" t="n">
-        <v>608</v>
+        <v>544</v>
       </c>
       <c r="G58" t="n">
-        <v>3.050249999999996</v>
+        <v>3.051749999999996</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2483,7 +2609,9 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2510,10 +2638,10 @@
         <v>3.035</v>
       </c>
       <c r="F59" t="n">
-        <v>663</v>
+        <v>608</v>
       </c>
       <c r="G59" t="n">
-        <v>3.04918333333333</v>
+        <v>3.050249999999996</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2522,7 +2650,9 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2549,10 +2679,10 @@
         <v>3.035</v>
       </c>
       <c r="F60" t="n">
-        <v>556</v>
+        <v>663</v>
       </c>
       <c r="G60" t="n">
-        <v>3.047849999999996</v>
+        <v>3.04918333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2561,7 +2691,9 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2582,16 +2714,16 @@
         <v>3.035</v>
       </c>
       <c r="D61" t="n">
-        <v>3.059</v>
+        <v>3.035</v>
       </c>
       <c r="E61" t="n">
         <v>3.035</v>
       </c>
       <c r="F61" t="n">
-        <v>17910.06</v>
+        <v>556</v>
       </c>
       <c r="G61" t="n">
-        <v>3.046516666666662</v>
+        <v>3.047849999999996</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2600,7 +2732,9 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2615,22 +2749,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3.05</v>
+        <v>3.035</v>
       </c>
       <c r="C62" t="n">
-        <v>3.05</v>
+        <v>3.035</v>
       </c>
       <c r="D62" t="n">
-        <v>3.05</v>
+        <v>3.059</v>
       </c>
       <c r="E62" t="n">
-        <v>3.05</v>
+        <v>3.035</v>
       </c>
       <c r="F62" t="n">
-        <v>200</v>
+        <v>17910.06</v>
       </c>
       <c r="G62" t="n">
-        <v>3.045933333333329</v>
+        <v>3.046516666666662</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2639,7 +2773,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2654,22 +2790,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3.035</v>
+        <v>3.05</v>
       </c>
       <c r="C63" t="n">
-        <v>3.035</v>
+        <v>3.05</v>
       </c>
       <c r="D63" t="n">
-        <v>3.035</v>
+        <v>3.05</v>
       </c>
       <c r="E63" t="n">
-        <v>3.035</v>
+        <v>3.05</v>
       </c>
       <c r="F63" t="n">
-        <v>15000</v>
+        <v>200</v>
       </c>
       <c r="G63" t="n">
-        <v>3.045099999999996</v>
+        <v>3.045933333333329</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2678,7 +2814,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2693,22 +2831,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.05</v>
+        <v>3.035</v>
       </c>
       <c r="C64" t="n">
         <v>3.035</v>
       </c>
       <c r="D64" t="n">
-        <v>3.05</v>
+        <v>3.035</v>
       </c>
       <c r="E64" t="n">
         <v>3.035</v>
       </c>
       <c r="F64" t="n">
-        <v>1169</v>
+        <v>15000</v>
       </c>
       <c r="G64" t="n">
-        <v>3.044266666666662</v>
+        <v>3.045099999999996</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2717,7 +2855,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2732,22 +2872,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.035</v>
+        <v>3.05</v>
       </c>
       <c r="C65" t="n">
         <v>3.035</v>
       </c>
       <c r="D65" t="n">
-        <v>3.035</v>
+        <v>3.05</v>
       </c>
       <c r="E65" t="n">
         <v>3.035</v>
       </c>
       <c r="F65" t="n">
-        <v>544</v>
+        <v>1169</v>
       </c>
       <c r="G65" t="n">
-        <v>3.043516666666662</v>
+        <v>3.044266666666662</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2756,7 +2896,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2783,10 +2925,10 @@
         <v>3.035</v>
       </c>
       <c r="F66" t="n">
-        <v>656</v>
+        <v>544</v>
       </c>
       <c r="G66" t="n">
-        <v>3.042766666666661</v>
+        <v>3.043516666666662</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2795,7 +2937,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2822,10 +2966,10 @@
         <v>3.035</v>
       </c>
       <c r="F67" t="n">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="G67" t="n">
-        <v>3.041949999999995</v>
+        <v>3.042766666666661</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2834,7 +2978,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2861,10 +3007,10 @@
         <v>3.035</v>
       </c>
       <c r="F68" t="n">
-        <v>613</v>
+        <v>642</v>
       </c>
       <c r="G68" t="n">
-        <v>3.041366666666661</v>
+        <v>3.041949999999995</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2873,7 +3019,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2900,10 +3048,10 @@
         <v>3.035</v>
       </c>
       <c r="F69" t="n">
-        <v>6253.69</v>
+        <v>613</v>
       </c>
       <c r="G69" t="n">
-        <v>3.040549999999995</v>
+        <v>3.041366666666661</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2912,7 +3060,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2927,22 +3077,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.04</v>
+        <v>3.035</v>
       </c>
       <c r="C70" t="n">
         <v>3.035</v>
       </c>
       <c r="D70" t="n">
-        <v>3.04</v>
+        <v>3.035</v>
       </c>
       <c r="E70" t="n">
         <v>3.035</v>
       </c>
       <c r="F70" t="n">
-        <v>50397.0974</v>
+        <v>6253.69</v>
       </c>
       <c r="G70" t="n">
-        <v>3.039733333333328</v>
+        <v>3.040549999999995</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2951,7 +3101,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2966,22 +3118,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3.026</v>
+        <v>3.04</v>
       </c>
       <c r="C71" t="n">
-        <v>3.026</v>
+        <v>3.035</v>
       </c>
       <c r="D71" t="n">
-        <v>3.026</v>
+        <v>3.04</v>
       </c>
       <c r="E71" t="n">
-        <v>3.026</v>
+        <v>3.035</v>
       </c>
       <c r="F71" t="n">
-        <v>609</v>
+        <v>50397.0974</v>
       </c>
       <c r="G71" t="n">
-        <v>3.038999999999995</v>
+        <v>3.039733333333328</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2990,7 +3142,9 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3017,10 +3171,10 @@
         <v>3.026</v>
       </c>
       <c r="F72" t="n">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="G72" t="n">
-        <v>3.038033333333328</v>
+        <v>3.038999999999995</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3029,7 +3183,9 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3056,10 +3212,10 @@
         <v>3.026</v>
       </c>
       <c r="F73" t="n">
-        <v>519</v>
+        <v>625</v>
       </c>
       <c r="G73" t="n">
-        <v>3.037383333333329</v>
+        <v>3.038033333333328</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3068,7 +3224,9 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3095,10 +3253,10 @@
         <v>3.026</v>
       </c>
       <c r="F74" t="n">
-        <v>659</v>
+        <v>519</v>
       </c>
       <c r="G74" t="n">
-        <v>3.036649999999995</v>
+        <v>3.037383333333329</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3107,7 +3265,9 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3134,10 +3294,10 @@
         <v>3.026</v>
       </c>
       <c r="F75" t="n">
-        <v>609</v>
+        <v>659</v>
       </c>
       <c r="G75" t="n">
-        <v>3.035999999999996</v>
+        <v>3.036649999999995</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3146,7 +3306,9 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3173,10 +3335,10 @@
         <v>3.026</v>
       </c>
       <c r="F76" t="n">
-        <v>530</v>
+        <v>609</v>
       </c>
       <c r="G76" t="n">
-        <v>3.035433333333329</v>
+        <v>3.035999999999996</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3185,7 +3347,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3212,10 +3376,10 @@
         <v>3.026</v>
       </c>
       <c r="F77" t="n">
-        <v>567</v>
+        <v>530</v>
       </c>
       <c r="G77" t="n">
-        <v>3.034883333333329</v>
+        <v>3.035433333333329</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3224,7 +3388,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3251,10 +3417,10 @@
         <v>3.026</v>
       </c>
       <c r="F78" t="n">
-        <v>619</v>
+        <v>567</v>
       </c>
       <c r="G78" t="n">
-        <v>3.03453333333333</v>
+        <v>3.034883333333329</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3263,7 +3429,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3278,22 +3446,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3.028</v>
+        <v>3.026</v>
       </c>
       <c r="C79" t="n">
-        <v>3.028</v>
+        <v>3.026</v>
       </c>
       <c r="D79" t="n">
-        <v>3.028</v>
+        <v>3.026</v>
       </c>
       <c r="E79" t="n">
-        <v>3.028</v>
+        <v>3.026</v>
       </c>
       <c r="F79" t="n">
-        <v>649</v>
+        <v>619</v>
       </c>
       <c r="G79" t="n">
-        <v>3.034216666666663</v>
+        <v>3.03453333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3302,7 +3470,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3329,10 +3499,10 @@
         <v>3.028</v>
       </c>
       <c r="F80" t="n">
-        <v>1647</v>
+        <v>649</v>
       </c>
       <c r="G80" t="n">
-        <v>3.033699999999996</v>
+        <v>3.034216666666663</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3341,7 +3511,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3368,10 +3540,10 @@
         <v>3.028</v>
       </c>
       <c r="F81" t="n">
-        <v>569</v>
+        <v>1647</v>
       </c>
       <c r="G81" t="n">
-        <v>3.033433333333329</v>
+        <v>3.033699999999996</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3380,7 +3552,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3398,19 +3572,19 @@
         <v>3.028</v>
       </c>
       <c r="C82" t="n">
-        <v>3.038</v>
+        <v>3.028</v>
       </c>
       <c r="D82" t="n">
-        <v>3.038</v>
+        <v>3.028</v>
       </c>
       <c r="E82" t="n">
         <v>3.028</v>
       </c>
       <c r="F82" t="n">
-        <v>27536.2123</v>
+        <v>569</v>
       </c>
       <c r="G82" t="n">
-        <v>3.033333333333329</v>
+        <v>3.033433333333329</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3419,7 +3593,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3434,7 +3610,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3.038</v>
+        <v>3.028</v>
       </c>
       <c r="C83" t="n">
         <v>3.038</v>
@@ -3443,13 +3619,13 @@
         <v>3.038</v>
       </c>
       <c r="E83" t="n">
-        <v>3.038</v>
+        <v>3.028</v>
       </c>
       <c r="F83" t="n">
-        <v>559</v>
+        <v>27536.2123</v>
       </c>
       <c r="G83" t="n">
-        <v>3.033699999999996</v>
+        <v>3.033333333333329</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3458,7 +3634,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3473,22 +3651,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3.037</v>
+        <v>3.038</v>
       </c>
       <c r="C84" t="n">
-        <v>3.035</v>
+        <v>3.038</v>
       </c>
       <c r="D84" t="n">
-        <v>3.037</v>
+        <v>3.038</v>
       </c>
       <c r="E84" t="n">
-        <v>3.035</v>
+        <v>3.038</v>
       </c>
       <c r="F84" t="n">
-        <v>53976.0498</v>
+        <v>559</v>
       </c>
       <c r="G84" t="n">
-        <v>3.034016666666663</v>
+        <v>3.033699999999996</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3497,7 +3675,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3512,22 +3692,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="C85" t="n">
         <v>3.035</v>
       </c>
       <c r="D85" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="E85" t="n">
         <v>3.035</v>
       </c>
       <c r="F85" t="n">
-        <v>608</v>
+        <v>53976.0498</v>
       </c>
       <c r="G85" t="n">
-        <v>3.03378333333333</v>
+        <v>3.034016666666663</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3536,7 +3716,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3563,10 +3745,10 @@
         <v>3.035</v>
       </c>
       <c r="F86" t="n">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="G86" t="n">
-        <v>3.033549999999996</v>
+        <v>3.03378333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3575,7 +3757,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3590,22 +3774,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3.065</v>
+        <v>3.035</v>
       </c>
       <c r="C87" t="n">
         <v>3.035</v>
       </c>
       <c r="D87" t="n">
-        <v>3.065</v>
+        <v>3.035</v>
       </c>
       <c r="E87" t="n">
         <v>3.035</v>
       </c>
       <c r="F87" t="n">
-        <v>1118</v>
+        <v>593</v>
       </c>
       <c r="G87" t="n">
-        <v>3.033933333333329</v>
+        <v>3.033549999999996</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3614,7 +3798,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3629,31 +3815,35 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>3.035</v>
+        <v>3.065</v>
       </c>
       <c r="C88" t="n">
         <v>3.035</v>
       </c>
       <c r="D88" t="n">
-        <v>3.035</v>
+        <v>3.065</v>
       </c>
       <c r="E88" t="n">
         <v>3.035</v>
       </c>
       <c r="F88" t="n">
-        <v>78380.09450000001</v>
+        <v>1118</v>
       </c>
       <c r="G88" t="n">
-        <v>3.033683333333329</v>
+        <v>3.033933333333329</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="K88" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3680,10 +3870,10 @@
         <v>3.035</v>
       </c>
       <c r="F89" t="n">
-        <v>448.667</v>
+        <v>78380.09450000001</v>
       </c>
       <c r="G89" t="n">
-        <v>3.033883333333329</v>
+        <v>3.033683333333329</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3692,7 +3882,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3719,10 +3911,10 @@
         <v>3.035</v>
       </c>
       <c r="F90" t="n">
-        <v>625</v>
+        <v>448.667</v>
       </c>
       <c r="G90" t="n">
-        <v>3.033633333333329</v>
+        <v>3.033883333333329</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3731,7 +3923,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3758,10 +3952,10 @@
         <v>3.035</v>
       </c>
       <c r="F91" t="n">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="G91" t="n">
-        <v>3.033833333333328</v>
+        <v>3.033633333333329</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3770,7 +3964,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3785,22 +3981,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3.065</v>
+        <v>3.035</v>
       </c>
       <c r="C92" t="n">
-        <v>3.045</v>
+        <v>3.035</v>
       </c>
       <c r="D92" t="n">
-        <v>3.082</v>
+        <v>3.035</v>
       </c>
       <c r="E92" t="n">
-        <v>3.045</v>
+        <v>3.035</v>
       </c>
       <c r="F92" t="n">
-        <v>55216.1021843608</v>
+        <v>621</v>
       </c>
       <c r="G92" t="n">
-        <v>3.033749999999995</v>
+        <v>3.033833333333328</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3809,7 +4005,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3824,22 +4022,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>3.045</v>
+        <v>3.065</v>
       </c>
       <c r="C93" t="n">
         <v>3.045</v>
       </c>
       <c r="D93" t="n">
-        <v>3.045</v>
+        <v>3.082</v>
       </c>
       <c r="E93" t="n">
         <v>3.045</v>
       </c>
       <c r="F93" t="n">
-        <v>587</v>
+        <v>55216.1021843608</v>
       </c>
       <c r="G93" t="n">
-        <v>3.033516666666662</v>
+        <v>3.033749999999995</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3848,7 +4046,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3875,10 +4075,10 @@
         <v>3.045</v>
       </c>
       <c r="F94" t="n">
-        <v>640</v>
+        <v>587</v>
       </c>
       <c r="G94" t="n">
-        <v>3.033283333333328</v>
+        <v>3.033516666666662</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3887,7 +4087,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3914,10 +4116,10 @@
         <v>3.045</v>
       </c>
       <c r="F95" t="n">
-        <v>520</v>
+        <v>640</v>
       </c>
       <c r="G95" t="n">
-        <v>3.033049999999994</v>
+        <v>3.033283333333328</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3926,7 +4128,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3944,19 +4148,19 @@
         <v>3.045</v>
       </c>
       <c r="C96" t="n">
-        <v>3.037</v>
+        <v>3.045</v>
       </c>
       <c r="D96" t="n">
         <v>3.045</v>
       </c>
       <c r="E96" t="n">
-        <v>3.037</v>
+        <v>3.045</v>
       </c>
       <c r="F96" t="n">
-        <v>12113</v>
+        <v>520</v>
       </c>
       <c r="G96" t="n">
-        <v>3.033116666666662</v>
+        <v>3.033049999999994</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3965,7 +4169,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3980,22 +4186,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>3.037</v>
+        <v>3.045</v>
       </c>
       <c r="C97" t="n">
         <v>3.037</v>
       </c>
       <c r="D97" t="n">
-        <v>3.037</v>
+        <v>3.045</v>
       </c>
       <c r="E97" t="n">
         <v>3.037</v>
       </c>
       <c r="F97" t="n">
-        <v>586</v>
+        <v>12113</v>
       </c>
       <c r="G97" t="n">
-        <v>3.033433333333328</v>
+        <v>3.033116666666662</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4004,7 +4210,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4031,10 +4239,10 @@
         <v>3.037</v>
       </c>
       <c r="F98" t="n">
-        <v>684</v>
+        <v>586</v>
       </c>
       <c r="G98" t="n">
-        <v>3.033749999999995</v>
+        <v>3.033433333333328</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4043,7 +4251,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4058,31 +4268,35 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3.047</v>
+        <v>3.037</v>
       </c>
       <c r="C99" t="n">
-        <v>3.05</v>
+        <v>3.037</v>
       </c>
       <c r="D99" t="n">
-        <v>3.05</v>
+        <v>3.037</v>
       </c>
       <c r="E99" t="n">
-        <v>3.047</v>
+        <v>3.037</v>
       </c>
       <c r="F99" t="n">
-        <v>19869.0328</v>
+        <v>684</v>
       </c>
       <c r="G99" t="n">
-        <v>3.034366666666662</v>
+        <v>3.033749999999995</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="K99" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4097,22 +4311,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3.037</v>
+        <v>3.047</v>
       </c>
       <c r="C100" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="D100" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="E100" t="n">
-        <v>3.037</v>
+        <v>3.047</v>
       </c>
       <c r="F100" t="n">
-        <v>532</v>
+        <v>19869.0328</v>
       </c>
       <c r="G100" t="n">
-        <v>3.034766666666662</v>
+        <v>3.034366666666662</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4121,7 +4335,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4148,10 +4364,10 @@
         <v>3.037</v>
       </c>
       <c r="F101" t="n">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="G101" t="n">
-        <v>3.035083333333328</v>
+        <v>3.034766666666662</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4160,7 +4376,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4178,19 +4396,19 @@
         <v>3.037</v>
       </c>
       <c r="C102" t="n">
-        <v>3.06</v>
+        <v>3.037</v>
       </c>
       <c r="D102" t="n">
-        <v>3.06</v>
+        <v>3.037</v>
       </c>
       <c r="E102" t="n">
         <v>3.037</v>
       </c>
       <c r="F102" t="n">
-        <v>860</v>
+        <v>512</v>
       </c>
       <c r="G102" t="n">
-        <v>3.035883333333329</v>
+        <v>3.035083333333328</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4199,7 +4417,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4217,19 +4437,19 @@
         <v>3.037</v>
       </c>
       <c r="C103" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="D103" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="E103" t="n">
         <v>3.037</v>
       </c>
       <c r="F103" t="n">
-        <v>665</v>
+        <v>860</v>
       </c>
       <c r="G103" t="n">
-        <v>3.036299999999995</v>
+        <v>3.035883333333329</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4238,7 +4458,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4265,10 +4487,10 @@
         <v>3.037</v>
       </c>
       <c r="F104" t="n">
-        <v>513</v>
+        <v>665</v>
       </c>
       <c r="G104" t="n">
-        <v>3.036699999999995</v>
+        <v>3.036299999999995</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4277,7 +4499,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4304,10 +4528,10 @@
         <v>3.037</v>
       </c>
       <c r="F105" t="n">
-        <v>688</v>
+        <v>513</v>
       </c>
       <c r="G105" t="n">
-        <v>3.036983333333329</v>
+        <v>3.036699999999995</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4316,7 +4540,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4343,10 +4569,10 @@
         <v>3.037</v>
       </c>
       <c r="F106" t="n">
-        <v>650</v>
+        <v>688</v>
       </c>
       <c r="G106" t="n">
-        <v>3.036783333333328</v>
+        <v>3.036983333333329</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4355,7 +4581,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4382,10 +4610,10 @@
         <v>3.037</v>
       </c>
       <c r="F107" t="n">
-        <v>688</v>
+        <v>650</v>
       </c>
       <c r="G107" t="n">
-        <v>3.036583333333328</v>
+        <v>3.036783333333328</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4394,7 +4622,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4421,10 +4651,10 @@
         <v>3.037</v>
       </c>
       <c r="F108" t="n">
-        <v>560</v>
+        <v>688</v>
       </c>
       <c r="G108" t="n">
-        <v>3.036983333333329</v>
+        <v>3.036583333333328</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4433,7 +4663,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4460,10 +4692,10 @@
         <v>3.037</v>
       </c>
       <c r="F109" t="n">
-        <v>699</v>
+        <v>560</v>
       </c>
       <c r="G109" t="n">
-        <v>3.036766666666662</v>
+        <v>3.036983333333329</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4472,7 +4704,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4487,22 +4721,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>3.06</v>
+        <v>3.037</v>
       </c>
       <c r="C110" t="n">
         <v>3.037</v>
       </c>
       <c r="D110" t="n">
-        <v>3.06</v>
+        <v>3.037</v>
       </c>
       <c r="E110" t="n">
         <v>3.037</v>
       </c>
       <c r="F110" t="n">
-        <v>1066</v>
+        <v>699</v>
       </c>
       <c r="G110" t="n">
-        <v>3.036549999999995</v>
+        <v>3.036766666666662</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4511,7 +4745,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4526,22 +4762,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="C111" t="n">
         <v>3.037</v>
       </c>
       <c r="D111" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="E111" t="n">
         <v>3.037</v>
       </c>
       <c r="F111" t="n">
-        <v>505</v>
+        <v>1066</v>
       </c>
       <c r="G111" t="n">
-        <v>3.036333333333328</v>
+        <v>3.036549999999995</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4550,7 +4786,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4577,10 +4815,10 @@
         <v>3.037</v>
       </c>
       <c r="F112" t="n">
-        <v>599</v>
+        <v>505</v>
       </c>
       <c r="G112" t="n">
-        <v>3.036133333333328</v>
+        <v>3.036333333333328</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4589,7 +4827,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4616,10 +4856,10 @@
         <v>3.037</v>
       </c>
       <c r="F113" t="n">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="G113" t="n">
-        <v>3.035933333333328</v>
+        <v>3.036133333333328</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4628,7 +4868,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4655,10 +4897,10 @@
         <v>3.037</v>
       </c>
       <c r="F114" t="n">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="G114" t="n">
-        <v>3.035883333333329</v>
+        <v>3.035933333333328</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4667,7 +4909,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4694,10 +4938,10 @@
         <v>3.037</v>
       </c>
       <c r="F115" t="n">
-        <v>697</v>
+        <v>581</v>
       </c>
       <c r="G115" t="n">
-        <v>3.035849999999995</v>
+        <v>3.035883333333329</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4706,7 +4950,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4733,7 +4979,7 @@
         <v>3.037</v>
       </c>
       <c r="F116" t="n">
-        <v>553</v>
+        <v>697</v>
       </c>
       <c r="G116" t="n">
         <v>3.035849999999995</v>
@@ -4745,7 +4991,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4772,10 +5020,10 @@
         <v>3.037</v>
       </c>
       <c r="F117" t="n">
-        <v>677</v>
+        <v>553</v>
       </c>
       <c r="G117" t="n">
-        <v>3.035799999999996</v>
+        <v>3.035849999999995</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4784,7 +5032,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4811,10 +5061,10 @@
         <v>3.037</v>
       </c>
       <c r="F118" t="n">
-        <v>512</v>
+        <v>677</v>
       </c>
       <c r="G118" t="n">
-        <v>3.035833333333329</v>
+        <v>3.035799999999996</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4823,7 +5073,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4850,10 +5102,10 @@
         <v>3.037</v>
       </c>
       <c r="F119" t="n">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G119" t="n">
-        <v>3.035866666666663</v>
+        <v>3.035833333333329</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4862,7 +5114,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4889,10 +5143,10 @@
         <v>3.037</v>
       </c>
       <c r="F120" t="n">
-        <v>633</v>
+        <v>514</v>
       </c>
       <c r="G120" t="n">
-        <v>3.035899999999996</v>
+        <v>3.035866666666663</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4901,7 +5155,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4928,10 +5184,10 @@
         <v>3.037</v>
       </c>
       <c r="F121" t="n">
-        <v>524</v>
+        <v>633</v>
       </c>
       <c r="G121" t="n">
-        <v>3.03593333333333</v>
+        <v>3.035899999999996</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4940,7 +5196,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4967,10 +5225,10 @@
         <v>3.037</v>
       </c>
       <c r="F122" t="n">
-        <v>622</v>
+        <v>524</v>
       </c>
       <c r="G122" t="n">
-        <v>3.035716666666663</v>
+        <v>3.03593333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4979,7 +5237,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5006,10 +5266,10 @@
         <v>3.037</v>
       </c>
       <c r="F123" t="n">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="G123" t="n">
-        <v>3.035749999999996</v>
+        <v>3.035716666666663</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5018,7 +5278,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5045,10 +5307,10 @@
         <v>3.037</v>
       </c>
       <c r="F124" t="n">
-        <v>554</v>
+        <v>633</v>
       </c>
       <c r="G124" t="n">
-        <v>3.03578333333333</v>
+        <v>3.035749999999996</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5057,7 +5319,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5084,10 +5348,10 @@
         <v>3.037</v>
       </c>
       <c r="F125" t="n">
-        <v>698</v>
+        <v>554</v>
       </c>
       <c r="G125" t="n">
-        <v>3.035816666666663</v>
+        <v>3.03578333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5096,7 +5360,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5111,22 +5377,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.038</v>
+        <v>3.037</v>
       </c>
       <c r="C126" t="n">
-        <v>3.039</v>
+        <v>3.037</v>
       </c>
       <c r="D126" t="n">
-        <v>3.039</v>
+        <v>3.037</v>
       </c>
       <c r="E126" t="n">
-        <v>3.038</v>
+        <v>3.037</v>
       </c>
       <c r="F126" t="n">
-        <v>1104</v>
+        <v>698</v>
       </c>
       <c r="G126" t="n">
-        <v>3.03588333333333</v>
+        <v>3.035816666666663</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5135,7 +5401,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5150,7 +5418,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3.039</v>
+        <v>3.038</v>
       </c>
       <c r="C127" t="n">
         <v>3.039</v>
@@ -5159,13 +5427,13 @@
         <v>3.039</v>
       </c>
       <c r="E127" t="n">
-        <v>3.039</v>
+        <v>3.038</v>
       </c>
       <c r="F127" t="n">
-        <v>563</v>
+        <v>1104</v>
       </c>
       <c r="G127" t="n">
-        <v>3.035949999999997</v>
+        <v>3.03588333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5174,7 +5442,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5201,10 +5471,10 @@
         <v>3.039</v>
       </c>
       <c r="F128" t="n">
-        <v>637</v>
+        <v>563</v>
       </c>
       <c r="G128" t="n">
-        <v>3.036016666666663</v>
+        <v>3.035949999999997</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5213,7 +5483,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5228,22 +5500,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.06</v>
+        <v>3.039</v>
       </c>
       <c r="C129" t="n">
         <v>3.039</v>
       </c>
       <c r="D129" t="n">
-        <v>3.06</v>
+        <v>3.039</v>
       </c>
       <c r="E129" t="n">
         <v>3.039</v>
       </c>
       <c r="F129" t="n">
-        <v>1524.3259</v>
+        <v>637</v>
       </c>
       <c r="G129" t="n">
-        <v>3.036083333333329</v>
+        <v>3.036016666666663</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5252,7 +5524,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5267,22 +5541,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3.039</v>
+        <v>3.06</v>
       </c>
       <c r="C130" t="n">
         <v>3.039</v>
       </c>
       <c r="D130" t="n">
-        <v>3.039</v>
+        <v>3.06</v>
       </c>
       <c r="E130" t="n">
         <v>3.039</v>
       </c>
       <c r="F130" t="n">
-        <v>613</v>
+        <v>1524.3259</v>
       </c>
       <c r="G130" t="n">
-        <v>3.036149999999996</v>
+        <v>3.036083333333329</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5291,7 +5565,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5318,10 +5594,10 @@
         <v>3.039</v>
       </c>
       <c r="F131" t="n">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="G131" t="n">
-        <v>3.036366666666662</v>
+        <v>3.036149999999996</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5330,7 +5606,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5357,10 +5635,10 @@
         <v>3.039</v>
       </c>
       <c r="F132" t="n">
-        <v>569</v>
+        <v>610</v>
       </c>
       <c r="G132" t="n">
-        <v>3.036583333333328</v>
+        <v>3.036366666666662</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5369,7 +5647,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5396,10 +5676,10 @@
         <v>3.039</v>
       </c>
       <c r="F133" t="n">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="G133" t="n">
-        <v>3.036799999999995</v>
+        <v>3.036583333333328</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5408,7 +5688,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5435,10 +5717,10 @@
         <v>3.039</v>
       </c>
       <c r="F134" t="n">
-        <v>588</v>
+        <v>551</v>
       </c>
       <c r="G134" t="n">
-        <v>3.037016666666661</v>
+        <v>3.036799999999995</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5447,7 +5729,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5474,10 +5758,10 @@
         <v>3.039</v>
       </c>
       <c r="F135" t="n">
-        <v>533</v>
+        <v>588</v>
       </c>
       <c r="G135" t="n">
-        <v>3.037233333333327</v>
+        <v>3.037016666666661</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5486,7 +5770,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5513,10 +5799,10 @@
         <v>3.039</v>
       </c>
       <c r="F136" t="n">
-        <v>643</v>
+        <v>533</v>
       </c>
       <c r="G136" t="n">
-        <v>3.037449999999994</v>
+        <v>3.037233333333327</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5525,7 +5811,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5543,19 +5831,19 @@
         <v>3.039</v>
       </c>
       <c r="C137" t="n">
-        <v>3.06</v>
+        <v>3.039</v>
       </c>
       <c r="D137" t="n">
-        <v>3.06</v>
+        <v>3.039</v>
       </c>
       <c r="E137" t="n">
         <v>3.039</v>
       </c>
       <c r="F137" t="n">
-        <v>1150</v>
+        <v>643</v>
       </c>
       <c r="G137" t="n">
-        <v>3.03801666666666</v>
+        <v>3.037449999999994</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5564,7 +5852,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5582,19 +5872,19 @@
         <v>3.039</v>
       </c>
       <c r="C138" t="n">
-        <v>3.039</v>
+        <v>3.06</v>
       </c>
       <c r="D138" t="n">
-        <v>3.039</v>
+        <v>3.06</v>
       </c>
       <c r="E138" t="n">
         <v>3.039</v>
       </c>
       <c r="F138" t="n">
-        <v>519</v>
+        <v>1150</v>
       </c>
       <c r="G138" t="n">
-        <v>3.038233333333326</v>
+        <v>3.03801666666666</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5603,7 +5893,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5630,10 +5922,10 @@
         <v>3.039</v>
       </c>
       <c r="F139" t="n">
-        <v>613</v>
+        <v>519</v>
       </c>
       <c r="G139" t="n">
-        <v>3.03841666666666</v>
+        <v>3.038233333333326</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5642,7 +5934,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5669,10 +5963,10 @@
         <v>3.039</v>
       </c>
       <c r="F140" t="n">
-        <v>582</v>
+        <v>613</v>
       </c>
       <c r="G140" t="n">
-        <v>3.038599999999993</v>
+        <v>3.03841666666666</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5681,7 +5975,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5708,10 +6004,10 @@
         <v>3.039</v>
       </c>
       <c r="F141" t="n">
-        <v>690</v>
+        <v>582</v>
       </c>
       <c r="G141" t="n">
-        <v>3.038783333333326</v>
+        <v>3.038599999999993</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5720,7 +6016,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5747,10 +6045,10 @@
         <v>3.039</v>
       </c>
       <c r="F142" t="n">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="G142" t="n">
-        <v>3.038799999999993</v>
+        <v>3.038783333333326</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5759,7 +6057,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5774,22 +6074,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>3.06</v>
+        <v>3.039</v>
       </c>
       <c r="C143" t="n">
-        <v>3.06</v>
+        <v>3.039</v>
       </c>
       <c r="D143" t="n">
-        <v>3.06</v>
+        <v>3.039</v>
       </c>
       <c r="E143" t="n">
-        <v>3.06</v>
+        <v>3.039</v>
       </c>
       <c r="F143" t="n">
-        <v>510</v>
+        <v>696</v>
       </c>
       <c r="G143" t="n">
-        <v>3.039166666666659</v>
+        <v>3.038799999999993</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5798,7 +6098,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5813,22 +6115,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3.039</v>
+        <v>3.06</v>
       </c>
       <c r="C144" t="n">
-        <v>3.039</v>
+        <v>3.06</v>
       </c>
       <c r="D144" t="n">
-        <v>3.039</v>
+        <v>3.06</v>
       </c>
       <c r="E144" t="n">
-        <v>3.039</v>
+        <v>3.06</v>
       </c>
       <c r="F144" t="n">
-        <v>648</v>
+        <v>510</v>
       </c>
       <c r="G144" t="n">
-        <v>3.039233333333326</v>
+        <v>3.039166666666659</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5837,7 +6139,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5864,10 +6168,10 @@
         <v>3.039</v>
       </c>
       <c r="F145" t="n">
-        <v>12781.8271</v>
+        <v>648</v>
       </c>
       <c r="G145" t="n">
-        <v>3.039299999999992</v>
+        <v>3.039233333333326</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5876,7 +6180,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5903,10 +6209,10 @@
         <v>3.039</v>
       </c>
       <c r="F146" t="n">
-        <v>115288.2981</v>
+        <v>12781.8271</v>
       </c>
       <c r="G146" t="n">
-        <v>3.039366666666659</v>
+        <v>3.039299999999992</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5915,7 +6221,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5930,22 +6238,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>3.06</v>
+        <v>3.039</v>
       </c>
       <c r="C147" t="n">
-        <v>3.06</v>
+        <v>3.039</v>
       </c>
       <c r="D147" t="n">
-        <v>3.06</v>
+        <v>3.039</v>
       </c>
       <c r="E147" t="n">
-        <v>3.06</v>
+        <v>3.039</v>
       </c>
       <c r="F147" t="n">
-        <v>510</v>
+        <v>115288.2981</v>
       </c>
       <c r="G147" t="n">
-        <v>3.039783333333325</v>
+        <v>3.039366666666659</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5954,7 +6262,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5981,10 +6291,10 @@
         <v>3.06</v>
       </c>
       <c r="F148" t="n">
-        <v>2578.7069</v>
+        <v>510</v>
       </c>
       <c r="G148" t="n">
-        <v>3.040199999999992</v>
+        <v>3.039783333333325</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5993,7 +6303,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6008,22 +6320,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>3.072</v>
+        <v>3.06</v>
       </c>
       <c r="C149" t="n">
-        <v>3.072</v>
+        <v>3.06</v>
       </c>
       <c r="D149" t="n">
-        <v>3.072</v>
+        <v>3.06</v>
       </c>
       <c r="E149" t="n">
-        <v>3.072</v>
+        <v>3.06</v>
       </c>
       <c r="F149" t="n">
-        <v>7080.6345</v>
+        <v>2578.7069</v>
       </c>
       <c r="G149" t="n">
-        <v>3.040816666666659</v>
+        <v>3.040199999999992</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6032,7 +6344,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6047,37 +6361,41 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>3.06</v>
+        <v>3.072</v>
       </c>
       <c r="C150" t="n">
-        <v>3.06</v>
+        <v>3.072</v>
       </c>
       <c r="D150" t="n">
-        <v>3.06</v>
+        <v>3.072</v>
       </c>
       <c r="E150" t="n">
-        <v>3.06</v>
+        <v>3.072</v>
       </c>
       <c r="F150" t="n">
-        <v>13218.1398</v>
+        <v>7080.6345</v>
       </c>
       <c r="G150" t="n">
-        <v>3.041233333333325</v>
+        <v>3.040816666666659</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>3.016</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M150" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6096,20 +6414,26 @@
         <v>3.06</v>
       </c>
       <c r="F151" t="n">
-        <v>24684.8874</v>
+        <v>13218.1398</v>
       </c>
       <c r="G151" t="n">
-        <v>3.041649999999992</v>
+        <v>3.041233333333325</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6131,10 +6455,10 @@
         <v>3.06</v>
       </c>
       <c r="F152" t="n">
-        <v>32731.9446</v>
+        <v>24684.8874</v>
       </c>
       <c r="G152" t="n">
-        <v>3.041899999999992</v>
+        <v>3.041649999999992</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6143,10 +6467,16 @@
         <v>1</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M152" t="n">
-        <v>1</v>
+        <v>1.009588859416446</v>
       </c>
     </row>
     <row r="153">
@@ -6154,22 +6484,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3.048</v>
+        <v>3.06</v>
       </c>
       <c r="C153" t="n">
-        <v>3.048</v>
+        <v>3.06</v>
       </c>
       <c r="D153" t="n">
-        <v>3.048</v>
+        <v>3.06</v>
       </c>
       <c r="E153" t="n">
-        <v>3.048</v>
+        <v>3.06</v>
       </c>
       <c r="F153" t="n">
-        <v>7080</v>
+        <v>32731.9446</v>
       </c>
       <c r="G153" t="n">
-        <v>3.041949999999993</v>
+        <v>3.041899999999992</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6189,28 +6519,28 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3.044</v>
+        <v>3.048</v>
       </c>
       <c r="C154" t="n">
-        <v>3.044</v>
+        <v>3.048</v>
       </c>
       <c r="D154" t="n">
-        <v>3.044</v>
+        <v>3.048</v>
       </c>
       <c r="E154" t="n">
-        <v>3.044</v>
+        <v>3.048</v>
       </c>
       <c r="F154" t="n">
-        <v>5520.8414</v>
+        <v>7080</v>
       </c>
       <c r="G154" t="n">
-        <v>3.041933333333326</v>
+        <v>3.041949999999993</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
@@ -6224,22 +6554,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3.041</v>
+        <v>3.044</v>
       </c>
       <c r="C155" t="n">
-        <v>3.038</v>
+        <v>3.044</v>
       </c>
       <c r="D155" t="n">
-        <v>3.041</v>
+        <v>3.044</v>
       </c>
       <c r="E155" t="n">
-        <v>3.038</v>
+        <v>3.044</v>
       </c>
       <c r="F155" t="n">
-        <v>279343.0868</v>
+        <v>5520.8414</v>
       </c>
       <c r="G155" t="n">
-        <v>3.04181666666666</v>
+        <v>3.041933333333326</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6259,22 +6589,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>3.06</v>
+        <v>3.041</v>
       </c>
       <c r="C156" t="n">
-        <v>3.06</v>
+        <v>3.038</v>
       </c>
       <c r="D156" t="n">
-        <v>3.06</v>
+        <v>3.041</v>
       </c>
       <c r="E156" t="n">
-        <v>3.06</v>
+        <v>3.038</v>
       </c>
       <c r="F156" t="n">
-        <v>510</v>
+        <v>279343.0868</v>
       </c>
       <c r="G156" t="n">
-        <v>3.042199999999994</v>
+        <v>3.04181666666666</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6294,22 +6624,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3.038</v>
+        <v>3.06</v>
       </c>
       <c r="C157" t="n">
-        <v>3.038</v>
+        <v>3.06</v>
       </c>
       <c r="D157" t="n">
-        <v>3.038</v>
+        <v>3.06</v>
       </c>
       <c r="E157" t="n">
-        <v>3.038</v>
+        <v>3.06</v>
       </c>
       <c r="F157" t="n">
         <v>510</v>
       </c>
       <c r="G157" t="n">
-        <v>3.04221666666666</v>
+        <v>3.042199999999994</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6341,10 +6671,10 @@
         <v>3.038</v>
       </c>
       <c r="F158" t="n">
-        <v>15870</v>
+        <v>510</v>
       </c>
       <c r="G158" t="n">
-        <v>3.042233333333327</v>
+        <v>3.04221666666666</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6364,22 +6694,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>3.06</v>
+        <v>3.038</v>
       </c>
       <c r="C159" t="n">
-        <v>3.06</v>
+        <v>3.038</v>
       </c>
       <c r="D159" t="n">
-        <v>3.06</v>
+        <v>3.038</v>
       </c>
       <c r="E159" t="n">
-        <v>3.06</v>
+        <v>3.038</v>
       </c>
       <c r="F159" t="n">
-        <v>510</v>
+        <v>15870</v>
       </c>
       <c r="G159" t="n">
-        <v>3.042399999999994</v>
+        <v>3.042233333333327</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6399,22 +6729,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>3.039</v>
+        <v>3.06</v>
       </c>
       <c r="C160" t="n">
-        <v>3.039</v>
+        <v>3.06</v>
       </c>
       <c r="D160" t="n">
-        <v>3.039</v>
+        <v>3.06</v>
       </c>
       <c r="E160" t="n">
-        <v>3.039</v>
+        <v>3.06</v>
       </c>
       <c r="F160" t="n">
         <v>510</v>
       </c>
       <c r="G160" t="n">
-        <v>3.042433333333327</v>
+        <v>3.042399999999994</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6434,22 +6764,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>3.06</v>
+        <v>3.039</v>
       </c>
       <c r="C161" t="n">
-        <v>3.06</v>
+        <v>3.039</v>
       </c>
       <c r="D161" t="n">
-        <v>3.06</v>
+        <v>3.039</v>
       </c>
       <c r="E161" t="n">
-        <v>3.06</v>
+        <v>3.039</v>
       </c>
       <c r="F161" t="n">
         <v>510</v>
       </c>
       <c r="G161" t="n">
-        <v>3.04281666666666</v>
+        <v>3.042433333333327</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6469,22 +6799,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>3.039</v>
+        <v>3.06</v>
       </c>
       <c r="C162" t="n">
-        <v>3.038</v>
+        <v>3.06</v>
       </c>
       <c r="D162" t="n">
-        <v>3.039</v>
+        <v>3.06</v>
       </c>
       <c r="E162" t="n">
-        <v>3.038</v>
+        <v>3.06</v>
       </c>
       <c r="F162" t="n">
-        <v>365195.6367</v>
+        <v>510</v>
       </c>
       <c r="G162" t="n">
-        <v>3.042449999999993</v>
+        <v>3.04281666666666</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6507,19 +6837,19 @@
         <v>3.039</v>
       </c>
       <c r="C163" t="n">
-        <v>3.039</v>
+        <v>3.038</v>
       </c>
       <c r="D163" t="n">
         <v>3.039</v>
       </c>
       <c r="E163" t="n">
-        <v>3.039</v>
+        <v>3.038</v>
       </c>
       <c r="F163" t="n">
-        <v>510</v>
+        <v>365195.6367</v>
       </c>
       <c r="G163" t="n">
-        <v>3.042483333333327</v>
+        <v>3.042449999999993</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6539,22 +6869,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>3.06</v>
+        <v>3.039</v>
       </c>
       <c r="C164" t="n">
-        <v>3.06</v>
+        <v>3.039</v>
       </c>
       <c r="D164" t="n">
-        <v>3.06</v>
+        <v>3.039</v>
       </c>
       <c r="E164" t="n">
-        <v>3.06</v>
+        <v>3.039</v>
       </c>
       <c r="F164" t="n">
-        <v>16441.6611</v>
+        <v>510</v>
       </c>
       <c r="G164" t="n">
-        <v>3.04286666666666</v>
+        <v>3.042483333333327</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6574,22 +6904,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>3.061</v>
+        <v>3.06</v>
       </c>
       <c r="C165" t="n">
-        <v>3.061</v>
+        <v>3.06</v>
       </c>
       <c r="D165" t="n">
-        <v>3.061</v>
+        <v>3.06</v>
       </c>
       <c r="E165" t="n">
-        <v>3.061</v>
+        <v>3.06</v>
       </c>
       <c r="F165" t="n">
-        <v>6086.5939</v>
+        <v>16441.6611</v>
       </c>
       <c r="G165" t="n">
-        <v>3.04326666666666</v>
+        <v>3.04286666666666</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6609,22 +6939,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>3.072</v>
+        <v>3.061</v>
       </c>
       <c r="C166" t="n">
-        <v>3.072</v>
+        <v>3.061</v>
       </c>
       <c r="D166" t="n">
-        <v>3.072</v>
+        <v>3.061</v>
       </c>
       <c r="E166" t="n">
-        <v>3.072</v>
+        <v>3.061</v>
       </c>
       <c r="F166" t="n">
-        <v>575.7018</v>
+        <v>6086.5939</v>
       </c>
       <c r="G166" t="n">
-        <v>3.043849999999993</v>
+        <v>3.04326666666666</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6656,10 +6986,10 @@
         <v>3.072</v>
       </c>
       <c r="F167" t="n">
-        <v>370</v>
+        <v>575.7018</v>
       </c>
       <c r="G167" t="n">
-        <v>3.044433333333326</v>
+        <v>3.043849999999993</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6679,22 +7009,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>3.061</v>
+        <v>3.072</v>
       </c>
       <c r="C168" t="n">
-        <v>3.06</v>
+        <v>3.072</v>
       </c>
       <c r="D168" t="n">
-        <v>3.061</v>
+        <v>3.072</v>
       </c>
       <c r="E168" t="n">
-        <v>3.06</v>
+        <v>3.072</v>
       </c>
       <c r="F168" t="n">
-        <v>121731.0772</v>
+        <v>370</v>
       </c>
       <c r="G168" t="n">
-        <v>3.04481666666666</v>
+        <v>3.044433333333326</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6714,22 +7044,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>3.06</v>
+        <v>3.061</v>
       </c>
       <c r="C169" t="n">
         <v>3.06</v>
       </c>
       <c r="D169" t="n">
-        <v>3.06</v>
+        <v>3.061</v>
       </c>
       <c r="E169" t="n">
         <v>3.06</v>
       </c>
       <c r="F169" t="n">
-        <v>27242.7644</v>
+        <v>121731.0772</v>
       </c>
       <c r="G169" t="n">
-        <v>3.045199999999993</v>
+        <v>3.04481666666666</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6761,10 +7091,10 @@
         <v>3.06</v>
       </c>
       <c r="F170" t="n">
-        <v>294.7576</v>
+        <v>27242.7644</v>
       </c>
       <c r="G170" t="n">
-        <v>3.045583333333326</v>
+        <v>3.045199999999993</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6787,19 +7117,19 @@
         <v>3.06</v>
       </c>
       <c r="C171" t="n">
-        <v>3.061</v>
+        <v>3.06</v>
       </c>
       <c r="D171" t="n">
-        <v>3.061</v>
+        <v>3.06</v>
       </c>
       <c r="E171" t="n">
         <v>3.06</v>
       </c>
       <c r="F171" t="n">
-        <v>33980.26516073179</v>
+        <v>294.7576</v>
       </c>
       <c r="G171" t="n">
-        <v>3.045983333333326</v>
+        <v>3.045583333333326</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6819,22 +7149,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>3.071</v>
+        <v>3.06</v>
       </c>
       <c r="C172" t="n">
-        <v>3.071</v>
+        <v>3.061</v>
       </c>
       <c r="D172" t="n">
-        <v>3.071</v>
+        <v>3.061</v>
       </c>
       <c r="E172" t="n">
-        <v>3.071</v>
+        <v>3.06</v>
       </c>
       <c r="F172" t="n">
-        <v>1127.5779</v>
+        <v>33980.26516073179</v>
       </c>
       <c r="G172" t="n">
-        <v>3.046549999999992</v>
+        <v>3.045983333333326</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6857,19 +7187,19 @@
         <v>3.071</v>
       </c>
       <c r="C173" t="n">
-        <v>3.074</v>
+        <v>3.071</v>
       </c>
       <c r="D173" t="n">
-        <v>3.074</v>
+        <v>3.071</v>
       </c>
       <c r="E173" t="n">
         <v>3.071</v>
       </c>
       <c r="F173" t="n">
-        <v>172794.2311</v>
+        <v>1127.5779</v>
       </c>
       <c r="G173" t="n">
-        <v>3.047166666666659</v>
+        <v>3.046549999999992</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6889,22 +7219,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>3.084</v>
+        <v>3.071</v>
       </c>
       <c r="C174" t="n">
-        <v>3.093</v>
+        <v>3.074</v>
       </c>
       <c r="D174" t="n">
-        <v>3.093</v>
+        <v>3.074</v>
       </c>
       <c r="E174" t="n">
-        <v>3.084</v>
+        <v>3.071</v>
       </c>
       <c r="F174" t="n">
-        <v>85355.7411</v>
+        <v>172794.2311</v>
       </c>
       <c r="G174" t="n">
-        <v>3.048099999999992</v>
+        <v>3.047166666666659</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6924,7 +7254,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>3.093</v>
+        <v>3.084</v>
       </c>
       <c r="C175" t="n">
         <v>3.093</v>
@@ -6933,13 +7263,13 @@
         <v>3.093</v>
       </c>
       <c r="E175" t="n">
-        <v>3.093</v>
+        <v>3.084</v>
       </c>
       <c r="F175" t="n">
-        <v>5050</v>
+        <v>85355.7411</v>
       </c>
       <c r="G175" t="n">
-        <v>3.049033333333325</v>
+        <v>3.048099999999992</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6954,6 +7284,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="C176" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="D176" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="E176" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="F176" t="n">
+        <v>5050</v>
+      </c>
+      <c r="G176" t="n">
+        <v>3.049033333333325</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-14 BackTest MIX.xlsx
+++ b/BackTest/2020-01-14 BackTest MIX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M176"/>
+  <dimension ref="A1:N186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>9451.483899999999</v>
       </c>
       <c r="G2" t="n">
+        <v>3.075133333333332</v>
+      </c>
+      <c r="H2" t="n">
         <v>3.084733333333328</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>510</v>
       </c>
       <c r="G3" t="n">
+        <v>3.078066666666666</v>
+      </c>
+      <c r="H3" t="n">
         <v>3.084616666666661</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>10093.8078</v>
       </c>
       <c r="G4" t="n">
+        <v>3.081066666666666</v>
+      </c>
+      <c r="H4" t="n">
         <v>3.083866666666661</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>16149.2217</v>
       </c>
       <c r="G5" t="n">
+        <v>3.084333333333332</v>
+      </c>
+      <c r="H5" t="n">
         <v>3.083749999999995</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>510</v>
       </c>
       <c r="G6" t="n">
+        <v>3.087399999999999</v>
+      </c>
+      <c r="H6" t="n">
         <v>3.083183333333329</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>3973.407</v>
       </c>
       <c r="G7" t="n">
+        <v>3.090466666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.083016666666662</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>77943.4633</v>
       </c>
       <c r="G8" t="n">
+        <v>3.093333333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>3.082516666666662</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>833.6825</v>
       </c>
       <c r="G9" t="n">
+        <v>3.094666666666666</v>
+      </c>
+      <c r="H9" t="n">
         <v>3.081766666666661</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>510</v>
       </c>
       <c r="G10" t="n">
+        <v>3.095733333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>3.081499999999995</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>267.8453</v>
       </c>
       <c r="G11" t="n">
+        <v>3.094</v>
+      </c>
+      <c r="H11" t="n">
         <v>3.081233333333329</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>8799</v>
       </c>
       <c r="G12" t="n">
+        <v>3.091333333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>3.080983333333328</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>3242.54215304799</v>
       </c>
       <c r="G13" t="n">
+        <v>3.089666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>3.080866666666661</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>162244.8074</v>
       </c>
       <c r="G14" t="n">
+        <v>3.085666666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>3.080433333333328</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>1245.3287</v>
       </c>
       <c r="G15" t="n">
+        <v>3.083733333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>3.079766666666661</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>2545.6583</v>
       </c>
       <c r="G16" t="n">
+        <v>3.0804</v>
+      </c>
+      <c r="H16" t="n">
         <v>3.078933333333327</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>3000</v>
       </c>
       <c r="G17" t="n">
+        <v>3.076733333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>3.078099999999994</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>10075.4698</v>
       </c>
       <c r="G18" t="n">
+        <v>3.075</v>
+      </c>
+      <c r="H18" t="n">
         <v>3.077583333333327</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>166390.7342</v>
       </c>
       <c r="G19" t="n">
+        <v>3.072466666666666</v>
+      </c>
+      <c r="H19" t="n">
         <v>3.076699999999994</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>1639878.443</v>
       </c>
       <c r="G20" t="n">
+        <v>3.069933333333332</v>
+      </c>
+      <c r="H20" t="n">
         <v>3.075816666666661</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>522.4858</v>
       </c>
       <c r="G21" t="n">
+        <v>3.068533333333332</v>
+      </c>
+      <c r="H21" t="n">
         <v>3.075133333333327</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>42751.5545</v>
       </c>
       <c r="G22" t="n">
+        <v>3.066133333333332</v>
+      </c>
+      <c r="H22" t="n">
         <v>3.074199999999994</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>1278.4455</v>
       </c>
       <c r="G23" t="n">
+        <v>3.063466666666665</v>
+      </c>
+      <c r="H23" t="n">
         <v>3.073099999999994</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>1244976.5197</v>
       </c>
       <c r="G24" t="n">
+        <v>3.059866666666665</v>
+      </c>
+      <c r="H24" t="n">
         <v>3.071699999999994</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>67531.5772</v>
       </c>
       <c r="G25" t="n">
+        <v>3.055333333333331</v>
+      </c>
+      <c r="H25" t="n">
         <v>3.070466666666661</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,22 +1365,21 @@
         <v>8244.546200000001</v>
       </c>
       <c r="G26" t="n">
+        <v>3.052999999999998</v>
+      </c>
+      <c r="H26" t="n">
         <v>3.069783333333327</v>
       </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.016</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1327,26 +1403,21 @@
         <v>15666.7743</v>
       </c>
       <c r="G27" t="n">
+        <v>3.051599999999998</v>
+      </c>
+      <c r="H27" t="n">
         <v>3.069099999999994</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>3.049</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1370,24 +1441,21 @@
         <v>100000</v>
       </c>
       <c r="G28" t="n">
+        <v>3.046799999999998</v>
+      </c>
+      <c r="H28" t="n">
         <v>3.067633333333327</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1411,24 +1479,21 @@
         <v>10504.5661</v>
       </c>
       <c r="G29" t="n">
+        <v>3.045799999999998</v>
+      </c>
+      <c r="H29" t="n">
         <v>3.066799999999994</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1452,24 +1517,21 @@
         <v>16817.9014</v>
       </c>
       <c r="G30" t="n">
+        <v>3.042666666666664</v>
+      </c>
+      <c r="H30" t="n">
         <v>3.065899999999994</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1493,24 +1555,21 @@
         <v>1554.412</v>
       </c>
       <c r="G31" t="n">
+        <v>3.041666666666664</v>
+      </c>
+      <c r="H31" t="n">
         <v>3.065283333333328</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1534,24 +1593,21 @@
         <v>510</v>
       </c>
       <c r="G32" t="n">
+        <v>3.039199999999998</v>
+      </c>
+      <c r="H32" t="n">
         <v>3.064383333333328</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1575,24 +1631,21 @@
         <v>2954.0506</v>
       </c>
       <c r="G33" t="n">
+        <v>3.038599999999998</v>
+      </c>
+      <c r="H33" t="n">
         <v>3.063933333333329</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,24 +1669,21 @@
         <v>510</v>
       </c>
       <c r="G34" t="n">
+        <v>3.039399999999998</v>
+      </c>
+      <c r="H34" t="n">
         <v>3.063633333333328</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1657,24 +1707,21 @@
         <v>510</v>
       </c>
       <c r="G35" t="n">
+        <v>3.040199999999998</v>
+      </c>
+      <c r="H35" t="n">
         <v>3.062949999999995</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1698,24 +1745,21 @@
         <v>689.7662</v>
       </c>
       <c r="G36" t="n">
+        <v>3.040199999999998</v>
+      </c>
+      <c r="H36" t="n">
         <v>3.062766666666662</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1739,24 +1783,21 @@
         <v>13160</v>
       </c>
       <c r="G37" t="n">
+        <v>3.039466666666665</v>
+      </c>
+      <c r="H37" t="n">
         <v>3.062149999999995</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1780,24 +1821,21 @@
         <v>510</v>
       </c>
       <c r="G38" t="n">
+        <v>3.037733333333331</v>
+      </c>
+      <c r="H38" t="n">
         <v>3.060783333333328</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1821,24 +1859,21 @@
         <v>68379.9826</v>
       </c>
       <c r="G39" t="n">
+        <v>3.037866666666665</v>
+      </c>
+      <c r="H39" t="n">
         <v>3.059749999999995</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1862,24 +1897,21 @@
         <v>510</v>
       </c>
       <c r="G40" t="n">
+        <v>3.037666666666665</v>
+      </c>
+      <c r="H40" t="n">
         <v>3.058799999999995</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1903,24 +1935,21 @@
         <v>67288.70080000001</v>
       </c>
       <c r="G41" t="n">
+        <v>3.035266666666665</v>
+      </c>
+      <c r="H41" t="n">
         <v>3.057849999999995</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1944,24 +1973,21 @@
         <v>510</v>
       </c>
       <c r="G42" t="n">
+        <v>3.033199999999999</v>
+      </c>
+      <c r="H42" t="n">
         <v>3.057083333333329</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1985,24 +2011,21 @@
         <v>9599.634</v>
       </c>
       <c r="G43" t="n">
+        <v>3.033199999999999</v>
+      </c>
+      <c r="H43" t="n">
         <v>3.056449999999995</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2026,24 +2049,27 @@
         <v>32825.9252</v>
       </c>
       <c r="G44" t="n">
+        <v>3.030666666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>3.055899999999995</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+        <v>3.012</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2067,24 +2093,27 @@
         <v>28360.3429</v>
       </c>
       <c r="G45" t="n">
+        <v>3.029999999999998</v>
+      </c>
+      <c r="H45" t="n">
         <v>3.055433333333329</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+        <v>3.012</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2108,24 +2137,27 @@
         <v>510</v>
       </c>
       <c r="G46" t="n">
+        <v>3.027999999999999</v>
+      </c>
+      <c r="H46" t="n">
         <v>3.055083333333329</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2149,24 +2181,27 @@
         <v>200</v>
       </c>
       <c r="G47" t="n">
+        <v>3.029733333333332</v>
+      </c>
+      <c r="H47" t="n">
         <v>3.055199999999996</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2190,24 +2225,25 @@
         <v>510</v>
       </c>
       <c r="G48" t="n">
+        <v>3.029666666666665</v>
+      </c>
+      <c r="H48" t="n">
         <v>3.055333333333329</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2231,24 +2267,25 @@
         <v>510</v>
       </c>
       <c r="G49" t="n">
+        <v>3.026599999999999</v>
+      </c>
+      <c r="H49" t="n">
         <v>3.05488333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2272,24 +2309,25 @@
         <v>12164.3528</v>
       </c>
       <c r="G50" t="n">
+        <v>3.025999999999998</v>
+      </c>
+      <c r="H50" t="n">
         <v>3.055116666666663</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2313,24 +2351,25 @@
         <v>4078.5053</v>
       </c>
       <c r="G51" t="n">
+        <v>3.025399999999999</v>
+      </c>
+      <c r="H51" t="n">
         <v>3.05538333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,24 +2393,25 @@
         <v>7623.9535</v>
       </c>
       <c r="G52" t="n">
+        <v>3.026533333333332</v>
+      </c>
+      <c r="H52" t="n">
         <v>3.055649999999997</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2395,24 +2435,25 @@
         <v>90240</v>
       </c>
       <c r="G53" t="n">
+        <v>3.028599999999998</v>
+      </c>
+      <c r="H53" t="n">
         <v>3.055783333333331</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2436,24 +2477,25 @@
         <v>510</v>
       </c>
       <c r="G54" t="n">
+        <v>3.030666666666665</v>
+      </c>
+      <c r="H54" t="n">
         <v>3.055766666666664</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2477,24 +2519,25 @@
         <v>70000</v>
       </c>
       <c r="G55" t="n">
+        <v>3.032466666666665</v>
+      </c>
+      <c r="H55" t="n">
         <v>3.055299999999997</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2518,24 +2561,25 @@
         <v>34097.969</v>
       </c>
       <c r="G56" t="n">
+        <v>3.034199999999998</v>
+      </c>
+      <c r="H56" t="n">
         <v>3.054116666666663</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2559,24 +2603,25 @@
         <v>585</v>
       </c>
       <c r="G57" t="n">
+        <v>3.035466666666665</v>
+      </c>
+      <c r="H57" t="n">
         <v>3.052899999999996</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2600,24 +2645,25 @@
         <v>544</v>
       </c>
       <c r="G58" t="n">
+        <v>3.037333333333331</v>
+      </c>
+      <c r="H58" t="n">
         <v>3.051749999999996</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,24 +2687,25 @@
         <v>608</v>
       </c>
       <c r="G59" t="n">
+        <v>3.038866666666665</v>
+      </c>
+      <c r="H59" t="n">
         <v>3.050249999999996</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2682,24 +2729,25 @@
         <v>663</v>
       </c>
       <c r="G60" t="n">
+        <v>3.040333333333331</v>
+      </c>
+      <c r="H60" t="n">
         <v>3.04918333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,24 +2771,27 @@
         <v>556</v>
       </c>
       <c r="G61" t="n">
+        <v>3.041333333333331</v>
+      </c>
+      <c r="H61" t="n">
         <v>3.047849999999996</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2764,24 +2815,27 @@
         <v>17910.06</v>
       </c>
       <c r="G62" t="n">
+        <v>3.040399999999998</v>
+      </c>
+      <c r="H62" t="n">
         <v>3.046516666666662</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2805,24 +2859,25 @@
         <v>200</v>
       </c>
       <c r="G63" t="n">
+        <v>3.040466666666665</v>
+      </c>
+      <c r="H63" t="n">
         <v>3.045933333333329</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2846,24 +2901,25 @@
         <v>15000</v>
       </c>
       <c r="G64" t="n">
+        <v>3.041933333333331</v>
+      </c>
+      <c r="H64" t="n">
         <v>3.045099999999996</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2887,24 +2943,25 @@
         <v>1169</v>
       </c>
       <c r="G65" t="n">
+        <v>3.040933333333332</v>
+      </c>
+      <c r="H65" t="n">
         <v>3.044266666666662</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2928,24 +2985,25 @@
         <v>544</v>
       </c>
       <c r="G66" t="n">
+        <v>3.039933333333332</v>
+      </c>
+      <c r="H66" t="n">
         <v>3.043516666666662</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2969,24 +3027,25 @@
         <v>656</v>
       </c>
       <c r="G67" t="n">
+        <v>3.038933333333332</v>
+      </c>
+      <c r="H67" t="n">
         <v>3.042766666666661</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3010,24 +3069,25 @@
         <v>642</v>
       </c>
       <c r="G68" t="n">
+        <v>3.037999999999998</v>
+      </c>
+      <c r="H68" t="n">
         <v>3.041949999999995</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3051,24 +3111,25 @@
         <v>613</v>
       </c>
       <c r="G69" t="n">
+        <v>3.037066666666665</v>
+      </c>
+      <c r="H69" t="n">
         <v>3.041366666666661</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3092,24 +3153,25 @@
         <v>6253.69</v>
       </c>
       <c r="G70" t="n">
+        <v>3.036733333333332</v>
+      </c>
+      <c r="H70" t="n">
         <v>3.040549999999995</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3133,24 +3195,25 @@
         <v>50397.0974</v>
       </c>
       <c r="G71" t="n">
+        <v>3.036466666666665</v>
+      </c>
+      <c r="H71" t="n">
         <v>3.039733333333328</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,24 +3237,25 @@
         <v>609</v>
       </c>
       <c r="G72" t="n">
+        <v>3.035733333333332</v>
+      </c>
+      <c r="H72" t="n">
         <v>3.038999999999995</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3215,24 +3279,25 @@
         <v>625</v>
       </c>
       <c r="G73" t="n">
+        <v>3.034799999999999</v>
+      </c>
+      <c r="H73" t="n">
         <v>3.038033333333328</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3256,24 +3321,25 @@
         <v>519</v>
       </c>
       <c r="G74" t="n">
+        <v>3.034199999999999</v>
+      </c>
+      <c r="H74" t="n">
         <v>3.037383333333329</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3297,24 +3363,25 @@
         <v>659</v>
       </c>
       <c r="G75" t="n">
+        <v>3.033599999999999</v>
+      </c>
+      <c r="H75" t="n">
         <v>3.036649999999995</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3338,24 +3405,25 @@
         <v>609</v>
       </c>
       <c r="G76" t="n">
+        <v>3.032999999999999</v>
+      </c>
+      <c r="H76" t="n">
         <v>3.035999999999996</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3379,24 +3447,25 @@
         <v>530</v>
       </c>
       <c r="G77" t="n">
+        <v>3.0324</v>
+      </c>
+      <c r="H77" t="n">
         <v>3.035433333333329</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3420,24 +3489,25 @@
         <v>567</v>
       </c>
       <c r="G78" t="n">
+        <v>3.030799999999999</v>
+      </c>
+      <c r="H78" t="n">
         <v>3.034883333333329</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3461,24 +3531,25 @@
         <v>619</v>
       </c>
       <c r="G79" t="n">
+        <v>3.030199999999999</v>
+      </c>
+      <c r="H79" t="n">
         <v>3.03453333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3502,24 +3573,25 @@
         <v>649</v>
       </c>
       <c r="G80" t="n">
+        <v>3.029733333333332</v>
+      </c>
+      <c r="H80" t="n">
         <v>3.034216666666663</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3543,24 +3615,25 @@
         <v>1647</v>
       </c>
       <c r="G81" t="n">
+        <v>3.029266666666665</v>
+      </c>
+      <c r="H81" t="n">
         <v>3.033699999999996</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3584,24 +3657,25 @@
         <v>569</v>
       </c>
       <c r="G82" t="n">
+        <v>3.028799999999998</v>
+      </c>
+      <c r="H82" t="n">
         <v>3.033433333333329</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3625,24 +3699,25 @@
         <v>27536.2123</v>
       </c>
       <c r="G83" t="n">
+        <v>3.028999999999998</v>
+      </c>
+      <c r="H83" t="n">
         <v>3.033333333333329</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3666,24 +3741,25 @@
         <v>559</v>
       </c>
       <c r="G84" t="n">
+        <v>3.029199999999998</v>
+      </c>
+      <c r="H84" t="n">
         <v>3.033699999999996</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3707,24 +3783,25 @@
         <v>53976.0498</v>
       </c>
       <c r="G85" t="n">
+        <v>3.029199999999998</v>
+      </c>
+      <c r="H85" t="n">
         <v>3.034016666666663</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3748,24 +3825,25 @@
         <v>608</v>
       </c>
       <c r="G86" t="n">
+        <v>3.029199999999998</v>
+      </c>
+      <c r="H86" t="n">
         <v>3.03378333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3789,24 +3867,27 @@
         <v>593</v>
       </c>
       <c r="G87" t="n">
+        <v>3.029799999999998</v>
+      </c>
+      <c r="H87" t="n">
         <v>3.033549999999996</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3830,26 +3911,27 @@
         <v>1118</v>
       </c>
       <c r="G88" t="n">
+        <v>3.030399999999998</v>
+      </c>
+      <c r="H88" t="n">
         <v>3.033933333333329</v>
       </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
         <v>3.035</v>
       </c>
-      <c r="K88" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3873,24 +3955,25 @@
         <v>78380.09450000001</v>
       </c>
       <c r="G89" t="n">
+        <v>3.030999999999998</v>
+      </c>
+      <c r="H89" t="n">
         <v>3.033683333333329</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3914,24 +3997,25 @@
         <v>448.667</v>
       </c>
       <c r="G90" t="n">
+        <v>3.031599999999998</v>
+      </c>
+      <c r="H90" t="n">
         <v>3.033883333333329</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3955,24 +4039,27 @@
         <v>625</v>
       </c>
       <c r="G91" t="n">
+        <v>3.032199999999998</v>
+      </c>
+      <c r="H91" t="n">
         <v>3.033633333333329</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3996,24 +4083,27 @@
         <v>621</v>
       </c>
       <c r="G92" t="n">
+        <v>3.032799999999999</v>
+      </c>
+      <c r="H92" t="n">
         <v>3.033833333333328</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4037,24 +4127,27 @@
         <v>55216.1021843608</v>
       </c>
       <c r="G93" t="n">
+        <v>3.034066666666666</v>
+      </c>
+      <c r="H93" t="n">
         <v>3.033749999999995</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4078,24 +4171,27 @@
         <v>587</v>
       </c>
       <c r="G94" t="n">
+        <v>3.035333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>3.033516666666662</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+        <v>3.045</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4119,24 +4215,25 @@
         <v>640</v>
       </c>
       <c r="G95" t="n">
+        <v>3.036466666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>3.033283333333328</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4160,24 +4257,25 @@
         <v>520</v>
       </c>
       <c r="G96" t="n">
+        <v>3.037599999999999</v>
+      </c>
+      <c r="H96" t="n">
         <v>3.033049999999994</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4201,24 +4299,25 @@
         <v>12113</v>
       </c>
       <c r="G97" t="n">
+        <v>3.038199999999999</v>
+      </c>
+      <c r="H97" t="n">
         <v>3.033116666666662</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4242,24 +4341,25 @@
         <v>586</v>
       </c>
       <c r="G98" t="n">
+        <v>3.038133333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>3.033433333333328</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4283,26 +4383,25 @@
         <v>684</v>
       </c>
       <c r="G99" t="n">
+        <v>3.038066666666666</v>
+      </c>
+      <c r="H99" t="n">
         <v>3.033749999999995</v>
       </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="K99" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4326,24 +4425,25 @@
         <v>19869.0328</v>
       </c>
       <c r="G100" t="n">
+        <v>3.039066666666666</v>
+      </c>
+      <c r="H100" t="n">
         <v>3.034366666666662</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4367,24 +4467,25 @@
         <v>532</v>
       </c>
       <c r="G101" t="n">
+        <v>3.0392</v>
+      </c>
+      <c r="H101" t="n">
         <v>3.034766666666662</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4408,24 +4509,25 @@
         <v>512</v>
       </c>
       <c r="G102" t="n">
+        <v>3.039333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>3.035083333333328</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4449,24 +4551,27 @@
         <v>860</v>
       </c>
       <c r="G103" t="n">
+        <v>3.040999999999999</v>
+      </c>
+      <c r="H103" t="n">
         <v>3.035883333333329</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4490,24 +4595,25 @@
         <v>665</v>
       </c>
       <c r="G104" t="n">
+        <v>3.041133333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>3.036299999999995</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4531,24 +4637,27 @@
         <v>513</v>
       </c>
       <c r="G105" t="n">
+        <v>3.041266666666666</v>
+      </c>
+      <c r="H105" t="n">
         <v>3.036699999999995</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4572,24 +4681,27 @@
         <v>688</v>
       </c>
       <c r="G106" t="n">
+        <v>3.041399999999999</v>
+      </c>
+      <c r="H106" t="n">
         <v>3.036983333333329</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,24 +4725,27 @@
         <v>650</v>
       </c>
       <c r="G107" t="n">
+        <v>3.041533333333332</v>
+      </c>
+      <c r="H107" t="n">
         <v>3.036783333333328</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4654,24 +4769,27 @@
         <v>688</v>
       </c>
       <c r="G108" t="n">
+        <v>3.040999999999998</v>
+      </c>
+      <c r="H108" t="n">
         <v>3.036583333333328</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4695,24 +4813,27 @@
         <v>560</v>
       </c>
       <c r="G109" t="n">
+        <v>3.040466666666665</v>
+      </c>
+      <c r="H109" t="n">
         <v>3.036983333333329</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4736,24 +4857,27 @@
         <v>699</v>
       </c>
       <c r="G110" t="n">
+        <v>3.039933333333331</v>
+      </c>
+      <c r="H110" t="n">
         <v>3.036766666666662</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4777,24 +4901,27 @@
         <v>1066</v>
       </c>
       <c r="G111" t="n">
+        <v>3.039399999999998</v>
+      </c>
+      <c r="H111" t="n">
         <v>3.036549999999995</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4818,24 +4945,25 @@
         <v>505</v>
       </c>
       <c r="G112" t="n">
+        <v>3.039399999999998</v>
+      </c>
+      <c r="H112" t="n">
         <v>3.036333333333328</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4859,24 +4987,25 @@
         <v>599</v>
       </c>
       <c r="G113" t="n">
+        <v>3.039399999999998</v>
+      </c>
+      <c r="H113" t="n">
         <v>3.036133333333328</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4900,24 +5029,25 @@
         <v>591</v>
       </c>
       <c r="G114" t="n">
+        <v>3.039399999999998</v>
+      </c>
+      <c r="H114" t="n">
         <v>3.035933333333328</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4941,24 +5071,25 @@
         <v>581</v>
       </c>
       <c r="G115" t="n">
+        <v>3.038533333333331</v>
+      </c>
+      <c r="H115" t="n">
         <v>3.035883333333329</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4982,24 +5113,25 @@
         <v>697</v>
       </c>
       <c r="G116" t="n">
+        <v>3.038533333333331</v>
+      </c>
+      <c r="H116" t="n">
         <v>3.035849999999995</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5023,24 +5155,27 @@
         <v>553</v>
       </c>
       <c r="G117" t="n">
+        <v>3.038533333333331</v>
+      </c>
+      <c r="H117" t="n">
         <v>3.035849999999995</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5064,24 +5199,27 @@
         <v>677</v>
       </c>
       <c r="G118" t="n">
+        <v>3.036999999999998</v>
+      </c>
+      <c r="H118" t="n">
         <v>3.035799999999996</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5105,24 +5243,27 @@
         <v>512</v>
       </c>
       <c r="G119" t="n">
+        <v>3.036999999999998</v>
+      </c>
+      <c r="H119" t="n">
         <v>3.035833333333329</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5146,24 +5287,27 @@
         <v>514</v>
       </c>
       <c r="G120" t="n">
+        <v>3.036999999999998</v>
+      </c>
+      <c r="H120" t="n">
         <v>3.035866666666663</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5187,24 +5331,25 @@
         <v>633</v>
       </c>
       <c r="G121" t="n">
+        <v>3.036999999999998</v>
+      </c>
+      <c r="H121" t="n">
         <v>3.035899999999996</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5228,24 +5373,27 @@
         <v>524</v>
       </c>
       <c r="G122" t="n">
+        <v>3.036999999999998</v>
+      </c>
+      <c r="H122" t="n">
         <v>3.03593333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5269,24 +5417,27 @@
         <v>622</v>
       </c>
       <c r="G123" t="n">
+        <v>3.036999999999998</v>
+      </c>
+      <c r="H123" t="n">
         <v>3.035716666666663</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5310,24 +5461,27 @@
         <v>633</v>
       </c>
       <c r="G124" t="n">
+        <v>3.036999999999998</v>
+      </c>
+      <c r="H124" t="n">
         <v>3.035749999999996</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5351,24 +5505,27 @@
         <v>554</v>
       </c>
       <c r="G125" t="n">
+        <v>3.036999999999998</v>
+      </c>
+      <c r="H125" t="n">
         <v>3.03578333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5392,24 +5549,27 @@
         <v>698</v>
       </c>
       <c r="G126" t="n">
+        <v>3.036999999999998</v>
+      </c>
+      <c r="H126" t="n">
         <v>3.035816666666663</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5433,24 +5593,27 @@
         <v>1104</v>
       </c>
       <c r="G127" t="n">
+        <v>3.037133333333331</v>
+      </c>
+      <c r="H127" t="n">
         <v>3.03588333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5474,24 +5637,27 @@
         <v>563</v>
       </c>
       <c r="G128" t="n">
+        <v>3.037266666666665</v>
+      </c>
+      <c r="H128" t="n">
         <v>3.035949999999997</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5515,24 +5681,27 @@
         <v>637</v>
       </c>
       <c r="G129" t="n">
+        <v>3.037399999999998</v>
+      </c>
+      <c r="H129" t="n">
         <v>3.036016666666663</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5556,24 +5725,27 @@
         <v>1524.3259</v>
       </c>
       <c r="G130" t="n">
+        <v>3.037533333333331</v>
+      </c>
+      <c r="H130" t="n">
         <v>3.036083333333329</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5597,24 +5769,25 @@
         <v>613</v>
       </c>
       <c r="G131" t="n">
+        <v>3.037666666666665</v>
+      </c>
+      <c r="H131" t="n">
         <v>3.036149999999996</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5638,24 +5811,25 @@
         <v>610</v>
       </c>
       <c r="G132" t="n">
+        <v>3.037799999999999</v>
+      </c>
+      <c r="H132" t="n">
         <v>3.036366666666662</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5679,24 +5853,25 @@
         <v>569</v>
       </c>
       <c r="G133" t="n">
+        <v>3.037933333333332</v>
+      </c>
+      <c r="H133" t="n">
         <v>3.036583333333328</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5720,24 +5895,27 @@
         <v>551</v>
       </c>
       <c r="G134" t="n">
+        <v>3.038066666666666</v>
+      </c>
+      <c r="H134" t="n">
         <v>3.036799999999995</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5761,24 +5939,27 @@
         <v>588</v>
       </c>
       <c r="G135" t="n">
+        <v>3.038199999999999</v>
+      </c>
+      <c r="H135" t="n">
         <v>3.037016666666661</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5802,24 +5983,27 @@
         <v>533</v>
       </c>
       <c r="G136" t="n">
+        <v>3.038333333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>3.037233333333327</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5843,24 +6027,27 @@
         <v>643</v>
       </c>
       <c r="G137" t="n">
+        <v>3.038466666666666</v>
+      </c>
+      <c r="H137" t="n">
         <v>3.037449999999994</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5884,24 +6071,27 @@
         <v>1150</v>
       </c>
       <c r="G138" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="H138" t="n">
         <v>3.03801666666666</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5925,24 +6115,25 @@
         <v>519</v>
       </c>
       <c r="G139" t="n">
+        <v>3.040133333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>3.038233333333326</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5966,24 +6157,25 @@
         <v>613</v>
       </c>
       <c r="G140" t="n">
+        <v>3.040266666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>3.03841666666666</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,24 +6199,25 @@
         <v>582</v>
       </c>
       <c r="G141" t="n">
+        <v>3.0404</v>
+      </c>
+      <c r="H141" t="n">
         <v>3.038599999999993</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,24 +6241,25 @@
         <v>690</v>
       </c>
       <c r="G142" t="n">
+        <v>3.0404</v>
+      </c>
+      <c r="H142" t="n">
         <v>3.038783333333326</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6089,24 +6283,25 @@
         <v>696</v>
       </c>
       <c r="G143" t="n">
+        <v>3.0404</v>
+      </c>
+      <c r="H143" t="n">
         <v>3.038799999999993</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6130,24 +6325,25 @@
         <v>510</v>
       </c>
       <c r="G144" t="n">
+        <v>3.0418</v>
+      </c>
+      <c r="H144" t="n">
         <v>3.039166666666659</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6171,24 +6367,25 @@
         <v>648</v>
       </c>
       <c r="G145" t="n">
+        <v>3.0418</v>
+      </c>
+      <c r="H145" t="n">
         <v>3.039233333333326</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6212,24 +6409,25 @@
         <v>12781.8271</v>
       </c>
       <c r="G146" t="n">
+        <v>3.0418</v>
+      </c>
+      <c r="H146" t="n">
         <v>3.039299999999992</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6253,24 +6451,25 @@
         <v>115288.2981</v>
       </c>
       <c r="G147" t="n">
+        <v>3.0418</v>
+      </c>
+      <c r="H147" t="n">
         <v>3.039366666666659</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6294,24 +6493,25 @@
         <v>510</v>
       </c>
       <c r="G148" t="n">
+        <v>3.0432</v>
+      </c>
+      <c r="H148" t="n">
         <v>3.039783333333325</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6335,24 +6535,25 @@
         <v>2578.7069</v>
       </c>
       <c r="G149" t="n">
+        <v>3.0446</v>
+      </c>
+      <c r="H149" t="n">
         <v>3.040199999999992</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6376,24 +6577,25 @@
         <v>7080.6345</v>
       </c>
       <c r="G150" t="n">
+        <v>3.0468</v>
+      </c>
+      <c r="H150" t="n">
         <v>3.040816666666659</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6417,24 +6619,25 @@
         <v>13218.1398</v>
       </c>
       <c r="G151" t="n">
+        <v>3.0482</v>
+      </c>
+      <c r="H151" t="n">
         <v>3.041233333333325</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6458,25 +6661,26 @@
         <v>24684.8874</v>
       </c>
       <c r="G152" t="n">
+        <v>3.0496</v>
+      </c>
+      <c r="H152" t="n">
         <v>3.041649999999992</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
-        <v>1</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>3.016</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1.009588859416446</v>
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -6499,18 +6703,25 @@
         <v>32731.9446</v>
       </c>
       <c r="G153" t="n">
+        <v>3.0496</v>
+      </c>
+      <c r="H153" t="n">
         <v>3.041899999999992</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6534,18 +6745,25 @@
         <v>7080</v>
       </c>
       <c r="G154" t="n">
+        <v>3.050200000000001</v>
+      </c>
+      <c r="H154" t="n">
         <v>3.041949999999993</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
-        <v>1</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6569,18 +6787,25 @@
         <v>5520.8414</v>
       </c>
       <c r="G155" t="n">
+        <v>3.050533333333334</v>
+      </c>
+      <c r="H155" t="n">
         <v>3.041933333333326</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6604,18 +6829,25 @@
         <v>279343.0868</v>
       </c>
       <c r="G156" t="n">
+        <v>3.050466666666666</v>
+      </c>
+      <c r="H156" t="n">
         <v>3.04181666666666</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6639,18 +6871,25 @@
         <v>510</v>
       </c>
       <c r="G157" t="n">
+        <v>3.051866666666667</v>
+      </c>
+      <c r="H157" t="n">
         <v>3.042199999999994</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6674,18 +6913,25 @@
         <v>510</v>
       </c>
       <c r="G158" t="n">
+        <v>3.0518</v>
+      </c>
+      <c r="H158" t="n">
         <v>3.04221666666666</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6709,18 +6955,25 @@
         <v>15870</v>
       </c>
       <c r="G159" t="n">
+        <v>3.050333333333333</v>
+      </c>
+      <c r="H159" t="n">
         <v>3.042233333333327</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6744,18 +6997,25 @@
         <v>510</v>
       </c>
       <c r="G160" t="n">
+        <v>3.051733333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>3.042399999999994</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6779,18 +7039,25 @@
         <v>510</v>
       </c>
       <c r="G161" t="n">
+        <v>3.051733333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>3.042433333333327</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6814,18 +7081,25 @@
         <v>510</v>
       </c>
       <c r="G162" t="n">
+        <v>3.053133333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>3.04281666666666</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6849,18 +7123,25 @@
         <v>365195.6367</v>
       </c>
       <c r="G163" t="n">
+        <v>3.051666666666665</v>
+      </c>
+      <c r="H163" t="n">
         <v>3.042449999999993</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6884,18 +7165,25 @@
         <v>510</v>
       </c>
       <c r="G164" t="n">
+        <v>3.050266666666666</v>
+      </c>
+      <c r="H164" t="n">
         <v>3.042483333333327</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6919,18 +7207,25 @@
         <v>16441.6611</v>
       </c>
       <c r="G165" t="n">
+        <v>3.049466666666666</v>
+      </c>
+      <c r="H165" t="n">
         <v>3.04286666666666</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6954,18 +7249,25 @@
         <v>6086.5939</v>
       </c>
       <c r="G166" t="n">
+        <v>3.049533333333332</v>
+      </c>
+      <c r="H166" t="n">
         <v>3.04326666666666</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6989,18 +7291,25 @@
         <v>575.7018</v>
       </c>
       <c r="G167" t="n">
+        <v>3.050333333333332</v>
+      </c>
+      <c r="H167" t="n">
         <v>3.043849999999993</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7024,18 +7333,25 @@
         <v>370</v>
       </c>
       <c r="G168" t="n">
+        <v>3.051133333333332</v>
+      </c>
+      <c r="H168" t="n">
         <v>3.044433333333326</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7059,18 +7375,25 @@
         <v>121731.0772</v>
       </c>
       <c r="G169" t="n">
+        <v>3.051933333333332</v>
+      </c>
+      <c r="H169" t="n">
         <v>3.04481666666666</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7094,18 +7417,25 @@
         <v>27242.7644</v>
       </c>
       <c r="G170" t="n">
+        <v>3.052999999999999</v>
+      </c>
+      <c r="H170" t="n">
         <v>3.045199999999993</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7129,18 +7459,25 @@
         <v>294.7576</v>
       </c>
       <c r="G171" t="n">
+        <v>3.054466666666666</v>
+      </c>
+      <c r="H171" t="n">
         <v>3.045583333333326</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7164,18 +7501,25 @@
         <v>33980.26516073179</v>
       </c>
       <c r="G172" t="n">
+        <v>3.054533333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>3.045983333333326</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7199,18 +7543,25 @@
         <v>1127.5779</v>
       </c>
       <c r="G173" t="n">
+        <v>3.056733333333333</v>
+      </c>
+      <c r="H173" t="n">
         <v>3.046549999999992</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7234,18 +7585,25 @@
         <v>172794.2311</v>
       </c>
       <c r="G174" t="n">
+        <v>3.059133333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>3.047166666666659</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7269,18 +7627,25 @@
         <v>85355.7411</v>
       </c>
       <c r="G175" t="n">
+        <v>3.061333333333332</v>
+      </c>
+      <c r="H175" t="n">
         <v>3.048099999999992</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7304,18 +7669,435 @@
         <v>5050</v>
       </c>
       <c r="G176" t="n">
+        <v>3.064933333333333</v>
+      </c>
+      <c r="H176" t="n">
         <v>3.049033333333325</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="C177" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="D177" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="E177" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1734.5385</v>
+      </c>
+      <c r="G177" t="n">
+        <v>3.067133333333333</v>
+      </c>
+      <c r="H177" t="n">
+        <v>3.049966666666658</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="C178" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="D178" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="E178" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="F178" t="n">
+        <v>20300</v>
+      </c>
+      <c r="G178" t="n">
+        <v>3.0708</v>
+      </c>
+      <c r="H178" t="n">
+        <v>3.050899999999992</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="C179" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="D179" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="E179" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="F179" t="n">
+        <v>13424.4118</v>
+      </c>
+      <c r="G179" t="n">
+        <v>3.0744</v>
+      </c>
+      <c r="H179" t="n">
+        <v>3.051833333333325</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="C180" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="D180" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="E180" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="F180" t="n">
+        <v>33702.9395</v>
+      </c>
+      <c r="G180" t="n">
+        <v>3.0766</v>
+      </c>
+      <c r="H180" t="n">
+        <v>3.052766666666658</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="C181" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D181" t="n">
+        <v>3.105</v>
+      </c>
+      <c r="E181" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="F181" t="n">
+        <v>540278.3208457327</v>
+      </c>
+      <c r="G181" t="n">
+        <v>3.0792</v>
+      </c>
+      <c r="H181" t="n">
+        <v>3.053816666666657</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>3.105</v>
+      </c>
+      <c r="C182" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D182" t="n">
+        <v>3.105</v>
+      </c>
+      <c r="E182" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F182" t="n">
+        <v>23261.003</v>
+      </c>
+      <c r="G182" t="n">
+        <v>3.081066666666667</v>
+      </c>
+      <c r="H182" t="n">
+        <v>3.054866666666657</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C183" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="D183" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E183" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F183" t="n">
+        <v>27891.24365426731</v>
+      </c>
+      <c r="G183" t="n">
+        <v>3.0846</v>
+      </c>
+      <c r="H183" t="n">
+        <v>3.056333333333324</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="C184" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="D184" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="E184" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="F184" t="n">
+        <v>35157.355</v>
+      </c>
+      <c r="G184" t="n">
+        <v>3.089666666666667</v>
+      </c>
+      <c r="H184" t="n">
+        <v>3.057983333333324</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="C185" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="D185" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="E185" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F185" t="n">
+        <v>16851.6028</v>
+      </c>
+      <c r="G185" t="n">
+        <v>3.094866666666666</v>
+      </c>
+      <c r="H185" t="n">
+        <v>3.059666666666657</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C186" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="D186" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="E186" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F186" t="n">
+        <v>9008.482599999999</v>
+      </c>
+      <c r="G186" t="n">
+        <v>3.100066666666666</v>
+      </c>
+      <c r="H186" t="n">
+        <v>3.06134999999999</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-14 BackTest MIX.xlsx
+++ b/BackTest/2020-01-14 BackTest MIX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M215"/>
+  <dimension ref="A1:N173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,34 +427,39 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.077</v>
+        <v>3.065</v>
       </c>
       <c r="C2" t="n">
-        <v>3.077</v>
+        <v>3.07</v>
       </c>
       <c r="D2" t="n">
-        <v>3.077</v>
+        <v>3.07</v>
       </c>
       <c r="E2" t="n">
-        <v>3.077</v>
+        <v>3.065</v>
       </c>
       <c r="F2" t="n">
-        <v>159787.1266</v>
+        <v>1245.3287</v>
       </c>
       <c r="G2" t="n">
-        <v>-1389333.6386</v>
+        <v>-3467484.550446952</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,34 +467,35 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.077</v>
+        <v>3.065</v>
       </c>
       <c r="C3" t="n">
-        <v>3.077</v>
+        <v>3.065</v>
       </c>
       <c r="D3" t="n">
-        <v>3.077</v>
+        <v>3.065</v>
       </c>
       <c r="E3" t="n">
-        <v>3.077</v>
+        <v>3.065</v>
       </c>
       <c r="F3" t="n">
-        <v>39946.7816</v>
+        <v>2545.6583</v>
       </c>
       <c r="G3" t="n">
-        <v>-1389333.6386</v>
+        <v>-3470030.208746952</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,34 +503,35 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.1</v>
+        <v>3.06</v>
       </c>
       <c r="C4" t="n">
-        <v>3.1</v>
+        <v>3.06</v>
       </c>
       <c r="D4" t="n">
-        <v>3.1</v>
+        <v>3.06</v>
       </c>
       <c r="E4" t="n">
-        <v>3.1</v>
+        <v>3.06</v>
       </c>
       <c r="F4" t="n">
-        <v>916.2931</v>
+        <v>3000</v>
       </c>
       <c r="G4" t="n">
-        <v>-1388417.3455</v>
+        <v>-3473030.208746952</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.077</v>
+        <v>3.059</v>
       </c>
       <c r="C5" t="n">
-        <v>3.07</v>
+        <v>3.059</v>
       </c>
       <c r="D5" t="n">
-        <v>3.077</v>
+        <v>3.059</v>
       </c>
       <c r="E5" t="n">
-        <v>3.07</v>
+        <v>3.059</v>
       </c>
       <c r="F5" t="n">
-        <v>100000</v>
+        <v>10075.4698</v>
       </c>
       <c r="G5" t="n">
-        <v>-1488417.3455</v>
+        <v>-3483105.678546952</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="C6" t="n">
-        <v>3.07</v>
+        <v>3.047</v>
       </c>
       <c r="D6" t="n">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="E6" t="n">
-        <v>3.07</v>
+        <v>3.047</v>
       </c>
       <c r="F6" t="n">
-        <v>500000</v>
+        <v>166390.7342</v>
       </c>
       <c r="G6" t="n">
-        <v>-1488417.3455</v>
+        <v>-3649496.412746952</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.09</v>
+        <v>3.047</v>
       </c>
       <c r="C7" t="n">
-        <v>3.1</v>
+        <v>3.047</v>
       </c>
       <c r="D7" t="n">
-        <v>3.1</v>
+        <v>3.047</v>
       </c>
       <c r="E7" t="n">
-        <v>3.09</v>
+        <v>3.047</v>
       </c>
       <c r="F7" t="n">
-        <v>56997.2455</v>
+        <v>1639878.443</v>
       </c>
       <c r="G7" t="n">
-        <v>-1431420.1</v>
+        <v>-3649496.412746952</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.08</v>
+        <v>3.059</v>
       </c>
       <c r="C8" t="n">
-        <v>3.08</v>
+        <v>3.059</v>
       </c>
       <c r="D8" t="n">
-        <v>3.08</v>
+        <v>3.059</v>
       </c>
       <c r="E8" t="n">
-        <v>3.08</v>
+        <v>3.059</v>
       </c>
       <c r="F8" t="n">
-        <v>5082.237</v>
+        <v>522.4858</v>
       </c>
       <c r="G8" t="n">
-        <v>-1436502.337</v>
+        <v>-3648973.926946952</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.07</v>
+        <v>3.044</v>
       </c>
       <c r="C9" t="n">
-        <v>3.07</v>
+        <v>3.044</v>
       </c>
       <c r="D9" t="n">
-        <v>3.07</v>
+        <v>3.044</v>
       </c>
       <c r="E9" t="n">
-        <v>3.07</v>
+        <v>3.044</v>
       </c>
       <c r="F9" t="n">
-        <v>133627.2868</v>
+        <v>42751.5545</v>
       </c>
       <c r="G9" t="n">
-        <v>-1570129.6238</v>
+        <v>-3691725.481446952</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.07</v>
+        <v>3.044</v>
       </c>
       <c r="C10" t="n">
-        <v>3.07</v>
+        <v>3.044</v>
       </c>
       <c r="D10" t="n">
-        <v>3.07</v>
+        <v>3.044</v>
       </c>
       <c r="E10" t="n">
-        <v>3.07</v>
+        <v>3.044</v>
       </c>
       <c r="F10" t="n">
-        <v>17899.3428</v>
+        <v>1278.4455</v>
       </c>
       <c r="G10" t="n">
-        <v>-1570129.6238</v>
+        <v>-3691725.481446952</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.067</v>
+        <v>3.043</v>
       </c>
       <c r="C11" t="n">
-        <v>3.064</v>
+        <v>3.016</v>
       </c>
       <c r="D11" t="n">
-        <v>3.067</v>
+        <v>3.043</v>
       </c>
       <c r="E11" t="n">
-        <v>3.064</v>
+        <v>3.012</v>
       </c>
       <c r="F11" t="n">
-        <v>184916.0382</v>
+        <v>1244976.5197</v>
       </c>
       <c r="G11" t="n">
-        <v>-1755045.662</v>
+        <v>-4936702.001146952</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.061</v>
+        <v>3.016</v>
       </c>
       <c r="C12" t="n">
-        <v>3.05</v>
+        <v>3.016</v>
       </c>
       <c r="D12" t="n">
-        <v>3.061</v>
+        <v>3.016</v>
       </c>
       <c r="E12" t="n">
-        <v>3.05</v>
+        <v>3.016</v>
       </c>
       <c r="F12" t="n">
-        <v>862967.5305</v>
+        <v>67531.5772</v>
       </c>
       <c r="G12" t="n">
-        <v>-2618013.1925</v>
+        <v>-4936702.001146952</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.05</v>
+        <v>3.049</v>
       </c>
       <c r="C13" t="n">
-        <v>3.045</v>
+        <v>3.049</v>
       </c>
       <c r="D13" t="n">
-        <v>3.05</v>
+        <v>3.049</v>
       </c>
       <c r="E13" t="n">
-        <v>3.045</v>
+        <v>3.049</v>
       </c>
       <c r="F13" t="n">
-        <v>763150.5575999999</v>
+        <v>8244.546200000001</v>
       </c>
       <c r="G13" t="n">
-        <v>-3381163.7501</v>
+        <v>-4928457.454946952</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.044</v>
+        <v>3.049</v>
       </c>
       <c r="C14" t="n">
-        <v>3.041</v>
+        <v>3.049</v>
       </c>
       <c r="D14" t="n">
-        <v>3.044</v>
+        <v>3.049</v>
       </c>
       <c r="E14" t="n">
-        <v>3.041</v>
+        <v>3.049</v>
       </c>
       <c r="F14" t="n">
-        <v>97849.4357</v>
+        <v>15666.7743</v>
       </c>
       <c r="G14" t="n">
-        <v>-3479013.1858</v>
+        <v>-4928457.454946952</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.041</v>
+        <v>3.023</v>
       </c>
       <c r="C15" t="n">
-        <v>3.041</v>
+        <v>3.012</v>
       </c>
       <c r="D15" t="n">
-        <v>3.041</v>
+        <v>3.023</v>
       </c>
       <c r="E15" t="n">
-        <v>3.041</v>
+        <v>3.012</v>
       </c>
       <c r="F15" t="n">
-        <v>280377.6365</v>
+        <v>100000</v>
       </c>
       <c r="G15" t="n">
-        <v>-3479013.1858</v>
+        <v>-5028457.454946952</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.042</v>
+        <v>3.049</v>
       </c>
       <c r="C16" t="n">
-        <v>3.042</v>
+        <v>3.05</v>
       </c>
       <c r="D16" t="n">
-        <v>3.042</v>
+        <v>3.05</v>
       </c>
       <c r="E16" t="n">
-        <v>3.042</v>
+        <v>3.049</v>
       </c>
       <c r="F16" t="n">
-        <v>203924.6599</v>
+        <v>10504.5661</v>
       </c>
       <c r="G16" t="n">
-        <v>-3275088.5259</v>
+        <v>-5017952.888846952</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.041</v>
+        <v>3.049</v>
       </c>
       <c r="C17" t="n">
-        <v>3.041</v>
+        <v>3.023</v>
       </c>
       <c r="D17" t="n">
-        <v>3.041</v>
+        <v>3.049</v>
       </c>
       <c r="E17" t="n">
-        <v>3.041</v>
+        <v>3.023</v>
       </c>
       <c r="F17" t="n">
-        <v>127774.6103</v>
+        <v>16817.9014</v>
       </c>
       <c r="G17" t="n">
-        <v>-3402863.1362</v>
+        <v>-5034770.790246951</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="C18" t="n">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="D18" t="n">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="E18" t="n">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="F18" t="n">
-        <v>7325.7754</v>
+        <v>1554.412</v>
       </c>
       <c r="G18" t="n">
-        <v>-3410188.9116</v>
+        <v>-5033216.378246952</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.036</v>
+        <v>3.023</v>
       </c>
       <c r="C19" t="n">
-        <v>3.036</v>
+        <v>3.023</v>
       </c>
       <c r="D19" t="n">
-        <v>3.036</v>
+        <v>3.023</v>
       </c>
       <c r="E19" t="n">
-        <v>3.036</v>
+        <v>3.023</v>
       </c>
       <c r="F19" t="n">
-        <v>179634.7963</v>
+        <v>510</v>
       </c>
       <c r="G19" t="n">
-        <v>-3589823.7079</v>
+        <v>-5033726.378246952</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.035</v>
+        <v>3.05</v>
       </c>
       <c r="C20" t="n">
-        <v>3.034</v>
+        <v>3.05</v>
       </c>
       <c r="D20" t="n">
-        <v>3.035</v>
+        <v>3.05</v>
       </c>
       <c r="E20" t="n">
-        <v>3.034</v>
+        <v>3.05</v>
       </c>
       <c r="F20" t="n">
-        <v>135661.4937</v>
+        <v>2954.0506</v>
       </c>
       <c r="G20" t="n">
-        <v>-3725485.2016</v>
+        <v>-5030772.327646952</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.034</v>
+        <v>3.05</v>
       </c>
       <c r="C21" t="n">
-        <v>3.034</v>
+        <v>3.059</v>
       </c>
       <c r="D21" t="n">
-        <v>3.034</v>
+        <v>3.059</v>
       </c>
       <c r="E21" t="n">
-        <v>3.034</v>
+        <v>3.05</v>
       </c>
       <c r="F21" t="n">
-        <v>22926.3403</v>
+        <v>510</v>
       </c>
       <c r="G21" t="n">
-        <v>-3725485.2016</v>
+        <v>-5030262.327646952</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.034</v>
+        <v>3.059</v>
       </c>
       <c r="C22" t="n">
-        <v>3.041</v>
+        <v>3.059</v>
       </c>
       <c r="D22" t="n">
-        <v>3.041</v>
+        <v>3.059</v>
       </c>
       <c r="E22" t="n">
-        <v>3.034</v>
+        <v>3.059</v>
       </c>
       <c r="F22" t="n">
-        <v>361437.6209</v>
+        <v>510</v>
       </c>
       <c r="G22" t="n">
-        <v>-3364047.5807</v>
+        <v>-5030262.327646952</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.05</v>
+        <v>3.059</v>
       </c>
       <c r="C23" t="n">
-        <v>3.05</v>
+        <v>3.059</v>
       </c>
       <c r="D23" t="n">
-        <v>3.05</v>
+        <v>3.059</v>
       </c>
       <c r="E23" t="n">
-        <v>3.05</v>
+        <v>3.059</v>
       </c>
       <c r="F23" t="n">
-        <v>7239.4253</v>
+        <v>689.7662</v>
       </c>
       <c r="G23" t="n">
-        <v>-3356808.1554</v>
+        <v>-5030262.327646952</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.068</v>
+        <v>3.033</v>
       </c>
       <c r="C24" t="n">
-        <v>3.068</v>
+        <v>3.033</v>
       </c>
       <c r="D24" t="n">
-        <v>3.068</v>
+        <v>3.033</v>
       </c>
       <c r="E24" t="n">
-        <v>3.068</v>
+        <v>3.033</v>
       </c>
       <c r="F24" t="n">
-        <v>7171.2895</v>
+        <v>13160</v>
       </c>
       <c r="G24" t="n">
-        <v>-3349636.8659</v>
+        <v>-5043422.327646952</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.07</v>
+        <v>3.023</v>
       </c>
       <c r="C25" t="n">
-        <v>3.11</v>
+        <v>3.018</v>
       </c>
       <c r="D25" t="n">
-        <v>3.11</v>
+        <v>3.023</v>
       </c>
       <c r="E25" t="n">
-        <v>3.07</v>
+        <v>3.018</v>
       </c>
       <c r="F25" t="n">
-        <v>178474.6503</v>
+        <v>510</v>
       </c>
       <c r="G25" t="n">
-        <v>-3171162.2156</v>
+        <v>-5043932.327646952</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.11</v>
+        <v>3.018</v>
       </c>
       <c r="C26" t="n">
-        <v>3.11</v>
+        <v>3.018</v>
       </c>
       <c r="D26" t="n">
-        <v>3.11</v>
+        <v>3.018</v>
       </c>
       <c r="E26" t="n">
-        <v>3.11</v>
+        <v>3.018</v>
       </c>
       <c r="F26" t="n">
-        <v>16793.8107</v>
+        <v>68379.9826</v>
       </c>
       <c r="G26" t="n">
-        <v>-3171162.2156</v>
+        <v>-5043932.327646952</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,34 +1331,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.11</v>
+        <v>3.013</v>
       </c>
       <c r="C27" t="n">
-        <v>3.109</v>
+        <v>3.013</v>
       </c>
       <c r="D27" t="n">
-        <v>3.11</v>
+        <v>3.013</v>
       </c>
       <c r="E27" t="n">
-        <v>3.109</v>
+        <v>3.013</v>
       </c>
       <c r="F27" t="n">
-        <v>63498.5721</v>
+        <v>510</v>
       </c>
       <c r="G27" t="n">
-        <v>-3234660.7877</v>
+        <v>-5044442.327646952</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.125</v>
+        <v>3.013</v>
       </c>
       <c r="C28" t="n">
-        <v>3.125</v>
+        <v>3.013</v>
       </c>
       <c r="D28" t="n">
-        <v>3.125</v>
+        <v>3.013</v>
       </c>
       <c r="E28" t="n">
-        <v>3.125</v>
+        <v>3.013</v>
       </c>
       <c r="F28" t="n">
-        <v>200</v>
+        <v>67288.70080000001</v>
       </c>
       <c r="G28" t="n">
-        <v>-3234460.7877</v>
+        <v>-5044442.327646952</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,34 +1403,35 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.099</v>
+        <v>3.018</v>
       </c>
       <c r="C29" t="n">
-        <v>3.099</v>
+        <v>3.018</v>
       </c>
       <c r="D29" t="n">
-        <v>3.099</v>
+        <v>3.018</v>
       </c>
       <c r="E29" t="n">
-        <v>3.099</v>
+        <v>3.018</v>
       </c>
       <c r="F29" t="n">
-        <v>144104.5203</v>
+        <v>510</v>
       </c>
       <c r="G29" t="n">
-        <v>-3378565.308</v>
+        <v>-5043932.327646952</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.115</v>
+        <v>3.012</v>
       </c>
       <c r="C30" t="n">
-        <v>3.115</v>
+        <v>3.012</v>
       </c>
       <c r="D30" t="n">
-        <v>3.115</v>
+        <v>3.012</v>
       </c>
       <c r="E30" t="n">
-        <v>3.115</v>
+        <v>3.012</v>
       </c>
       <c r="F30" t="n">
-        <v>1036.9133</v>
+        <v>9599.634</v>
       </c>
       <c r="G30" t="n">
-        <v>-3377528.3947</v>
+        <v>-5053531.961646952</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.1</v>
+        <v>3.022</v>
       </c>
       <c r="C31" t="n">
-        <v>3.115</v>
+        <v>3.012</v>
       </c>
       <c r="D31" t="n">
-        <v>3.115</v>
+        <v>3.022</v>
       </c>
       <c r="E31" t="n">
-        <v>3.1</v>
+        <v>3.012</v>
       </c>
       <c r="F31" t="n">
-        <v>9451.483899999999</v>
+        <v>32825.9252</v>
       </c>
       <c r="G31" t="n">
-        <v>-3377528.3947</v>
+        <v>-5053531.961646952</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.085</v>
+        <v>3.02</v>
       </c>
       <c r="C32" t="n">
-        <v>3.085</v>
+        <v>3.013</v>
       </c>
       <c r="D32" t="n">
-        <v>3.085</v>
+        <v>3.02</v>
       </c>
       <c r="E32" t="n">
-        <v>3.085</v>
+        <v>3.013</v>
       </c>
       <c r="F32" t="n">
-        <v>510</v>
+        <v>28360.3429</v>
       </c>
       <c r="G32" t="n">
-        <v>-3378038.3947</v>
+        <v>-5025171.618746952</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.085</v>
+        <v>3.02</v>
       </c>
       <c r="C33" t="n">
-        <v>3.085</v>
+        <v>3.02</v>
       </c>
       <c r="D33" t="n">
-        <v>3.085</v>
+        <v>3.02</v>
       </c>
       <c r="E33" t="n">
-        <v>3.085</v>
+        <v>3.02</v>
       </c>
       <c r="F33" t="n">
-        <v>10093.8078</v>
+        <v>510</v>
       </c>
       <c r="G33" t="n">
-        <v>-3378038.3947</v>
+        <v>-5024661.618746952</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.085</v>
+        <v>3.049</v>
       </c>
       <c r="C34" t="n">
-        <v>3.085</v>
+        <v>3.049</v>
       </c>
       <c r="D34" t="n">
-        <v>3.085</v>
+        <v>3.049</v>
       </c>
       <c r="E34" t="n">
-        <v>3.085</v>
+        <v>3.049</v>
       </c>
       <c r="F34" t="n">
-        <v>16149.2217</v>
+        <v>200</v>
       </c>
       <c r="G34" t="n">
-        <v>-3378038.3947</v>
+        <v>-5024461.618746952</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.08</v>
+        <v>3.049</v>
       </c>
       <c r="C35" t="n">
-        <v>3.08</v>
+        <v>3.049</v>
       </c>
       <c r="D35" t="n">
-        <v>3.08</v>
+        <v>3.049</v>
       </c>
       <c r="E35" t="n">
-        <v>3.08</v>
+        <v>3.049</v>
       </c>
       <c r="F35" t="n">
         <v>510</v>
       </c>
       <c r="G35" t="n">
-        <v>-3378548.3947</v>
+        <v>-5024461.618746952</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.08</v>
+        <v>3.013</v>
       </c>
       <c r="C36" t="n">
-        <v>3.08</v>
+        <v>3.013</v>
       </c>
       <c r="D36" t="n">
-        <v>3.08</v>
+        <v>3.013</v>
       </c>
       <c r="E36" t="n">
-        <v>3.08</v>
+        <v>3.013</v>
       </c>
       <c r="F36" t="n">
-        <v>3973.407</v>
+        <v>510</v>
       </c>
       <c r="G36" t="n">
-        <v>-3378548.3947</v>
+        <v>-5024971.618746952</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.08</v>
+        <v>3.049</v>
       </c>
       <c r="C37" t="n">
-        <v>3.084</v>
+        <v>3.05</v>
       </c>
       <c r="D37" t="n">
-        <v>3.084</v>
+        <v>3.05</v>
       </c>
       <c r="E37" t="n">
-        <v>3.08</v>
+        <v>3.049</v>
       </c>
       <c r="F37" t="n">
-        <v>77943.4633</v>
+        <v>12164.3528</v>
       </c>
       <c r="G37" t="n">
-        <v>-3300604.9314</v>
+        <v>-5012807.265946952</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="C38" t="n">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="D38" t="n">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="E38" t="n">
-        <v>3.07</v>
+        <v>3.05</v>
       </c>
       <c r="F38" t="n">
-        <v>833.6825</v>
+        <v>4078.5053</v>
       </c>
       <c r="G38" t="n">
-        <v>-3301438.6139</v>
+        <v>-5012807.265946952</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.084</v>
+        <v>3.05</v>
       </c>
       <c r="C39" t="n">
-        <v>3.084</v>
+        <v>3.05</v>
       </c>
       <c r="D39" t="n">
-        <v>3.084</v>
+        <v>3.05</v>
       </c>
       <c r="E39" t="n">
-        <v>3.084</v>
+        <v>3.05</v>
       </c>
       <c r="F39" t="n">
-        <v>510</v>
+        <v>7623.9535</v>
       </c>
       <c r="G39" t="n">
-        <v>-3300928.6139</v>
+        <v>-5012807.265946952</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.084</v>
+        <v>3.049</v>
       </c>
       <c r="C40" t="n">
-        <v>3.084</v>
+        <v>3.049</v>
       </c>
       <c r="D40" t="n">
-        <v>3.084</v>
+        <v>3.049</v>
       </c>
       <c r="E40" t="n">
-        <v>3.084</v>
+        <v>3.049</v>
       </c>
       <c r="F40" t="n">
-        <v>267.8453</v>
+        <v>90240</v>
       </c>
       <c r="G40" t="n">
-        <v>-3300928.6139</v>
+        <v>-5103047.265946952</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.07</v>
+        <v>3.049</v>
       </c>
       <c r="C41" t="n">
-        <v>3.07</v>
+        <v>3.049</v>
       </c>
       <c r="D41" t="n">
-        <v>3.07</v>
+        <v>3.049</v>
       </c>
       <c r="E41" t="n">
-        <v>3.07</v>
+        <v>3.049</v>
       </c>
       <c r="F41" t="n">
-        <v>8799</v>
+        <v>510</v>
       </c>
       <c r="G41" t="n">
-        <v>-3309727.6139</v>
+        <v>-5103047.265946952</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.084</v>
+        <v>3.04</v>
       </c>
       <c r="C42" t="n">
-        <v>3.084</v>
+        <v>3.04</v>
       </c>
       <c r="D42" t="n">
-        <v>3.084</v>
+        <v>3.04</v>
       </c>
       <c r="E42" t="n">
-        <v>3.084</v>
+        <v>3.04</v>
       </c>
       <c r="F42" t="n">
-        <v>3242.54215304799</v>
+        <v>70000</v>
       </c>
       <c r="G42" t="n">
-        <v>-3306485.071746952</v>
+        <v>-5173047.265946952</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.07</v>
+        <v>3.039</v>
       </c>
       <c r="C43" t="n">
-        <v>3.065</v>
+        <v>3.039</v>
       </c>
       <c r="D43" t="n">
-        <v>3.07</v>
+        <v>3.039</v>
       </c>
       <c r="E43" t="n">
-        <v>3.065</v>
+        <v>3.039</v>
       </c>
       <c r="F43" t="n">
-        <v>162244.8074</v>
+        <v>34097.969</v>
       </c>
       <c r="G43" t="n">
-        <v>-3468729.879146952</v>
+        <v>-5207145.234946951</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.065</v>
+        <v>3.037</v>
       </c>
       <c r="C44" t="n">
-        <v>3.07</v>
+        <v>3.037</v>
       </c>
       <c r="D44" t="n">
-        <v>3.07</v>
+        <v>3.037</v>
       </c>
       <c r="E44" t="n">
-        <v>3.065</v>
+        <v>3.037</v>
       </c>
       <c r="F44" t="n">
-        <v>1245.3287</v>
+        <v>585</v>
       </c>
       <c r="G44" t="n">
-        <v>-3467484.550446952</v>
+        <v>-5207730.234946951</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3.065</v>
+        <v>3.04</v>
       </c>
       <c r="C45" t="n">
-        <v>3.065</v>
+        <v>3.04</v>
       </c>
       <c r="D45" t="n">
-        <v>3.065</v>
+        <v>3.04</v>
       </c>
       <c r="E45" t="n">
-        <v>3.065</v>
+        <v>3.04</v>
       </c>
       <c r="F45" t="n">
-        <v>2545.6583</v>
+        <v>544</v>
       </c>
       <c r="G45" t="n">
-        <v>-3470030.208746952</v>
+        <v>-5207186.234946951</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.06</v>
+        <v>3.035</v>
       </c>
       <c r="C46" t="n">
-        <v>3.06</v>
+        <v>3.035</v>
       </c>
       <c r="D46" t="n">
-        <v>3.06</v>
+        <v>3.035</v>
       </c>
       <c r="E46" t="n">
-        <v>3.06</v>
+        <v>3.035</v>
       </c>
       <c r="F46" t="n">
-        <v>3000</v>
+        <v>608</v>
       </c>
       <c r="G46" t="n">
-        <v>-3473030.208746952</v>
+        <v>-5207794.234946951</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.059</v>
+        <v>3.035</v>
       </c>
       <c r="C47" t="n">
-        <v>3.059</v>
+        <v>3.035</v>
       </c>
       <c r="D47" t="n">
-        <v>3.059</v>
+        <v>3.035</v>
       </c>
       <c r="E47" t="n">
-        <v>3.059</v>
+        <v>3.035</v>
       </c>
       <c r="F47" t="n">
-        <v>10075.4698</v>
+        <v>663</v>
       </c>
       <c r="G47" t="n">
-        <v>-3483105.678546952</v>
+        <v>-5207794.234946951</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.05</v>
+        <v>3.035</v>
       </c>
       <c r="C48" t="n">
-        <v>3.047</v>
+        <v>3.035</v>
       </c>
       <c r="D48" t="n">
-        <v>3.05</v>
+        <v>3.035</v>
       </c>
       <c r="E48" t="n">
-        <v>3.047</v>
+        <v>3.035</v>
       </c>
       <c r="F48" t="n">
-        <v>166390.7342</v>
+        <v>556</v>
       </c>
       <c r="G48" t="n">
-        <v>-3649496.412746952</v>
+        <v>-5207794.234946951</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.047</v>
+        <v>3.035</v>
       </c>
       <c r="C49" t="n">
-        <v>3.047</v>
+        <v>3.035</v>
       </c>
       <c r="D49" t="n">
-        <v>3.047</v>
+        <v>3.059</v>
       </c>
       <c r="E49" t="n">
-        <v>3.047</v>
+        <v>3.035</v>
       </c>
       <c r="F49" t="n">
-        <v>1639878.443</v>
+        <v>17910.06</v>
       </c>
       <c r="G49" t="n">
-        <v>-3649496.412746952</v>
+        <v>-5207794.234946951</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.059</v>
+        <v>3.05</v>
       </c>
       <c r="C50" t="n">
-        <v>3.059</v>
+        <v>3.05</v>
       </c>
       <c r="D50" t="n">
-        <v>3.059</v>
+        <v>3.05</v>
       </c>
       <c r="E50" t="n">
-        <v>3.059</v>
+        <v>3.05</v>
       </c>
       <c r="F50" t="n">
-        <v>522.4858</v>
+        <v>200</v>
       </c>
       <c r="G50" t="n">
-        <v>-3648973.926946952</v>
+        <v>-5207594.234946951</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.044</v>
+        <v>3.035</v>
       </c>
       <c r="C51" t="n">
-        <v>3.044</v>
+        <v>3.035</v>
       </c>
       <c r="D51" t="n">
-        <v>3.044</v>
+        <v>3.035</v>
       </c>
       <c r="E51" t="n">
-        <v>3.044</v>
+        <v>3.035</v>
       </c>
       <c r="F51" t="n">
-        <v>42751.5545</v>
+        <v>15000</v>
       </c>
       <c r="G51" t="n">
-        <v>-3691725.481446952</v>
+        <v>-5222594.234946951</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3.044</v>
+        <v>3.05</v>
       </c>
       <c r="C52" t="n">
-        <v>3.044</v>
+        <v>3.035</v>
       </c>
       <c r="D52" t="n">
-        <v>3.044</v>
+        <v>3.05</v>
       </c>
       <c r="E52" t="n">
-        <v>3.044</v>
+        <v>3.035</v>
       </c>
       <c r="F52" t="n">
-        <v>1278.4455</v>
+        <v>1169</v>
       </c>
       <c r="G52" t="n">
-        <v>-3691725.481446952</v>
+        <v>-5222594.234946951</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.043</v>
+        <v>3.035</v>
       </c>
       <c r="C53" t="n">
-        <v>3.016</v>
+        <v>3.035</v>
       </c>
       <c r="D53" t="n">
-        <v>3.043</v>
+        <v>3.035</v>
       </c>
       <c r="E53" t="n">
-        <v>3.012</v>
+        <v>3.035</v>
       </c>
       <c r="F53" t="n">
-        <v>1244976.5197</v>
+        <v>544</v>
       </c>
       <c r="G53" t="n">
-        <v>-4936702.001146952</v>
+        <v>-5222594.234946951</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.016</v>
+        <v>3.035</v>
       </c>
       <c r="C54" t="n">
-        <v>3.016</v>
+        <v>3.035</v>
       </c>
       <c r="D54" t="n">
-        <v>3.016</v>
+        <v>3.035</v>
       </c>
       <c r="E54" t="n">
-        <v>3.016</v>
+        <v>3.035</v>
       </c>
       <c r="F54" t="n">
-        <v>67531.5772</v>
+        <v>656</v>
       </c>
       <c r="G54" t="n">
-        <v>-4936702.001146952</v>
+        <v>-5222594.234946951</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3.049</v>
+        <v>3.035</v>
       </c>
       <c r="C55" t="n">
-        <v>3.049</v>
+        <v>3.035</v>
       </c>
       <c r="D55" t="n">
-        <v>3.049</v>
+        <v>3.035</v>
       </c>
       <c r="E55" t="n">
-        <v>3.049</v>
+        <v>3.035</v>
       </c>
       <c r="F55" t="n">
-        <v>8244.546200000001</v>
+        <v>642</v>
       </c>
       <c r="G55" t="n">
-        <v>-4928457.454946952</v>
+        <v>-5222594.234946951</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3.049</v>
+        <v>3.035</v>
       </c>
       <c r="C56" t="n">
-        <v>3.049</v>
+        <v>3.035</v>
       </c>
       <c r="D56" t="n">
-        <v>3.049</v>
+        <v>3.035</v>
       </c>
       <c r="E56" t="n">
-        <v>3.049</v>
+        <v>3.035</v>
       </c>
       <c r="F56" t="n">
-        <v>15666.7743</v>
+        <v>613</v>
       </c>
       <c r="G56" t="n">
-        <v>-4928457.454946952</v>
+        <v>-5222594.234946951</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.023</v>
+        <v>3.035</v>
       </c>
       <c r="C57" t="n">
-        <v>3.012</v>
+        <v>3.035</v>
       </c>
       <c r="D57" t="n">
-        <v>3.023</v>
+        <v>3.035</v>
       </c>
       <c r="E57" t="n">
-        <v>3.012</v>
+        <v>3.035</v>
       </c>
       <c r="F57" t="n">
-        <v>100000</v>
+        <v>6253.69</v>
       </c>
       <c r="G57" t="n">
-        <v>-5028457.454946952</v>
+        <v>-5222594.234946951</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3.049</v>
+        <v>3.04</v>
       </c>
       <c r="C58" t="n">
-        <v>3.05</v>
+        <v>3.035</v>
       </c>
       <c r="D58" t="n">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="E58" t="n">
-        <v>3.049</v>
+        <v>3.035</v>
       </c>
       <c r="F58" t="n">
-        <v>10504.5661</v>
+        <v>50397.0974</v>
       </c>
       <c r="G58" t="n">
-        <v>-5017952.888846952</v>
+        <v>-5222594.234946951</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3.049</v>
+        <v>3.026</v>
       </c>
       <c r="C59" t="n">
-        <v>3.023</v>
+        <v>3.026</v>
       </c>
       <c r="D59" t="n">
-        <v>3.049</v>
+        <v>3.026</v>
       </c>
       <c r="E59" t="n">
-        <v>3.023</v>
+        <v>3.026</v>
       </c>
       <c r="F59" t="n">
-        <v>16817.9014</v>
+        <v>609</v>
       </c>
       <c r="G59" t="n">
-        <v>-5034770.790246951</v>
+        <v>-5223203.234946951</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3.05</v>
+        <v>3.026</v>
       </c>
       <c r="C60" t="n">
-        <v>3.05</v>
+        <v>3.026</v>
       </c>
       <c r="D60" t="n">
-        <v>3.05</v>
+        <v>3.026</v>
       </c>
       <c r="E60" t="n">
-        <v>3.05</v>
+        <v>3.026</v>
       </c>
       <c r="F60" t="n">
-        <v>1554.412</v>
+        <v>625</v>
       </c>
       <c r="G60" t="n">
-        <v>-5033216.378246952</v>
+        <v>-5223203.234946951</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3.023</v>
+        <v>3.026</v>
       </c>
       <c r="C61" t="n">
-        <v>3.023</v>
+        <v>3.026</v>
       </c>
       <c r="D61" t="n">
-        <v>3.023</v>
+        <v>3.026</v>
       </c>
       <c r="E61" t="n">
-        <v>3.023</v>
+        <v>3.026</v>
       </c>
       <c r="F61" t="n">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="G61" t="n">
-        <v>-5033726.378246952</v>
+        <v>-5223203.234946951</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3.05</v>
+        <v>3.026</v>
       </c>
       <c r="C62" t="n">
-        <v>3.05</v>
+        <v>3.026</v>
       </c>
       <c r="D62" t="n">
-        <v>3.05</v>
+        <v>3.026</v>
       </c>
       <c r="E62" t="n">
-        <v>3.05</v>
+        <v>3.026</v>
       </c>
       <c r="F62" t="n">
-        <v>2954.0506</v>
+        <v>659</v>
       </c>
       <c r="G62" t="n">
-        <v>-5030772.327646952</v>
+        <v>-5223203.234946951</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3.05</v>
+        <v>3.026</v>
       </c>
       <c r="C63" t="n">
-        <v>3.059</v>
+        <v>3.026</v>
       </c>
       <c r="D63" t="n">
-        <v>3.059</v>
+        <v>3.026</v>
       </c>
       <c r="E63" t="n">
-        <v>3.05</v>
+        <v>3.026</v>
       </c>
       <c r="F63" t="n">
-        <v>510</v>
+        <v>609</v>
       </c>
       <c r="G63" t="n">
-        <v>-5030262.327646952</v>
+        <v>-5223203.234946951</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.059</v>
+        <v>3.026</v>
       </c>
       <c r="C64" t="n">
-        <v>3.059</v>
+        <v>3.026</v>
       </c>
       <c r="D64" t="n">
-        <v>3.059</v>
+        <v>3.026</v>
       </c>
       <c r="E64" t="n">
-        <v>3.059</v>
+        <v>3.026</v>
       </c>
       <c r="F64" t="n">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="G64" t="n">
-        <v>-5030262.327646952</v>
+        <v>-5223203.234946951</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.059</v>
+        <v>3.026</v>
       </c>
       <c r="C65" t="n">
-        <v>3.059</v>
+        <v>3.026</v>
       </c>
       <c r="D65" t="n">
-        <v>3.059</v>
+        <v>3.026</v>
       </c>
       <c r="E65" t="n">
-        <v>3.059</v>
+        <v>3.026</v>
       </c>
       <c r="F65" t="n">
-        <v>689.7662</v>
+        <v>567</v>
       </c>
       <c r="G65" t="n">
-        <v>-5030262.327646952</v>
+        <v>-5223203.234946951</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3.033</v>
+        <v>3.026</v>
       </c>
       <c r="C66" t="n">
-        <v>3.033</v>
+        <v>3.026</v>
       </c>
       <c r="D66" t="n">
-        <v>3.033</v>
+        <v>3.026</v>
       </c>
       <c r="E66" t="n">
-        <v>3.033</v>
+        <v>3.026</v>
       </c>
       <c r="F66" t="n">
-        <v>13160</v>
+        <v>619</v>
       </c>
       <c r="G66" t="n">
-        <v>-5043422.327646952</v>
+        <v>-5223203.234946951</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3.023</v>
+        <v>3.028</v>
       </c>
       <c r="C67" t="n">
-        <v>3.018</v>
+        <v>3.028</v>
       </c>
       <c r="D67" t="n">
-        <v>3.023</v>
+        <v>3.028</v>
       </c>
       <c r="E67" t="n">
-        <v>3.018</v>
+        <v>3.028</v>
       </c>
       <c r="F67" t="n">
-        <v>510</v>
+        <v>649</v>
       </c>
       <c r="G67" t="n">
-        <v>-5043932.327646952</v>
+        <v>-5222554.234946951</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,153 +2807,137 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3.018</v>
+        <v>3.028</v>
       </c>
       <c r="C68" t="n">
-        <v>3.018</v>
+        <v>3.028</v>
       </c>
       <c r="D68" t="n">
-        <v>3.018</v>
+        <v>3.028</v>
       </c>
       <c r="E68" t="n">
-        <v>3.018</v>
+        <v>3.028</v>
       </c>
       <c r="F68" t="n">
-        <v>68379.9826</v>
+        <v>1647</v>
       </c>
       <c r="G68" t="n">
-        <v>-5043932.327646952</v>
+        <v>-5222554.234946951</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>3.018</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3.018</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3.013</v>
+        <v>3.028</v>
       </c>
       <c r="C69" t="n">
-        <v>3.013</v>
+        <v>3.028</v>
       </c>
       <c r="D69" t="n">
-        <v>3.013</v>
+        <v>3.028</v>
       </c>
       <c r="E69" t="n">
-        <v>3.013</v>
+        <v>3.028</v>
       </c>
       <c r="F69" t="n">
-        <v>510</v>
+        <v>569</v>
       </c>
       <c r="G69" t="n">
-        <v>-5044442.327646952</v>
+        <v>-5222554.234946951</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>3.018</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3.018</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.013</v>
+        <v>3.028</v>
       </c>
       <c r="C70" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="D70" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="E70" t="n">
-        <v>3.013</v>
+        <v>3.028</v>
       </c>
       <c r="F70" t="n">
-        <v>67288.70080000001</v>
+        <v>27536.2123</v>
       </c>
       <c r="G70" t="n">
-        <v>-5044442.327646952</v>
+        <v>-5195018.022646951</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="K70" t="n">
-        <v>3.018</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3.018</v>
+        <v>3.038</v>
       </c>
       <c r="C71" t="n">
-        <v>3.018</v>
+        <v>3.038</v>
       </c>
       <c r="D71" t="n">
-        <v>3.018</v>
+        <v>3.038</v>
       </c>
       <c r="E71" t="n">
-        <v>3.018</v>
+        <v>3.038</v>
       </c>
       <c r="F71" t="n">
-        <v>510</v>
+        <v>559</v>
       </c>
       <c r="G71" t="n">
-        <v>-5043932.327646952</v>
+        <v>-5195018.022646951</v>
       </c>
       <c r="H71" t="n">
         <v>1</v>
@@ -2892,80 +2946,80 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="K71" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.012</v>
+        <v>3.037</v>
       </c>
       <c r="C72" t="n">
-        <v>3.012</v>
+        <v>3.035</v>
       </c>
       <c r="D72" t="n">
-        <v>3.012</v>
+        <v>3.037</v>
       </c>
       <c r="E72" t="n">
-        <v>3.012</v>
+        <v>3.035</v>
       </c>
       <c r="F72" t="n">
-        <v>9599.634</v>
+        <v>53976.0498</v>
       </c>
       <c r="G72" t="n">
-        <v>-5053531.961646952</v>
+        <v>-5248994.072446952</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>3.018</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3.022</v>
+        <v>3.035</v>
       </c>
       <c r="C73" t="n">
-        <v>3.012</v>
+        <v>3.035</v>
       </c>
       <c r="D73" t="n">
-        <v>3.022</v>
+        <v>3.035</v>
       </c>
       <c r="E73" t="n">
-        <v>3.012</v>
+        <v>3.035</v>
       </c>
       <c r="F73" t="n">
-        <v>32825.9252</v>
+        <v>608</v>
       </c>
       <c r="G73" t="n">
-        <v>-5053531.961646952</v>
+        <v>-5248994.072446952</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2975,38 +3029,39 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3.02</v>
+        <v>3.035</v>
       </c>
       <c r="C74" t="n">
-        <v>3.013</v>
+        <v>3.035</v>
       </c>
       <c r="D74" t="n">
-        <v>3.02</v>
+        <v>3.035</v>
       </c>
       <c r="E74" t="n">
-        <v>3.013</v>
+        <v>3.035</v>
       </c>
       <c r="F74" t="n">
-        <v>28360.3429</v>
+        <v>593</v>
       </c>
       <c r="G74" t="n">
-        <v>-5025171.618746952</v>
+        <v>-5248994.072446952</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3016,7 +3071,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3026,28 +3081,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3.02</v>
+        <v>3.065</v>
       </c>
       <c r="C75" t="n">
-        <v>3.02</v>
+        <v>3.035</v>
       </c>
       <c r="D75" t="n">
-        <v>3.02</v>
+        <v>3.065</v>
       </c>
       <c r="E75" t="n">
-        <v>3.02</v>
+        <v>3.035</v>
       </c>
       <c r="F75" t="n">
-        <v>510</v>
+        <v>1118</v>
       </c>
       <c r="G75" t="n">
-        <v>-5024661.618746952</v>
+        <v>-5248994.072446952</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3057,7 +3113,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3067,28 +3123,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3.049</v>
+        <v>3.035</v>
       </c>
       <c r="C76" t="n">
-        <v>3.049</v>
+        <v>3.035</v>
       </c>
       <c r="D76" t="n">
-        <v>3.049</v>
+        <v>3.035</v>
       </c>
       <c r="E76" t="n">
-        <v>3.049</v>
+        <v>3.035</v>
       </c>
       <c r="F76" t="n">
-        <v>200</v>
+        <v>78380.09450000001</v>
       </c>
       <c r="G76" t="n">
-        <v>-5024461.618746952</v>
+        <v>-5248994.072446952</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3098,7 +3155,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3108,28 +3165,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3.049</v>
+        <v>3.035</v>
       </c>
       <c r="C77" t="n">
-        <v>3.049</v>
+        <v>3.035</v>
       </c>
       <c r="D77" t="n">
-        <v>3.049</v>
+        <v>3.035</v>
       </c>
       <c r="E77" t="n">
-        <v>3.049</v>
+        <v>3.035</v>
       </c>
       <c r="F77" t="n">
-        <v>510</v>
+        <v>448.667</v>
       </c>
       <c r="G77" t="n">
-        <v>-5024461.618746952</v>
+        <v>-5248994.072446952</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3139,7 +3197,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3149,28 +3207,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3.013</v>
+        <v>3.035</v>
       </c>
       <c r="C78" t="n">
-        <v>3.013</v>
+        <v>3.035</v>
       </c>
       <c r="D78" t="n">
-        <v>3.013</v>
+        <v>3.035</v>
       </c>
       <c r="E78" t="n">
-        <v>3.013</v>
+        <v>3.035</v>
       </c>
       <c r="F78" t="n">
-        <v>510</v>
+        <v>625</v>
       </c>
       <c r="G78" t="n">
-        <v>-5024971.618746952</v>
+        <v>-5248994.072446952</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3180,7 +3239,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3190,28 +3249,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3.049</v>
+        <v>3.035</v>
       </c>
       <c r="C79" t="n">
-        <v>3.05</v>
+        <v>3.035</v>
       </c>
       <c r="D79" t="n">
-        <v>3.05</v>
+        <v>3.035</v>
       </c>
       <c r="E79" t="n">
-        <v>3.049</v>
+        <v>3.035</v>
       </c>
       <c r="F79" t="n">
-        <v>12164.3528</v>
+        <v>621</v>
       </c>
       <c r="G79" t="n">
-        <v>-5012807.265946952</v>
+        <v>-5248994.072446952</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3221,7 +3281,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3231,28 +3291,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.05</v>
+        <v>3.065</v>
       </c>
       <c r="C80" t="n">
-        <v>3.05</v>
+        <v>3.045</v>
       </c>
       <c r="D80" t="n">
-        <v>3.05</v>
+        <v>3.082</v>
       </c>
       <c r="E80" t="n">
-        <v>3.05</v>
+        <v>3.045</v>
       </c>
       <c r="F80" t="n">
-        <v>4078.5053</v>
+        <v>55216.1021843608</v>
       </c>
       <c r="G80" t="n">
-        <v>-5012807.265946952</v>
+        <v>-5193777.970262591</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3262,7 +3323,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3272,28 +3333,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.05</v>
+        <v>3.045</v>
       </c>
       <c r="C81" t="n">
-        <v>3.05</v>
+        <v>3.045</v>
       </c>
       <c r="D81" t="n">
-        <v>3.05</v>
+        <v>3.045</v>
       </c>
       <c r="E81" t="n">
-        <v>3.05</v>
+        <v>3.045</v>
       </c>
       <c r="F81" t="n">
-        <v>7623.9535</v>
+        <v>587</v>
       </c>
       <c r="G81" t="n">
-        <v>-5012807.265946952</v>
+        <v>-5193777.970262591</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3303,7 +3365,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3313,28 +3375,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3.049</v>
+        <v>3.045</v>
       </c>
       <c r="C82" t="n">
-        <v>3.049</v>
+        <v>3.045</v>
       </c>
       <c r="D82" t="n">
-        <v>3.049</v>
+        <v>3.045</v>
       </c>
       <c r="E82" t="n">
-        <v>3.049</v>
+        <v>3.045</v>
       </c>
       <c r="F82" t="n">
-        <v>90240</v>
+        <v>640</v>
       </c>
       <c r="G82" t="n">
-        <v>-5103047.265946952</v>
+        <v>-5193777.970262591</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3344,7 +3407,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3354,28 +3417,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3.049</v>
+        <v>3.045</v>
       </c>
       <c r="C83" t="n">
-        <v>3.049</v>
+        <v>3.045</v>
       </c>
       <c r="D83" t="n">
-        <v>3.049</v>
+        <v>3.045</v>
       </c>
       <c r="E83" t="n">
-        <v>3.049</v>
+        <v>3.045</v>
       </c>
       <c r="F83" t="n">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="G83" t="n">
-        <v>-5103047.265946952</v>
+        <v>-5193777.970262591</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3385,7 +3449,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3395,28 +3459,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3.04</v>
+        <v>3.045</v>
       </c>
       <c r="C84" t="n">
-        <v>3.04</v>
+        <v>3.037</v>
       </c>
       <c r="D84" t="n">
-        <v>3.04</v>
+        <v>3.045</v>
       </c>
       <c r="E84" t="n">
-        <v>3.04</v>
+        <v>3.037</v>
       </c>
       <c r="F84" t="n">
-        <v>70000</v>
+        <v>12113</v>
       </c>
       <c r="G84" t="n">
-        <v>-5173047.265946952</v>
+        <v>-5205890.970262591</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,7 +3491,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3436,28 +3501,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>3.039</v>
+        <v>3.037</v>
       </c>
       <c r="C85" t="n">
-        <v>3.039</v>
+        <v>3.037</v>
       </c>
       <c r="D85" t="n">
-        <v>3.039</v>
+        <v>3.037</v>
       </c>
       <c r="E85" t="n">
-        <v>3.039</v>
+        <v>3.037</v>
       </c>
       <c r="F85" t="n">
-        <v>34097.969</v>
+        <v>586</v>
       </c>
       <c r="G85" t="n">
-        <v>-5207145.234946951</v>
+        <v>-5205890.970262591</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3467,7 +3533,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3477,6 +3543,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3495,10 +3562,10 @@
         <v>3.037</v>
       </c>
       <c r="F86" t="n">
-        <v>585</v>
+        <v>684</v>
       </c>
       <c r="G86" t="n">
-        <v>-5207730.234946951</v>
+        <v>-5205890.970262591</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3508,7 +3575,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3518,28 +3585,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3.04</v>
+        <v>3.047</v>
       </c>
       <c r="C87" t="n">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="D87" t="n">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="E87" t="n">
-        <v>3.04</v>
+        <v>3.047</v>
       </c>
       <c r="F87" t="n">
-        <v>544</v>
+        <v>19869.0328</v>
       </c>
       <c r="G87" t="n">
-        <v>-5207186.234946951</v>
+        <v>-5186021.937462591</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3549,7 +3617,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3559,28 +3627,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="C88" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="D88" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="E88" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="F88" t="n">
-        <v>608</v>
+        <v>532</v>
       </c>
       <c r="G88" t="n">
-        <v>-5207794.234946951</v>
+        <v>-5186553.937462591</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3590,7 +3659,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3600,28 +3669,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="C89" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="D89" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="E89" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="F89" t="n">
-        <v>663</v>
+        <v>512</v>
       </c>
       <c r="G89" t="n">
-        <v>-5207794.234946951</v>
+        <v>-5186553.937462591</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3631,7 +3701,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3641,28 +3711,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="C90" t="n">
-        <v>3.035</v>
+        <v>3.06</v>
       </c>
       <c r="D90" t="n">
-        <v>3.035</v>
+        <v>3.06</v>
       </c>
       <c r="E90" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="F90" t="n">
-        <v>556</v>
+        <v>860</v>
       </c>
       <c r="G90" t="n">
-        <v>-5207794.234946951</v>
+        <v>-5185693.937462591</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3672,7 +3743,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3682,28 +3753,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="C91" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="D91" t="n">
-        <v>3.059</v>
+        <v>3.037</v>
       </c>
       <c r="E91" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="F91" t="n">
-        <v>17910.06</v>
+        <v>665</v>
       </c>
       <c r="G91" t="n">
-        <v>-5207794.234946951</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3713,7 +3785,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3723,28 +3795,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3.05</v>
+        <v>3.037</v>
       </c>
       <c r="C92" t="n">
-        <v>3.05</v>
+        <v>3.037</v>
       </c>
       <c r="D92" t="n">
-        <v>3.05</v>
+        <v>3.037</v>
       </c>
       <c r="E92" t="n">
-        <v>3.05</v>
+        <v>3.037</v>
       </c>
       <c r="F92" t="n">
-        <v>200</v>
+        <v>513</v>
       </c>
       <c r="G92" t="n">
-        <v>-5207594.234946951</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3754,7 +3827,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -3764,28 +3837,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="C93" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="D93" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="E93" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="F93" t="n">
-        <v>15000</v>
+        <v>688</v>
       </c>
       <c r="G93" t="n">
-        <v>-5222594.234946951</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3795,7 +3869,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -3805,28 +3879,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>3.05</v>
+        <v>3.037</v>
       </c>
       <c r="C94" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="D94" t="n">
-        <v>3.05</v>
+        <v>3.037</v>
       </c>
       <c r="E94" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="F94" t="n">
-        <v>1169</v>
+        <v>650</v>
       </c>
       <c r="G94" t="n">
-        <v>-5222594.234946951</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3836,7 +3911,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -3846,28 +3921,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="C95" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="D95" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="E95" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="F95" t="n">
-        <v>544</v>
+        <v>688</v>
       </c>
       <c r="G95" t="n">
-        <v>-5222594.234946951</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3877,7 +3953,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -3887,28 +3963,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="C96" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="D96" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="E96" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="F96" t="n">
-        <v>656</v>
+        <v>560</v>
       </c>
       <c r="G96" t="n">
-        <v>-5222594.234946951</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3918,7 +3995,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -3928,28 +4005,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="C97" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="D97" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="E97" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="F97" t="n">
-        <v>642</v>
+        <v>699</v>
       </c>
       <c r="G97" t="n">
-        <v>-5222594.234946951</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3959,7 +4037,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -3969,28 +4047,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>3.035</v>
+        <v>3.06</v>
       </c>
       <c r="C98" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="D98" t="n">
-        <v>3.035</v>
+        <v>3.06</v>
       </c>
       <c r="E98" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="F98" t="n">
-        <v>613</v>
+        <v>1066</v>
       </c>
       <c r="G98" t="n">
-        <v>-5222594.234946951</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4000,7 +4079,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4010,28 +4089,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="C99" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="D99" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="E99" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="F99" t="n">
-        <v>6253.69</v>
+        <v>505</v>
       </c>
       <c r="G99" t="n">
-        <v>-5222594.234946951</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4041,7 +4121,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4051,28 +4131,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3.04</v>
+        <v>3.037</v>
       </c>
       <c r="C100" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="D100" t="n">
-        <v>3.04</v>
+        <v>3.037</v>
       </c>
       <c r="E100" t="n">
-        <v>3.035</v>
+        <v>3.037</v>
       </c>
       <c r="F100" t="n">
-        <v>50397.0974</v>
+        <v>599</v>
       </c>
       <c r="G100" t="n">
-        <v>-5222594.234946951</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4082,7 +4163,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4092,28 +4173,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="C101" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="D101" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="E101" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="F101" t="n">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="G101" t="n">
-        <v>-5223203.234946951</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4123,7 +4205,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4133,28 +4215,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="C102" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="D102" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="E102" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="F102" t="n">
-        <v>625</v>
+        <v>581</v>
       </c>
       <c r="G102" t="n">
-        <v>-5223203.234946951</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4164,7 +4247,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4174,28 +4257,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="C103" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="D103" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="E103" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="F103" t="n">
-        <v>519</v>
+        <v>697</v>
       </c>
       <c r="G103" t="n">
-        <v>-5223203.234946951</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4205,7 +4289,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4215,28 +4299,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="C104" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="D104" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="E104" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="F104" t="n">
-        <v>659</v>
+        <v>553</v>
       </c>
       <c r="G104" t="n">
-        <v>-5223203.234946951</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4246,7 +4331,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4256,28 +4341,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="C105" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="D105" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="E105" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="F105" t="n">
-        <v>609</v>
+        <v>677</v>
       </c>
       <c r="G105" t="n">
-        <v>-5223203.234946951</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4287,7 +4373,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4297,28 +4383,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="C106" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="D106" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="E106" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="F106" t="n">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="G106" t="n">
-        <v>-5223203.234946951</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4328,7 +4415,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4338,28 +4425,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="C107" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="D107" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="E107" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="F107" t="n">
-        <v>567</v>
+        <v>514</v>
       </c>
       <c r="G107" t="n">
-        <v>-5223203.234946951</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4369,7 +4457,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4379,28 +4467,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="C108" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="D108" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="E108" t="n">
-        <v>3.026</v>
+        <v>3.037</v>
       </c>
       <c r="F108" t="n">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="G108" t="n">
-        <v>-5223203.234946951</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4410,7 +4499,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4420,28 +4509,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>3.028</v>
+        <v>3.037</v>
       </c>
       <c r="C109" t="n">
-        <v>3.028</v>
+        <v>3.037</v>
       </c>
       <c r="D109" t="n">
-        <v>3.028</v>
+        <v>3.037</v>
       </c>
       <c r="E109" t="n">
-        <v>3.028</v>
+        <v>3.037</v>
       </c>
       <c r="F109" t="n">
-        <v>649</v>
+        <v>524</v>
       </c>
       <c r="G109" t="n">
-        <v>-5222554.234946951</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4451,7 +4541,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4461,28 +4551,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>3.028</v>
+        <v>3.037</v>
       </c>
       <c r="C110" t="n">
-        <v>3.028</v>
+        <v>3.037</v>
       </c>
       <c r="D110" t="n">
-        <v>3.028</v>
+        <v>3.037</v>
       </c>
       <c r="E110" t="n">
-        <v>3.028</v>
+        <v>3.037</v>
       </c>
       <c r="F110" t="n">
-        <v>1647</v>
+        <v>622</v>
       </c>
       <c r="G110" t="n">
-        <v>-5222554.234946951</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4492,7 +4583,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4502,28 +4593,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>3.028</v>
+        <v>3.037</v>
       </c>
       <c r="C111" t="n">
-        <v>3.028</v>
+        <v>3.037</v>
       </c>
       <c r="D111" t="n">
-        <v>3.028</v>
+        <v>3.037</v>
       </c>
       <c r="E111" t="n">
-        <v>3.028</v>
+        <v>3.037</v>
       </c>
       <c r="F111" t="n">
-        <v>569</v>
+        <v>633</v>
       </c>
       <c r="G111" t="n">
-        <v>-5222554.234946951</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4533,7 +4625,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4543,28 +4635,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>3.028</v>
+        <v>3.037</v>
       </c>
       <c r="C112" t="n">
-        <v>3.038</v>
+        <v>3.037</v>
       </c>
       <c r="D112" t="n">
-        <v>3.038</v>
+        <v>3.037</v>
       </c>
       <c r="E112" t="n">
-        <v>3.028</v>
+        <v>3.037</v>
       </c>
       <c r="F112" t="n">
-        <v>27536.2123</v>
+        <v>554</v>
       </c>
       <c r="G112" t="n">
-        <v>-5195018.022646951</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4574,7 +4667,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4584,38 +4677,41 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>3.038</v>
+        <v>3.037</v>
       </c>
       <c r="C113" t="n">
-        <v>3.038</v>
+        <v>3.037</v>
       </c>
       <c r="D113" t="n">
-        <v>3.038</v>
+        <v>3.037</v>
       </c>
       <c r="E113" t="n">
-        <v>3.038</v>
+        <v>3.037</v>
       </c>
       <c r="F113" t="n">
-        <v>559</v>
+        <v>698</v>
       </c>
       <c r="G113" t="n">
-        <v>-5195018.022646951</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>3.037</v>
+      </c>
       <c r="K113" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4625,28 +4721,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>3.037</v>
+        <v>3.038</v>
       </c>
       <c r="C114" t="n">
-        <v>3.035</v>
+        <v>3.039</v>
       </c>
       <c r="D114" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="E114" t="n">
-        <v>3.035</v>
+        <v>3.038</v>
       </c>
       <c r="F114" t="n">
-        <v>53976.0498</v>
+        <v>1104</v>
       </c>
       <c r="G114" t="n">
-        <v>-5248994.072446952</v>
+        <v>-5185254.937462591</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4656,7 +4753,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4666,28 +4763,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>3.035</v>
+        <v>3.039</v>
       </c>
       <c r="C115" t="n">
-        <v>3.035</v>
+        <v>3.039</v>
       </c>
       <c r="D115" t="n">
-        <v>3.035</v>
+        <v>3.039</v>
       </c>
       <c r="E115" t="n">
-        <v>3.035</v>
+        <v>3.039</v>
       </c>
       <c r="F115" t="n">
-        <v>608</v>
+        <v>563</v>
       </c>
       <c r="G115" t="n">
-        <v>-5248994.072446952</v>
+        <v>-5185254.937462591</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4697,7 +4795,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4707,28 +4805,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>3.035</v>
+        <v>3.039</v>
       </c>
       <c r="C116" t="n">
-        <v>3.035</v>
+        <v>3.039</v>
       </c>
       <c r="D116" t="n">
-        <v>3.035</v>
+        <v>3.039</v>
       </c>
       <c r="E116" t="n">
-        <v>3.035</v>
+        <v>3.039</v>
       </c>
       <c r="F116" t="n">
-        <v>593</v>
+        <v>637</v>
       </c>
       <c r="G116" t="n">
-        <v>-5248994.072446952</v>
+        <v>-5185254.937462591</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4738,7 +4837,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4748,28 +4847,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>3.065</v>
+        <v>3.06</v>
       </c>
       <c r="C117" t="n">
-        <v>3.035</v>
+        <v>3.039</v>
       </c>
       <c r="D117" t="n">
-        <v>3.065</v>
+        <v>3.06</v>
       </c>
       <c r="E117" t="n">
-        <v>3.035</v>
+        <v>3.039</v>
       </c>
       <c r="F117" t="n">
-        <v>1118</v>
+        <v>1524.3259</v>
       </c>
       <c r="G117" t="n">
-        <v>-5248994.072446952</v>
+        <v>-5185254.937462591</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4779,7 +4879,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4789,28 +4889,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>3.035</v>
+        <v>3.039</v>
       </c>
       <c r="C118" t="n">
-        <v>3.035</v>
+        <v>3.039</v>
       </c>
       <c r="D118" t="n">
-        <v>3.035</v>
+        <v>3.039</v>
       </c>
       <c r="E118" t="n">
-        <v>3.035</v>
+        <v>3.039</v>
       </c>
       <c r="F118" t="n">
-        <v>78380.09450000001</v>
+        <v>613</v>
       </c>
       <c r="G118" t="n">
-        <v>-5248994.072446952</v>
+        <v>-5185254.937462591</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4820,7 +4921,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4830,38 +4931,41 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>3.035</v>
+        <v>3.039</v>
       </c>
       <c r="C119" t="n">
-        <v>3.035</v>
+        <v>3.039</v>
       </c>
       <c r="D119" t="n">
-        <v>3.035</v>
+        <v>3.039</v>
       </c>
       <c r="E119" t="n">
-        <v>3.035</v>
+        <v>3.039</v>
       </c>
       <c r="F119" t="n">
-        <v>448.667</v>
+        <v>610</v>
       </c>
       <c r="G119" t="n">
-        <v>-5248994.072446952</v>
+        <v>-5185254.937462591</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K119" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -4871,38 +4975,41 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>3.035</v>
+        <v>3.039</v>
       </c>
       <c r="C120" t="n">
-        <v>3.035</v>
+        <v>3.039</v>
       </c>
       <c r="D120" t="n">
-        <v>3.035</v>
+        <v>3.039</v>
       </c>
       <c r="E120" t="n">
-        <v>3.035</v>
+        <v>3.039</v>
       </c>
       <c r="F120" t="n">
-        <v>625</v>
+        <v>569</v>
       </c>
       <c r="G120" t="n">
-        <v>-5248994.072446952</v>
+        <v>-5185254.937462591</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K120" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -4912,38 +5019,41 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>3.035</v>
+        <v>3.039</v>
       </c>
       <c r="C121" t="n">
-        <v>3.035</v>
+        <v>3.039</v>
       </c>
       <c r="D121" t="n">
-        <v>3.035</v>
+        <v>3.039</v>
       </c>
       <c r="E121" t="n">
-        <v>3.035</v>
+        <v>3.039</v>
       </c>
       <c r="F121" t="n">
-        <v>621</v>
+        <v>551</v>
       </c>
       <c r="G121" t="n">
-        <v>-5248994.072446952</v>
+        <v>-5185254.937462591</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K121" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -4953,38 +5063,41 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>3.065</v>
+        <v>3.039</v>
       </c>
       <c r="C122" t="n">
-        <v>3.045</v>
+        <v>3.039</v>
       </c>
       <c r="D122" t="n">
-        <v>3.082</v>
+        <v>3.039</v>
       </c>
       <c r="E122" t="n">
-        <v>3.045</v>
+        <v>3.039</v>
       </c>
       <c r="F122" t="n">
-        <v>55216.1021843608</v>
+        <v>588</v>
       </c>
       <c r="G122" t="n">
-        <v>-5193777.970262591</v>
+        <v>-5185254.937462591</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K122" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -4994,38 +5107,41 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>3.045</v>
+        <v>3.039</v>
       </c>
       <c r="C123" t="n">
-        <v>3.045</v>
+        <v>3.039</v>
       </c>
       <c r="D123" t="n">
-        <v>3.045</v>
+        <v>3.039</v>
       </c>
       <c r="E123" t="n">
-        <v>3.045</v>
+        <v>3.039</v>
       </c>
       <c r="F123" t="n">
-        <v>587</v>
+        <v>533</v>
       </c>
       <c r="G123" t="n">
-        <v>-5193777.970262591</v>
+        <v>-5185254.937462591</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K123" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5035,38 +5151,41 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3.045</v>
+        <v>3.039</v>
       </c>
       <c r="C124" t="n">
-        <v>3.045</v>
+        <v>3.039</v>
       </c>
       <c r="D124" t="n">
-        <v>3.045</v>
+        <v>3.039</v>
       </c>
       <c r="E124" t="n">
-        <v>3.045</v>
+        <v>3.039</v>
       </c>
       <c r="F124" t="n">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="G124" t="n">
-        <v>-5193777.970262591</v>
+        <v>-5185254.937462591</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K124" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5076,38 +5195,41 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3.045</v>
+        <v>3.039</v>
       </c>
       <c r="C125" t="n">
-        <v>3.045</v>
+        <v>3.06</v>
       </c>
       <c r="D125" t="n">
-        <v>3.045</v>
+        <v>3.06</v>
       </c>
       <c r="E125" t="n">
-        <v>3.045</v>
+        <v>3.039</v>
       </c>
       <c r="F125" t="n">
-        <v>520</v>
+        <v>1150</v>
       </c>
       <c r="G125" t="n">
-        <v>-5193777.970262591</v>
+        <v>-5184104.937462591</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>3.039</v>
+      </c>
       <c r="K125" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5117,38 +5239,41 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.045</v>
+        <v>3.039</v>
       </c>
       <c r="C126" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="D126" t="n">
-        <v>3.045</v>
+        <v>3.039</v>
       </c>
       <c r="E126" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="F126" t="n">
-        <v>12113</v>
+        <v>519</v>
       </c>
       <c r="G126" t="n">
-        <v>-5205890.970262591</v>
+        <v>-5184623.937462591</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>3.06</v>
+      </c>
       <c r="K126" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5158,28 +5283,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="C127" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="D127" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="E127" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="F127" t="n">
-        <v>586</v>
+        <v>613</v>
       </c>
       <c r="G127" t="n">
-        <v>-5205890.970262591</v>
+        <v>-5184623.937462591</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5189,7 +5315,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5199,28 +5325,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="C128" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="D128" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="E128" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="F128" t="n">
-        <v>684</v>
+        <v>582</v>
       </c>
       <c r="G128" t="n">
-        <v>-5205890.970262591</v>
+        <v>-5184623.937462591</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5230,7 +5357,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5240,28 +5367,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.047</v>
+        <v>3.039</v>
       </c>
       <c r="C129" t="n">
-        <v>3.05</v>
+        <v>3.039</v>
       </c>
       <c r="D129" t="n">
-        <v>3.05</v>
+        <v>3.039</v>
       </c>
       <c r="E129" t="n">
-        <v>3.047</v>
+        <v>3.039</v>
       </c>
       <c r="F129" t="n">
-        <v>19869.0328</v>
+        <v>690</v>
       </c>
       <c r="G129" t="n">
-        <v>-5186021.937462591</v>
+        <v>-5184623.937462591</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5271,7 +5399,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5281,28 +5409,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="C130" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="D130" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="E130" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="F130" t="n">
-        <v>532</v>
+        <v>696</v>
       </c>
       <c r="G130" t="n">
-        <v>-5186553.937462591</v>
+        <v>-5184623.937462591</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5312,7 +5441,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5322,28 +5451,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="C131" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="D131" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="E131" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="F131" t="n">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G131" t="n">
-        <v>-5186553.937462591</v>
+        <v>-5184113.937462591</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5353,7 +5483,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5363,28 +5493,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="C132" t="n">
-        <v>3.06</v>
+        <v>3.039</v>
       </c>
       <c r="D132" t="n">
-        <v>3.06</v>
+        <v>3.039</v>
       </c>
       <c r="E132" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="F132" t="n">
-        <v>860</v>
+        <v>648</v>
       </c>
       <c r="G132" t="n">
-        <v>-5185693.937462591</v>
+        <v>-5184761.937462591</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5394,7 +5525,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5404,28 +5535,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="C133" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="D133" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="E133" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="F133" t="n">
-        <v>665</v>
+        <v>12781.8271</v>
       </c>
       <c r="G133" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5184761.937462591</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5435,7 +5567,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5445,28 +5577,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="C134" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="D134" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="E134" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="F134" t="n">
-        <v>513</v>
+        <v>115288.2981</v>
       </c>
       <c r="G134" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5184761.937462591</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5476,7 +5609,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5486,28 +5619,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="C135" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="D135" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="E135" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="F135" t="n">
-        <v>688</v>
+        <v>510</v>
       </c>
       <c r="G135" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5184251.937462591</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5517,7 +5651,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5527,28 +5661,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="C136" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="D136" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="E136" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="F136" t="n">
-        <v>650</v>
+        <v>2578.7069</v>
       </c>
       <c r="G136" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5184251.937462591</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5558,7 +5693,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5568,28 +5703,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3.037</v>
+        <v>3.072</v>
       </c>
       <c r="C137" t="n">
-        <v>3.037</v>
+        <v>3.072</v>
       </c>
       <c r="D137" t="n">
-        <v>3.037</v>
+        <v>3.072</v>
       </c>
       <c r="E137" t="n">
-        <v>3.037</v>
+        <v>3.072</v>
       </c>
       <c r="F137" t="n">
-        <v>688</v>
+        <v>7080.6345</v>
       </c>
       <c r="G137" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5177171.302962591</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5599,7 +5735,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5609,28 +5745,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="C138" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="D138" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="E138" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="F138" t="n">
-        <v>560</v>
+        <v>13218.1398</v>
       </c>
       <c r="G138" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5190389.442762591</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5640,7 +5777,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5650,28 +5787,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="C139" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="D139" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="E139" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="F139" t="n">
-        <v>699</v>
+        <v>24684.8874</v>
       </c>
       <c r="G139" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5190389.442762591</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5681,7 +5819,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5691,6 +5829,7 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5700,19 +5839,19 @@
         <v>3.06</v>
       </c>
       <c r="C140" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="D140" t="n">
         <v>3.06</v>
       </c>
       <c r="E140" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="F140" t="n">
-        <v>1066</v>
+        <v>32731.9446</v>
       </c>
       <c r="G140" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5190389.442762591</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5722,7 +5861,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5732,28 +5871,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3.037</v>
+        <v>3.048</v>
       </c>
       <c r="C141" t="n">
-        <v>3.037</v>
+        <v>3.048</v>
       </c>
       <c r="D141" t="n">
-        <v>3.037</v>
+        <v>3.048</v>
       </c>
       <c r="E141" t="n">
-        <v>3.037</v>
+        <v>3.048</v>
       </c>
       <c r="F141" t="n">
-        <v>505</v>
+        <v>7080</v>
       </c>
       <c r="G141" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5197469.442762591</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5763,7 +5903,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5773,28 +5913,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>3.037</v>
+        <v>3.044</v>
       </c>
       <c r="C142" t="n">
-        <v>3.037</v>
+        <v>3.044</v>
       </c>
       <c r="D142" t="n">
-        <v>3.037</v>
+        <v>3.044</v>
       </c>
       <c r="E142" t="n">
-        <v>3.037</v>
+        <v>3.044</v>
       </c>
       <c r="F142" t="n">
-        <v>599</v>
+        <v>5520.8414</v>
       </c>
       <c r="G142" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5202990.284162591</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5804,7 +5945,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5814,28 +5955,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>3.037</v>
+        <v>3.041</v>
       </c>
       <c r="C143" t="n">
-        <v>3.037</v>
+        <v>3.038</v>
       </c>
       <c r="D143" t="n">
-        <v>3.037</v>
+        <v>3.041</v>
       </c>
       <c r="E143" t="n">
-        <v>3.037</v>
+        <v>3.038</v>
       </c>
       <c r="F143" t="n">
-        <v>591</v>
+        <v>279343.0868</v>
       </c>
       <c r="G143" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5482333.370962591</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5845,7 +5987,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -5855,28 +5997,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="C144" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="D144" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="E144" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="F144" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="G144" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5481823.370962591</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5886,7 +6029,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -5896,28 +6039,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3.037</v>
+        <v>3.038</v>
       </c>
       <c r="C145" t="n">
-        <v>3.037</v>
+        <v>3.038</v>
       </c>
       <c r="D145" t="n">
-        <v>3.037</v>
+        <v>3.038</v>
       </c>
       <c r="E145" t="n">
-        <v>3.037</v>
+        <v>3.038</v>
       </c>
       <c r="F145" t="n">
-        <v>697</v>
+        <v>510</v>
       </c>
       <c r="G145" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5482333.370962591</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5927,7 +6071,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -5937,28 +6081,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>3.037</v>
+        <v>3.038</v>
       </c>
       <c r="C146" t="n">
-        <v>3.037</v>
+        <v>3.038</v>
       </c>
       <c r="D146" t="n">
-        <v>3.037</v>
+        <v>3.038</v>
       </c>
       <c r="E146" t="n">
-        <v>3.037</v>
+        <v>3.038</v>
       </c>
       <c r="F146" t="n">
-        <v>553</v>
+        <v>15870</v>
       </c>
       <c r="G146" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5482333.370962591</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5968,7 +6113,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -5978,40 +6123,39 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="C147" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="D147" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="E147" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="F147" t="n">
-        <v>677</v>
+        <v>510</v>
       </c>
       <c r="G147" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5481823.370962591</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>3.037</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6021,40 +6165,39 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="C148" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="D148" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="E148" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="F148" t="n">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G148" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5482333.370962591</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>3.037</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6064,28 +6207,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="C149" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="D149" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="E149" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="F149" t="n">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G149" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5481823.370962591</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6095,7 +6239,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6105,28 +6249,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="C150" t="n">
-        <v>3.037</v>
+        <v>3.038</v>
       </c>
       <c r="D150" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="E150" t="n">
-        <v>3.037</v>
+        <v>3.038</v>
       </c>
       <c r="F150" t="n">
-        <v>633</v>
+        <v>365195.6367</v>
       </c>
       <c r="G150" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5847019.007662591</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6136,7 +6281,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6146,28 +6291,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="C151" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="D151" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="E151" t="n">
-        <v>3.037</v>
+        <v>3.039</v>
       </c>
       <c r="F151" t="n">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="G151" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5846509.007662591</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6177,7 +6323,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6187,40 +6333,39 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="C152" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="D152" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="E152" t="n">
-        <v>3.037</v>
+        <v>3.06</v>
       </c>
       <c r="F152" t="n">
-        <v>622</v>
+        <v>16441.6611</v>
       </c>
       <c r="G152" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5830067.34656259</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>3.037</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6230,40 +6375,39 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3.037</v>
+        <v>3.061</v>
       </c>
       <c r="C153" t="n">
-        <v>3.037</v>
+        <v>3.061</v>
       </c>
       <c r="D153" t="n">
-        <v>3.037</v>
+        <v>3.061</v>
       </c>
       <c r="E153" t="n">
-        <v>3.037</v>
+        <v>3.061</v>
       </c>
       <c r="F153" t="n">
-        <v>633</v>
+        <v>6086.5939</v>
       </c>
       <c r="G153" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5823980.752662591</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>3.037</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6273,28 +6417,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3.037</v>
+        <v>3.072</v>
       </c>
       <c r="C154" t="n">
-        <v>3.037</v>
+        <v>3.072</v>
       </c>
       <c r="D154" t="n">
-        <v>3.037</v>
+        <v>3.072</v>
       </c>
       <c r="E154" t="n">
-        <v>3.037</v>
+        <v>3.072</v>
       </c>
       <c r="F154" t="n">
-        <v>554</v>
+        <v>575.7018</v>
       </c>
       <c r="G154" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5823405.050862591</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6304,7 +6449,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6314,28 +6459,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3.037</v>
+        <v>3.072</v>
       </c>
       <c r="C155" t="n">
-        <v>3.037</v>
+        <v>3.072</v>
       </c>
       <c r="D155" t="n">
-        <v>3.037</v>
+        <v>3.072</v>
       </c>
       <c r="E155" t="n">
-        <v>3.037</v>
+        <v>3.072</v>
       </c>
       <c r="F155" t="n">
-        <v>698</v>
+        <v>370</v>
       </c>
       <c r="G155" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5823405.050862591</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6345,7 +6491,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6355,28 +6501,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>3.038</v>
+        <v>3.061</v>
       </c>
       <c r="C156" t="n">
-        <v>3.039</v>
+        <v>3.06</v>
       </c>
       <c r="D156" t="n">
-        <v>3.039</v>
+        <v>3.061</v>
       </c>
       <c r="E156" t="n">
-        <v>3.038</v>
+        <v>3.06</v>
       </c>
       <c r="F156" t="n">
-        <v>1104</v>
+        <v>121731.0772</v>
       </c>
       <c r="G156" t="n">
-        <v>-5185254.937462591</v>
+        <v>-5945136.128062591</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6386,7 +6533,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6396,28 +6543,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3.039</v>
+        <v>3.06</v>
       </c>
       <c r="C157" t="n">
-        <v>3.039</v>
+        <v>3.06</v>
       </c>
       <c r="D157" t="n">
-        <v>3.039</v>
+        <v>3.06</v>
       </c>
       <c r="E157" t="n">
-        <v>3.039</v>
+        <v>3.06</v>
       </c>
       <c r="F157" t="n">
-        <v>563</v>
+        <v>27242.7644</v>
       </c>
       <c r="G157" t="n">
-        <v>-5185254.937462591</v>
+        <v>-5945136.128062591</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6427,7 +6575,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6437,28 +6585,29 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>3.039</v>
+        <v>3.06</v>
       </c>
       <c r="C158" t="n">
-        <v>3.039</v>
+        <v>3.06</v>
       </c>
       <c r="D158" t="n">
-        <v>3.039</v>
+        <v>3.06</v>
       </c>
       <c r="E158" t="n">
-        <v>3.039</v>
+        <v>3.06</v>
       </c>
       <c r="F158" t="n">
-        <v>637</v>
+        <v>294.7576</v>
       </c>
       <c r="G158" t="n">
-        <v>-5185254.937462591</v>
+        <v>-5945136.128062591</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6468,7 +6617,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6478,6 +6627,7 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6487,19 +6637,19 @@
         <v>3.06</v>
       </c>
       <c r="C159" t="n">
-        <v>3.039</v>
+        <v>3.061</v>
       </c>
       <c r="D159" t="n">
+        <v>3.061</v>
+      </c>
+      <c r="E159" t="n">
         <v>3.06</v>
       </c>
-      <c r="E159" t="n">
-        <v>3.039</v>
-      </c>
       <c r="F159" t="n">
-        <v>1524.3259</v>
+        <v>33980.26516073179</v>
       </c>
       <c r="G159" t="n">
-        <v>-5185254.937462591</v>
+        <v>-5911155.862901859</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6509,7 +6659,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6519,28 +6669,29 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>3.039</v>
+        <v>3.071</v>
       </c>
       <c r="C160" t="n">
-        <v>3.039</v>
+        <v>3.071</v>
       </c>
       <c r="D160" t="n">
-        <v>3.039</v>
+        <v>3.071</v>
       </c>
       <c r="E160" t="n">
-        <v>3.039</v>
+        <v>3.071</v>
       </c>
       <c r="F160" t="n">
-        <v>613</v>
+        <v>1127.5779</v>
       </c>
       <c r="G160" t="n">
-        <v>-5185254.937462591</v>
+        <v>-5910028.285001859</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6550,7 +6701,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6560,28 +6711,29 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>3.039</v>
+        <v>3.071</v>
       </c>
       <c r="C161" t="n">
-        <v>3.039</v>
+        <v>3.074</v>
       </c>
       <c r="D161" t="n">
-        <v>3.039</v>
+        <v>3.074</v>
       </c>
       <c r="E161" t="n">
-        <v>3.039</v>
+        <v>3.071</v>
       </c>
       <c r="F161" t="n">
-        <v>610</v>
+        <v>172794.2311</v>
       </c>
       <c r="G161" t="n">
-        <v>-5185254.937462591</v>
+        <v>-5737234.053901859</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6591,7 +6743,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6601,28 +6753,29 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>3.039</v>
+        <v>3.084</v>
       </c>
       <c r="C162" t="n">
-        <v>3.039</v>
+        <v>3.093</v>
       </c>
       <c r="D162" t="n">
-        <v>3.039</v>
+        <v>3.093</v>
       </c>
       <c r="E162" t="n">
-        <v>3.039</v>
+        <v>3.084</v>
       </c>
       <c r="F162" t="n">
-        <v>569</v>
+        <v>85355.7411</v>
       </c>
       <c r="G162" t="n">
-        <v>-5185254.937462591</v>
+        <v>-5651878.312801858</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6632,7 +6785,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6642,28 +6795,29 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>3.039</v>
+        <v>3.093</v>
       </c>
       <c r="C163" t="n">
-        <v>3.039</v>
+        <v>3.093</v>
       </c>
       <c r="D163" t="n">
-        <v>3.039</v>
+        <v>3.093</v>
       </c>
       <c r="E163" t="n">
-        <v>3.039</v>
+        <v>3.093</v>
       </c>
       <c r="F163" t="n">
-        <v>551</v>
+        <v>5050</v>
       </c>
       <c r="G163" t="n">
-        <v>-5185254.937462591</v>
+        <v>-5651878.312801858</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6673,7 +6827,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6683,28 +6837,29 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>3.039</v>
+        <v>3.093</v>
       </c>
       <c r="C164" t="n">
-        <v>3.039</v>
+        <v>3.093</v>
       </c>
       <c r="D164" t="n">
-        <v>3.039</v>
+        <v>3.093</v>
       </c>
       <c r="E164" t="n">
-        <v>3.039</v>
+        <v>3.093</v>
       </c>
       <c r="F164" t="n">
-        <v>588</v>
+        <v>1734.5385</v>
       </c>
       <c r="G164" t="n">
-        <v>-5185254.937462591</v>
+        <v>-5651878.312801858</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6714,7 +6869,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6724,28 +6879,29 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>3.039</v>
+        <v>3.093</v>
       </c>
       <c r="C165" t="n">
-        <v>3.039</v>
+        <v>3.093</v>
       </c>
       <c r="D165" t="n">
-        <v>3.039</v>
+        <v>3.093</v>
       </c>
       <c r="E165" t="n">
-        <v>3.039</v>
+        <v>3.093</v>
       </c>
       <c r="F165" t="n">
-        <v>533</v>
+        <v>20300</v>
       </c>
       <c r="G165" t="n">
-        <v>-5185254.937462591</v>
+        <v>-5651878.312801858</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6755,7 +6911,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6765,28 +6921,29 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>3.039</v>
+        <v>3.093</v>
       </c>
       <c r="C166" t="n">
-        <v>3.039</v>
+        <v>3.093</v>
       </c>
       <c r="D166" t="n">
-        <v>3.039</v>
+        <v>3.093</v>
       </c>
       <c r="E166" t="n">
-        <v>3.039</v>
+        <v>3.093</v>
       </c>
       <c r="F166" t="n">
-        <v>643</v>
+        <v>13424.4118</v>
       </c>
       <c r="G166" t="n">
-        <v>-5185254.937462591</v>
+        <v>-5651878.312801858</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6796,7 +6953,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6806,28 +6963,29 @@
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>3.039</v>
+        <v>3.093</v>
       </c>
       <c r="C167" t="n">
-        <v>3.06</v>
+        <v>3.093</v>
       </c>
       <c r="D167" t="n">
-        <v>3.06</v>
+        <v>3.093</v>
       </c>
       <c r="E167" t="n">
-        <v>3.039</v>
+        <v>3.093</v>
       </c>
       <c r="F167" t="n">
-        <v>1150</v>
+        <v>33702.9395</v>
       </c>
       <c r="G167" t="n">
-        <v>-5184104.937462591</v>
+        <v>-5651878.312801858</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6837,7 +6995,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -6847,28 +7005,29 @@
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>3.039</v>
+        <v>3.093</v>
       </c>
       <c r="C168" t="n">
-        <v>3.039</v>
+        <v>3.1</v>
       </c>
       <c r="D168" t="n">
-        <v>3.039</v>
+        <v>3.105</v>
       </c>
       <c r="E168" t="n">
-        <v>3.039</v>
+        <v>3.093</v>
       </c>
       <c r="F168" t="n">
-        <v>519</v>
+        <v>540278.3208457327</v>
       </c>
       <c r="G168" t="n">
-        <v>-5184623.937462591</v>
+        <v>-5111599.991956126</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6878,7 +7037,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -6888,28 +7047,29 @@
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>3.039</v>
+        <v>3.105</v>
       </c>
       <c r="C169" t="n">
-        <v>3.039</v>
+        <v>3.1</v>
       </c>
       <c r="D169" t="n">
-        <v>3.039</v>
+        <v>3.105</v>
       </c>
       <c r="E169" t="n">
-        <v>3.039</v>
+        <v>3.1</v>
       </c>
       <c r="F169" t="n">
-        <v>613</v>
+        <v>23261.003</v>
       </c>
       <c r="G169" t="n">
-        <v>-5184623.937462591</v>
+        <v>-5111599.991956126</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6919,7 +7079,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -6929,28 +7089,29 @@
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>3.039</v>
+        <v>3.1</v>
       </c>
       <c r="C170" t="n">
-        <v>3.039</v>
+        <v>3.125</v>
       </c>
       <c r="D170" t="n">
-        <v>3.039</v>
+        <v>3.125</v>
       </c>
       <c r="E170" t="n">
-        <v>3.039</v>
+        <v>3.1</v>
       </c>
       <c r="F170" t="n">
-        <v>582</v>
+        <v>27891.24365426731</v>
       </c>
       <c r="G170" t="n">
-        <v>-5184623.937462591</v>
+        <v>-5083708.748301859</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6960,7 +7121,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -6970,28 +7131,29 @@
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>3.039</v>
+        <v>3.125</v>
       </c>
       <c r="C171" t="n">
-        <v>3.039</v>
+        <v>3.136</v>
       </c>
       <c r="D171" t="n">
-        <v>3.039</v>
+        <v>3.136</v>
       </c>
       <c r="E171" t="n">
-        <v>3.039</v>
+        <v>3.125</v>
       </c>
       <c r="F171" t="n">
-        <v>690</v>
+        <v>35157.355</v>
       </c>
       <c r="G171" t="n">
-        <v>-5184623.937462591</v>
+        <v>-5048551.393301859</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -7001,7 +7163,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -7011,28 +7173,29 @@
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>3.039</v>
+        <v>3.136</v>
       </c>
       <c r="C172" t="n">
-        <v>3.039</v>
+        <v>3.138</v>
       </c>
       <c r="D172" t="n">
-        <v>3.039</v>
+        <v>3.138</v>
       </c>
       <c r="E172" t="n">
-        <v>3.039</v>
+        <v>3.1</v>
       </c>
       <c r="F172" t="n">
-        <v>696</v>
+        <v>16851.6028</v>
       </c>
       <c r="G172" t="n">
-        <v>-5184623.937462591</v>
+        <v>-5031699.790501858</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -7042,7 +7205,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -7052,28 +7215,29 @@
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>3.06</v>
+        <v>3.1</v>
       </c>
       <c r="C173" t="n">
-        <v>3.06</v>
+        <v>3.138</v>
       </c>
       <c r="D173" t="n">
-        <v>3.06</v>
+        <v>3.138</v>
       </c>
       <c r="E173" t="n">
-        <v>3.06</v>
+        <v>3.1</v>
       </c>
       <c r="F173" t="n">
-        <v>510</v>
+        <v>9008.482599999999</v>
       </c>
       <c r="G173" t="n">
-        <v>-5184113.937462591</v>
+        <v>-5031699.790501858</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7083,7 +7247,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>3.013</v>
+        <v>3.038</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -7093,1728 +7257,7 @@
       <c r="M173" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="C174" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="D174" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="E174" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="F174" t="n">
-        <v>648</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-5184761.937462591</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="C175" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="D175" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="E175" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="F175" t="n">
-        <v>12781.8271</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-5184761.937462591</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="C176" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="D176" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="E176" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="F176" t="n">
-        <v>115288.2981</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-5184761.937462591</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="C177" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="D177" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="E177" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="F177" t="n">
-        <v>510</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-5184251.937462591</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="C178" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="D178" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="E178" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="F178" t="n">
-        <v>2578.7069</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-5184251.937462591</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>3.072</v>
-      </c>
-      <c r="C179" t="n">
-        <v>3.072</v>
-      </c>
-      <c r="D179" t="n">
-        <v>3.072</v>
-      </c>
-      <c r="E179" t="n">
-        <v>3.072</v>
-      </c>
-      <c r="F179" t="n">
-        <v>7080.6345</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-5177171.302962591</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="C180" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="D180" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="E180" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="F180" t="n">
-        <v>13218.1398</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-5190389.442762591</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="C181" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="D181" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="E181" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="F181" t="n">
-        <v>24684.8874</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-5190389.442762591</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="C182" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="D182" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="E182" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="F182" t="n">
-        <v>32731.9446</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-5190389.442762591</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>3.048</v>
-      </c>
-      <c r="C183" t="n">
-        <v>3.048</v>
-      </c>
-      <c r="D183" t="n">
-        <v>3.048</v>
-      </c>
-      <c r="E183" t="n">
-        <v>3.048</v>
-      </c>
-      <c r="F183" t="n">
-        <v>7080</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-5197469.442762591</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>3.044</v>
-      </c>
-      <c r="C184" t="n">
-        <v>3.044</v>
-      </c>
-      <c r="D184" t="n">
-        <v>3.044</v>
-      </c>
-      <c r="E184" t="n">
-        <v>3.044</v>
-      </c>
-      <c r="F184" t="n">
-        <v>5520.8414</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-5202990.284162591</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>3.041</v>
-      </c>
-      <c r="C185" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="D185" t="n">
-        <v>3.041</v>
-      </c>
-      <c r="E185" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="F185" t="n">
-        <v>279343.0868</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-5482333.370962591</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="C186" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="D186" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="E186" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="F186" t="n">
-        <v>510</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-5481823.370962591</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="C187" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="D187" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="E187" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="F187" t="n">
-        <v>510</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-5482333.370962591</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="C188" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="D188" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="E188" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="F188" t="n">
-        <v>15870</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-5482333.370962591</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="C189" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="D189" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="E189" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="F189" t="n">
-        <v>510</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-5481823.370962591</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="C190" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="D190" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="E190" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="F190" t="n">
-        <v>510</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-5482333.370962591</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="C191" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="D191" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="E191" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="F191" t="n">
-        <v>510</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-5481823.370962591</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="C192" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="D192" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="E192" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="F192" t="n">
-        <v>365195.6367</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-5847019.007662591</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="C193" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="D193" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="E193" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="F193" t="n">
-        <v>510</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-5846509.007662591</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="C194" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="D194" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="E194" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="F194" t="n">
-        <v>16441.6611</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-5830067.34656259</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>3.061</v>
-      </c>
-      <c r="C195" t="n">
-        <v>3.061</v>
-      </c>
-      <c r="D195" t="n">
-        <v>3.061</v>
-      </c>
-      <c r="E195" t="n">
-        <v>3.061</v>
-      </c>
-      <c r="F195" t="n">
-        <v>6086.5939</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-5823980.752662591</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>3.072</v>
-      </c>
-      <c r="C196" t="n">
-        <v>3.072</v>
-      </c>
-      <c r="D196" t="n">
-        <v>3.072</v>
-      </c>
-      <c r="E196" t="n">
-        <v>3.072</v>
-      </c>
-      <c r="F196" t="n">
-        <v>575.7018</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-5823405.050862591</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>3.072</v>
-      </c>
-      <c r="C197" t="n">
-        <v>3.072</v>
-      </c>
-      <c r="D197" t="n">
-        <v>3.072</v>
-      </c>
-      <c r="E197" t="n">
-        <v>3.072</v>
-      </c>
-      <c r="F197" t="n">
-        <v>370</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-5823405.050862591</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>3.061</v>
-      </c>
-      <c r="C198" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="D198" t="n">
-        <v>3.061</v>
-      </c>
-      <c r="E198" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="F198" t="n">
-        <v>121731.0772</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-5945136.128062591</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="C199" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="D199" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="E199" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="F199" t="n">
-        <v>27242.7644</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-5945136.128062591</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="C200" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="D200" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="E200" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="F200" t="n">
-        <v>294.7576</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-5945136.128062591</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="C201" t="n">
-        <v>3.061</v>
-      </c>
-      <c r="D201" t="n">
-        <v>3.061</v>
-      </c>
-      <c r="E201" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="F201" t="n">
-        <v>33980.26516073179</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-5911155.862901859</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>3.071</v>
-      </c>
-      <c r="C202" t="n">
-        <v>3.071</v>
-      </c>
-      <c r="D202" t="n">
-        <v>3.071</v>
-      </c>
-      <c r="E202" t="n">
-        <v>3.071</v>
-      </c>
-      <c r="F202" t="n">
-        <v>1127.5779</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-5910028.285001859</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>3.071</v>
-      </c>
-      <c r="C203" t="n">
-        <v>3.074</v>
-      </c>
-      <c r="D203" t="n">
-        <v>3.074</v>
-      </c>
-      <c r="E203" t="n">
-        <v>3.071</v>
-      </c>
-      <c r="F203" t="n">
-        <v>172794.2311</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-5737234.053901859</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>3.084</v>
-      </c>
-      <c r="C204" t="n">
-        <v>3.093</v>
-      </c>
-      <c r="D204" t="n">
-        <v>3.093</v>
-      </c>
-      <c r="E204" t="n">
-        <v>3.084</v>
-      </c>
-      <c r="F204" t="n">
-        <v>85355.7411</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-5651878.312801858</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>3.093</v>
-      </c>
-      <c r="C205" t="n">
-        <v>3.093</v>
-      </c>
-      <c r="D205" t="n">
-        <v>3.093</v>
-      </c>
-      <c r="E205" t="n">
-        <v>3.093</v>
-      </c>
-      <c r="F205" t="n">
-        <v>5050</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-5651878.312801858</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>3.093</v>
-      </c>
-      <c r="C206" t="n">
-        <v>3.093</v>
-      </c>
-      <c r="D206" t="n">
-        <v>3.093</v>
-      </c>
-      <c r="E206" t="n">
-        <v>3.093</v>
-      </c>
-      <c r="F206" t="n">
-        <v>1734.5385</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-5651878.312801858</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>3.093</v>
-      </c>
-      <c r="C207" t="n">
-        <v>3.093</v>
-      </c>
-      <c r="D207" t="n">
-        <v>3.093</v>
-      </c>
-      <c r="E207" t="n">
-        <v>3.093</v>
-      </c>
-      <c r="F207" t="n">
-        <v>20300</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-5651878.312801858</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>3.093</v>
-      </c>
-      <c r="C208" t="n">
-        <v>3.093</v>
-      </c>
-      <c r="D208" t="n">
-        <v>3.093</v>
-      </c>
-      <c r="E208" t="n">
-        <v>3.093</v>
-      </c>
-      <c r="F208" t="n">
-        <v>13424.4118</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-5651878.312801858</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>3.093</v>
-      </c>
-      <c r="C209" t="n">
-        <v>3.093</v>
-      </c>
-      <c r="D209" t="n">
-        <v>3.093</v>
-      </c>
-      <c r="E209" t="n">
-        <v>3.093</v>
-      </c>
-      <c r="F209" t="n">
-        <v>33702.9395</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-5651878.312801858</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>3.093</v>
-      </c>
-      <c r="C210" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="D210" t="n">
-        <v>3.105</v>
-      </c>
-      <c r="E210" t="n">
-        <v>3.093</v>
-      </c>
-      <c r="F210" t="n">
-        <v>540278.3208457327</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-5111599.991956126</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>3.105</v>
-      </c>
-      <c r="C211" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="D211" t="n">
-        <v>3.105</v>
-      </c>
-      <c r="E211" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="F211" t="n">
-        <v>23261.003</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-5111599.991956126</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="C212" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="D212" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="E212" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="F212" t="n">
-        <v>27891.24365426731</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-5083708.748301859</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="C213" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="D213" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="E213" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="F213" t="n">
-        <v>35157.355</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-5048551.393301859</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="C214" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="D214" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="E214" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="F214" t="n">
-        <v>16851.6028</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-5031699.790501858</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="C215" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="D215" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="E215" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="F215" t="n">
-        <v>9008.482599999999</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-5031699.790501858</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
+      <c r="N173" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-14 BackTest MIX.xlsx
+++ b/BackTest/2020-01-14 BackTest MIX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N173"/>
+  <dimension ref="A1:N244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.065</v>
+        <v>3.13</v>
       </c>
       <c r="C2" t="n">
-        <v>3.07</v>
+        <v>3.13</v>
       </c>
       <c r="D2" t="n">
-        <v>3.07</v>
+        <v>3.13</v>
       </c>
       <c r="E2" t="n">
-        <v>3.065</v>
+        <v>3.13</v>
       </c>
       <c r="F2" t="n">
-        <v>1245.3287</v>
+        <v>25012.3482</v>
       </c>
       <c r="G2" t="n">
-        <v>-3467484.550446952</v>
+        <v>-629836.5072</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.065</v>
+        <v>3.092</v>
       </c>
       <c r="C3" t="n">
-        <v>3.065</v>
+        <v>3.092</v>
       </c>
       <c r="D3" t="n">
-        <v>3.065</v>
+        <v>3.092</v>
       </c>
       <c r="E3" t="n">
-        <v>3.065</v>
+        <v>3.092</v>
       </c>
       <c r="F3" t="n">
-        <v>2545.6583</v>
+        <v>15820</v>
       </c>
       <c r="G3" t="n">
-        <v>-3470030.208746952</v>
+        <v>-645656.5072</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.06</v>
+        <v>3.114</v>
       </c>
       <c r="C4" t="n">
-        <v>3.06</v>
+        <v>3.114</v>
       </c>
       <c r="D4" t="n">
-        <v>3.06</v>
+        <v>3.114</v>
       </c>
       <c r="E4" t="n">
-        <v>3.06</v>
+        <v>3.114</v>
       </c>
       <c r="F4" t="n">
-        <v>3000</v>
+        <v>3145.5622</v>
       </c>
       <c r="G4" t="n">
-        <v>-3473030.208746952</v>
+        <v>-642510.9449999999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.059</v>
+        <v>3.092</v>
       </c>
       <c r="C5" t="n">
-        <v>3.059</v>
+        <v>3.09</v>
       </c>
       <c r="D5" t="n">
-        <v>3.059</v>
+        <v>3.092</v>
       </c>
       <c r="E5" t="n">
-        <v>3.059</v>
+        <v>3.09</v>
       </c>
       <c r="F5" t="n">
-        <v>10075.4698</v>
+        <v>30132</v>
       </c>
       <c r="G5" t="n">
-        <v>-3483105.678546952</v>
+        <v>-672642.9449999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.05</v>
+        <v>3.114</v>
       </c>
       <c r="C6" t="n">
-        <v>3.047</v>
+        <v>3.114</v>
       </c>
       <c r="D6" t="n">
-        <v>3.05</v>
+        <v>3.114</v>
       </c>
       <c r="E6" t="n">
-        <v>3.047</v>
+        <v>3.114</v>
       </c>
       <c r="F6" t="n">
-        <v>166390.7342</v>
+        <v>3354.2348</v>
       </c>
       <c r="G6" t="n">
-        <v>-3649496.412746952</v>
+        <v>-669288.7102</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.047</v>
+        <v>3.114</v>
       </c>
       <c r="C7" t="n">
-        <v>3.047</v>
+        <v>3.115</v>
       </c>
       <c r="D7" t="n">
-        <v>3.047</v>
+        <v>3.115</v>
       </c>
       <c r="E7" t="n">
-        <v>3.047</v>
+        <v>3.114</v>
       </c>
       <c r="F7" t="n">
-        <v>1639878.443</v>
+        <v>69663.9755</v>
       </c>
       <c r="G7" t="n">
-        <v>-3649496.412746952</v>
+        <v>-599624.7346999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.059</v>
+        <v>3.1</v>
       </c>
       <c r="C8" t="n">
-        <v>3.059</v>
+        <v>3.1</v>
       </c>
       <c r="D8" t="n">
-        <v>3.059</v>
+        <v>3.1</v>
       </c>
       <c r="E8" t="n">
-        <v>3.059</v>
+        <v>3.1</v>
       </c>
       <c r="F8" t="n">
-        <v>522.4858</v>
+        <v>26660</v>
       </c>
       <c r="G8" t="n">
-        <v>-3648973.926946952</v>
+        <v>-626284.7346999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.044</v>
+        <v>3.1</v>
       </c>
       <c r="C9" t="n">
-        <v>3.044</v>
+        <v>3.1</v>
       </c>
       <c r="D9" t="n">
-        <v>3.044</v>
+        <v>3.1</v>
       </c>
       <c r="E9" t="n">
-        <v>3.044</v>
+        <v>3.1</v>
       </c>
       <c r="F9" t="n">
-        <v>42751.5545</v>
+        <v>26660</v>
       </c>
       <c r="G9" t="n">
-        <v>-3691725.481446952</v>
+        <v>-626284.7346999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.044</v>
+        <v>3.095</v>
       </c>
       <c r="C10" t="n">
-        <v>3.044</v>
+        <v>3.085</v>
       </c>
       <c r="D10" t="n">
-        <v>3.044</v>
+        <v>3.095</v>
       </c>
       <c r="E10" t="n">
-        <v>3.044</v>
+        <v>3.085</v>
       </c>
       <c r="F10" t="n">
-        <v>1278.4455</v>
+        <v>900000</v>
       </c>
       <c r="G10" t="n">
-        <v>-3691725.481446952</v>
+        <v>-1526284.7347</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.043</v>
+        <v>3.091</v>
       </c>
       <c r="C11" t="n">
-        <v>3.016</v>
+        <v>3.091</v>
       </c>
       <c r="D11" t="n">
-        <v>3.043</v>
+        <v>3.091</v>
       </c>
       <c r="E11" t="n">
-        <v>3.012</v>
+        <v>3.091</v>
       </c>
       <c r="F11" t="n">
-        <v>1244976.5197</v>
+        <v>1000</v>
       </c>
       <c r="G11" t="n">
-        <v>-4936702.001146952</v>
+        <v>-1525284.7347</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.016</v>
+        <v>3.091</v>
       </c>
       <c r="C12" t="n">
-        <v>3.016</v>
+        <v>3.091</v>
       </c>
       <c r="D12" t="n">
-        <v>3.016</v>
+        <v>3.091</v>
       </c>
       <c r="E12" t="n">
-        <v>3.016</v>
+        <v>3.091</v>
       </c>
       <c r="F12" t="n">
-        <v>67531.5772</v>
+        <v>12330</v>
       </c>
       <c r="G12" t="n">
-        <v>-4936702.001146952</v>
+        <v>-1525284.7347</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.049</v>
+        <v>3.091</v>
       </c>
       <c r="C13" t="n">
-        <v>3.049</v>
+        <v>3.11</v>
       </c>
       <c r="D13" t="n">
-        <v>3.049</v>
+        <v>3.11</v>
       </c>
       <c r="E13" t="n">
-        <v>3.049</v>
+        <v>3.091</v>
       </c>
       <c r="F13" t="n">
-        <v>8244.546200000001</v>
+        <v>460000</v>
       </c>
       <c r="G13" t="n">
-        <v>-4928457.454946952</v>
+        <v>-1065284.7347</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.049</v>
+        <v>3.11</v>
       </c>
       <c r="C14" t="n">
-        <v>3.049</v>
+        <v>3.115</v>
       </c>
       <c r="D14" t="n">
-        <v>3.049</v>
+        <v>3.115</v>
       </c>
       <c r="E14" t="n">
-        <v>3.049</v>
+        <v>3.11</v>
       </c>
       <c r="F14" t="n">
-        <v>15666.7743</v>
+        <v>2329.7045</v>
       </c>
       <c r="G14" t="n">
-        <v>-4928457.454946952</v>
+        <v>-1062955.0302</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.023</v>
+        <v>3.11</v>
       </c>
       <c r="C15" t="n">
-        <v>3.012</v>
+        <v>3.11</v>
       </c>
       <c r="D15" t="n">
-        <v>3.023</v>
+        <v>3.11</v>
       </c>
       <c r="E15" t="n">
-        <v>3.012</v>
+        <v>3.11</v>
       </c>
       <c r="F15" t="n">
-        <v>100000</v>
+        <v>946.1839</v>
       </c>
       <c r="G15" t="n">
-        <v>-5028457.454946952</v>
+        <v>-1063901.2141</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.049</v>
+        <v>3.09</v>
       </c>
       <c r="C16" t="n">
-        <v>3.05</v>
+        <v>3.09</v>
       </c>
       <c r="D16" t="n">
-        <v>3.05</v>
+        <v>3.09</v>
       </c>
       <c r="E16" t="n">
-        <v>3.049</v>
+        <v>3.09</v>
       </c>
       <c r="F16" t="n">
-        <v>10504.5661</v>
+        <v>7183.6482</v>
       </c>
       <c r="G16" t="n">
-        <v>-5017952.888846952</v>
+        <v>-1071084.8623</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.049</v>
+        <v>3.1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.023</v>
+        <v>3.1</v>
       </c>
       <c r="D17" t="n">
-        <v>3.049</v>
+        <v>3.1</v>
       </c>
       <c r="E17" t="n">
-        <v>3.023</v>
+        <v>3.1</v>
       </c>
       <c r="F17" t="n">
-        <v>16817.9014</v>
+        <v>683.3155</v>
       </c>
       <c r="G17" t="n">
-        <v>-5034770.790246951</v>
+        <v>-1070401.5468</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="C18" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="D18" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="E18" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="F18" t="n">
-        <v>1554.412</v>
+        <v>3502.2685</v>
       </c>
       <c r="G18" t="n">
-        <v>-5033216.378246952</v>
+        <v>-1070401.5468</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.023</v>
+        <v>3.1</v>
       </c>
       <c r="C19" t="n">
-        <v>3.023</v>
+        <v>3.1</v>
       </c>
       <c r="D19" t="n">
-        <v>3.023</v>
+        <v>3.1</v>
       </c>
       <c r="E19" t="n">
-        <v>3.023</v>
+        <v>3.1</v>
       </c>
       <c r="F19" t="n">
-        <v>510</v>
+        <v>1538.3171</v>
       </c>
       <c r="G19" t="n">
-        <v>-5033726.378246952</v>
+        <v>-1070401.5468</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="C20" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="D20" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="E20" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="F20" t="n">
-        <v>2954.0506</v>
+        <v>2309.4859</v>
       </c>
       <c r="G20" t="n">
-        <v>-5030772.327646952</v>
+        <v>-1070401.5468</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="C21" t="n">
-        <v>3.059</v>
+        <v>3.11</v>
       </c>
       <c r="D21" t="n">
-        <v>3.059</v>
+        <v>3.11</v>
       </c>
       <c r="E21" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="F21" t="n">
-        <v>510</v>
+        <v>422.2442</v>
       </c>
       <c r="G21" t="n">
-        <v>-5030262.327646952</v>
+        <v>-1069979.3026</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.059</v>
+        <v>3.1</v>
       </c>
       <c r="C22" t="n">
-        <v>3.059</v>
+        <v>3.1</v>
       </c>
       <c r="D22" t="n">
-        <v>3.059</v>
+        <v>3.1</v>
       </c>
       <c r="E22" t="n">
-        <v>3.059</v>
+        <v>3.1</v>
       </c>
       <c r="F22" t="n">
-        <v>510</v>
+        <v>71251.4581</v>
       </c>
       <c r="G22" t="n">
-        <v>-5030262.327646952</v>
+        <v>-1141230.7607</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.059</v>
+        <v>3.1</v>
       </c>
       <c r="C23" t="n">
-        <v>3.059</v>
+        <v>3.09</v>
       </c>
       <c r="D23" t="n">
-        <v>3.059</v>
+        <v>3.1</v>
       </c>
       <c r="E23" t="n">
-        <v>3.059</v>
+        <v>3.09</v>
       </c>
       <c r="F23" t="n">
-        <v>689.7662</v>
+        <v>123713.779</v>
       </c>
       <c r="G23" t="n">
-        <v>-5030262.327646952</v>
+        <v>-1264944.5397</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.033</v>
+        <v>3.09</v>
       </c>
       <c r="C24" t="n">
-        <v>3.033</v>
+        <v>3.09</v>
       </c>
       <c r="D24" t="n">
-        <v>3.033</v>
+        <v>3.09</v>
       </c>
       <c r="E24" t="n">
-        <v>3.033</v>
+        <v>3.09</v>
       </c>
       <c r="F24" t="n">
-        <v>13160</v>
+        <v>36503.5293</v>
       </c>
       <c r="G24" t="n">
-        <v>-5043422.327646952</v>
+        <v>-1264944.5397</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.023</v>
+        <v>3.09</v>
       </c>
       <c r="C25" t="n">
-        <v>3.018</v>
+        <v>3.09</v>
       </c>
       <c r="D25" t="n">
-        <v>3.023</v>
+        <v>3.09</v>
       </c>
       <c r="E25" t="n">
-        <v>3.018</v>
+        <v>3.09</v>
       </c>
       <c r="F25" t="n">
-        <v>510</v>
+        <v>883.3869999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>-5043932.327646952</v>
+        <v>-1264944.5397</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.018</v>
+        <v>3.1</v>
       </c>
       <c r="C26" t="n">
-        <v>3.018</v>
+        <v>3.1</v>
       </c>
       <c r="D26" t="n">
-        <v>3.018</v>
+        <v>3.1</v>
       </c>
       <c r="E26" t="n">
-        <v>3.018</v>
+        <v>3.1</v>
       </c>
       <c r="F26" t="n">
-        <v>68379.9826</v>
+        <v>72179.2668</v>
       </c>
       <c r="G26" t="n">
-        <v>-5043932.327646952</v>
+        <v>-1192765.2729</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.013</v>
+        <v>3.1</v>
       </c>
       <c r="C27" t="n">
-        <v>3.013</v>
+        <v>3.1</v>
       </c>
       <c r="D27" t="n">
-        <v>3.013</v>
+        <v>3.1</v>
       </c>
       <c r="E27" t="n">
-        <v>3.013</v>
+        <v>3.1</v>
       </c>
       <c r="F27" t="n">
-        <v>510</v>
+        <v>124298.7332</v>
       </c>
       <c r="G27" t="n">
-        <v>-5044442.327646952</v>
+        <v>-1192765.2729</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.013</v>
+        <v>3.09</v>
       </c>
       <c r="C28" t="n">
-        <v>3.013</v>
+        <v>3.077</v>
       </c>
       <c r="D28" t="n">
-        <v>3.013</v>
+        <v>3.09</v>
       </c>
       <c r="E28" t="n">
-        <v>3.013</v>
+        <v>3.077</v>
       </c>
       <c r="F28" t="n">
-        <v>67288.70080000001</v>
+        <v>164801.6894</v>
       </c>
       <c r="G28" t="n">
-        <v>-5044442.327646952</v>
+        <v>-1357566.9623</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.018</v>
+        <v>3.087</v>
       </c>
       <c r="C29" t="n">
-        <v>3.018</v>
+        <v>3.087</v>
       </c>
       <c r="D29" t="n">
-        <v>3.018</v>
+        <v>3.087</v>
       </c>
       <c r="E29" t="n">
-        <v>3.018</v>
+        <v>3.087</v>
       </c>
       <c r="F29" t="n">
-        <v>510</v>
+        <v>17890</v>
       </c>
       <c r="G29" t="n">
-        <v>-5043932.327646952</v>
+        <v>-1339676.9623</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.012</v>
+        <v>3.077</v>
       </c>
       <c r="C30" t="n">
-        <v>3.012</v>
+        <v>3.077</v>
       </c>
       <c r="D30" t="n">
-        <v>3.012</v>
+        <v>3.077</v>
       </c>
       <c r="E30" t="n">
-        <v>3.012</v>
+        <v>3.077</v>
       </c>
       <c r="F30" t="n">
-        <v>9599.634</v>
+        <v>49656.6763</v>
       </c>
       <c r="G30" t="n">
-        <v>-5053531.961646952</v>
+        <v>-1389333.6386</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.022</v>
+        <v>3.077</v>
       </c>
       <c r="C31" t="n">
-        <v>3.012</v>
+        <v>3.077</v>
       </c>
       <c r="D31" t="n">
-        <v>3.022</v>
+        <v>3.077</v>
       </c>
       <c r="E31" t="n">
-        <v>3.012</v>
+        <v>3.077</v>
       </c>
       <c r="F31" t="n">
-        <v>32825.9252</v>
+        <v>159787.1266</v>
       </c>
       <c r="G31" t="n">
-        <v>-5053531.961646952</v>
+        <v>-1389333.6386</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.02</v>
+        <v>3.077</v>
       </c>
       <c r="C32" t="n">
-        <v>3.013</v>
+        <v>3.077</v>
       </c>
       <c r="D32" t="n">
-        <v>3.02</v>
+        <v>3.077</v>
       </c>
       <c r="E32" t="n">
-        <v>3.013</v>
+        <v>3.077</v>
       </c>
       <c r="F32" t="n">
-        <v>28360.3429</v>
+        <v>39946.7816</v>
       </c>
       <c r="G32" t="n">
-        <v>-5025171.618746952</v>
+        <v>-1389333.6386</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.02</v>
+        <v>3.1</v>
       </c>
       <c r="C33" t="n">
-        <v>3.02</v>
+        <v>3.1</v>
       </c>
       <c r="D33" t="n">
-        <v>3.02</v>
+        <v>3.1</v>
       </c>
       <c r="E33" t="n">
-        <v>3.02</v>
+        <v>3.1</v>
       </c>
       <c r="F33" t="n">
-        <v>510</v>
+        <v>916.2931</v>
       </c>
       <c r="G33" t="n">
-        <v>-5024661.618746952</v>
+        <v>-1388417.3455</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.049</v>
+        <v>3.077</v>
       </c>
       <c r="C34" t="n">
-        <v>3.049</v>
+        <v>3.07</v>
       </c>
       <c r="D34" t="n">
-        <v>3.049</v>
+        <v>3.077</v>
       </c>
       <c r="E34" t="n">
-        <v>3.049</v>
+        <v>3.07</v>
       </c>
       <c r="F34" t="n">
-        <v>200</v>
+        <v>100000</v>
       </c>
       <c r="G34" t="n">
-        <v>-5024461.618746952</v>
+        <v>-1488417.3455</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.049</v>
+        <v>3.07</v>
       </c>
       <c r="C35" t="n">
-        <v>3.049</v>
+        <v>3.07</v>
       </c>
       <c r="D35" t="n">
-        <v>3.049</v>
+        <v>3.07</v>
       </c>
       <c r="E35" t="n">
-        <v>3.049</v>
+        <v>3.07</v>
       </c>
       <c r="F35" t="n">
-        <v>510</v>
+        <v>500000</v>
       </c>
       <c r="G35" t="n">
-        <v>-5024461.618746952</v>
+        <v>-1488417.3455</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.013</v>
+        <v>3.09</v>
       </c>
       <c r="C36" t="n">
-        <v>3.013</v>
+        <v>3.1</v>
       </c>
       <c r="D36" t="n">
-        <v>3.013</v>
+        <v>3.1</v>
       </c>
       <c r="E36" t="n">
-        <v>3.013</v>
+        <v>3.09</v>
       </c>
       <c r="F36" t="n">
-        <v>510</v>
+        <v>56997.2455</v>
       </c>
       <c r="G36" t="n">
-        <v>-5024971.618746952</v>
+        <v>-1431420.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.049</v>
+        <v>3.08</v>
       </c>
       <c r="C37" t="n">
-        <v>3.05</v>
+        <v>3.08</v>
       </c>
       <c r="D37" t="n">
-        <v>3.05</v>
+        <v>3.08</v>
       </c>
       <c r="E37" t="n">
-        <v>3.049</v>
+        <v>3.08</v>
       </c>
       <c r="F37" t="n">
-        <v>12164.3528</v>
+        <v>5082.237</v>
       </c>
       <c r="G37" t="n">
-        <v>-5012807.265946952</v>
+        <v>-1436502.337</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="C38" t="n">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="D38" t="n">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="E38" t="n">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="F38" t="n">
-        <v>4078.5053</v>
+        <v>133627.2868</v>
       </c>
       <c r="G38" t="n">
-        <v>-5012807.265946952</v>
+        <v>-1570129.6238</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="C39" t="n">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="D39" t="n">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="E39" t="n">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="F39" t="n">
-        <v>7623.9535</v>
+        <v>17899.3428</v>
       </c>
       <c r="G39" t="n">
-        <v>-5012807.265946952</v>
+        <v>-1570129.6238</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.049</v>
+        <v>3.067</v>
       </c>
       <c r="C40" t="n">
-        <v>3.049</v>
+        <v>3.064</v>
       </c>
       <c r="D40" t="n">
-        <v>3.049</v>
+        <v>3.067</v>
       </c>
       <c r="E40" t="n">
-        <v>3.049</v>
+        <v>3.064</v>
       </c>
       <c r="F40" t="n">
-        <v>90240</v>
+        <v>184916.0382</v>
       </c>
       <c r="G40" t="n">
-        <v>-5103047.265946952</v>
+        <v>-1755045.662</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.049</v>
+        <v>3.061</v>
       </c>
       <c r="C41" t="n">
-        <v>3.049</v>
+        <v>3.05</v>
       </c>
       <c r="D41" t="n">
-        <v>3.049</v>
+        <v>3.061</v>
       </c>
       <c r="E41" t="n">
-        <v>3.049</v>
+        <v>3.05</v>
       </c>
       <c r="F41" t="n">
-        <v>510</v>
+        <v>862967.5305</v>
       </c>
       <c r="G41" t="n">
-        <v>-5103047.265946952</v>
+        <v>-2618013.1925</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="C42" t="n">
-        <v>3.04</v>
+        <v>3.045</v>
       </c>
       <c r="D42" t="n">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="E42" t="n">
-        <v>3.04</v>
+        <v>3.045</v>
       </c>
       <c r="F42" t="n">
-        <v>70000</v>
+        <v>763150.5575999999</v>
       </c>
       <c r="G42" t="n">
-        <v>-5173047.265946952</v>
+        <v>-3381163.7501</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.039</v>
+        <v>3.044</v>
       </c>
       <c r="C43" t="n">
-        <v>3.039</v>
+        <v>3.041</v>
       </c>
       <c r="D43" t="n">
-        <v>3.039</v>
+        <v>3.044</v>
       </c>
       <c r="E43" t="n">
-        <v>3.039</v>
+        <v>3.041</v>
       </c>
       <c r="F43" t="n">
-        <v>34097.969</v>
+        <v>97849.4357</v>
       </c>
       <c r="G43" t="n">
-        <v>-5207145.234946951</v>
+        <v>-3479013.1858</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.037</v>
+        <v>3.041</v>
       </c>
       <c r="C44" t="n">
-        <v>3.037</v>
+        <v>3.041</v>
       </c>
       <c r="D44" t="n">
-        <v>3.037</v>
+        <v>3.041</v>
       </c>
       <c r="E44" t="n">
-        <v>3.037</v>
+        <v>3.041</v>
       </c>
       <c r="F44" t="n">
-        <v>585</v>
+        <v>280377.6365</v>
       </c>
       <c r="G44" t="n">
-        <v>-5207730.234946951</v>
+        <v>-3479013.1858</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3.04</v>
+        <v>3.042</v>
       </c>
       <c r="C45" t="n">
-        <v>3.04</v>
+        <v>3.042</v>
       </c>
       <c r="D45" t="n">
-        <v>3.04</v>
+        <v>3.042</v>
       </c>
       <c r="E45" t="n">
-        <v>3.04</v>
+        <v>3.042</v>
       </c>
       <c r="F45" t="n">
-        <v>544</v>
+        <v>203924.6599</v>
       </c>
       <c r="G45" t="n">
-        <v>-5207186.234946951</v>
+        <v>-3275088.5259</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.035</v>
+        <v>3.041</v>
       </c>
       <c r="C46" t="n">
-        <v>3.035</v>
+        <v>3.041</v>
       </c>
       <c r="D46" t="n">
-        <v>3.035</v>
+        <v>3.041</v>
       </c>
       <c r="E46" t="n">
-        <v>3.035</v>
+        <v>3.041</v>
       </c>
       <c r="F46" t="n">
-        <v>608</v>
+        <v>127774.6103</v>
       </c>
       <c r="G46" t="n">
-        <v>-5207794.234946951</v>
+        <v>-3402863.1362</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.035</v>
+        <v>3.04</v>
       </c>
       <c r="C47" t="n">
-        <v>3.035</v>
+        <v>3.04</v>
       </c>
       <c r="D47" t="n">
-        <v>3.035</v>
+        <v>3.04</v>
       </c>
       <c r="E47" t="n">
-        <v>3.035</v>
+        <v>3.04</v>
       </c>
       <c r="F47" t="n">
-        <v>663</v>
+        <v>7325.7754</v>
       </c>
       <c r="G47" t="n">
-        <v>-5207794.234946951</v>
+        <v>-3410188.9116</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.035</v>
+        <v>3.036</v>
       </c>
       <c r="C48" t="n">
-        <v>3.035</v>
+        <v>3.036</v>
       </c>
       <c r="D48" t="n">
-        <v>3.035</v>
+        <v>3.036</v>
       </c>
       <c r="E48" t="n">
-        <v>3.035</v>
+        <v>3.036</v>
       </c>
       <c r="F48" t="n">
-        <v>556</v>
+        <v>179634.7963</v>
       </c>
       <c r="G48" t="n">
-        <v>-5207794.234946951</v>
+        <v>-3589823.7079</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2133,19 +2133,19 @@
         <v>3.035</v>
       </c>
       <c r="C49" t="n">
+        <v>3.034</v>
+      </c>
+      <c r="D49" t="n">
         <v>3.035</v>
       </c>
-      <c r="D49" t="n">
-        <v>3.059</v>
-      </c>
       <c r="E49" t="n">
-        <v>3.035</v>
+        <v>3.034</v>
       </c>
       <c r="F49" t="n">
-        <v>17910.06</v>
+        <v>135661.4937</v>
       </c>
       <c r="G49" t="n">
-        <v>-5207794.234946951</v>
+        <v>-3725485.2016</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.05</v>
+        <v>3.034</v>
       </c>
       <c r="C50" t="n">
-        <v>3.05</v>
+        <v>3.034</v>
       </c>
       <c r="D50" t="n">
-        <v>3.05</v>
+        <v>3.034</v>
       </c>
       <c r="E50" t="n">
-        <v>3.05</v>
+        <v>3.034</v>
       </c>
       <c r="F50" t="n">
-        <v>200</v>
+        <v>22926.3403</v>
       </c>
       <c r="G50" t="n">
-        <v>-5207594.234946951</v>
+        <v>-3725485.2016</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.035</v>
+        <v>3.034</v>
       </c>
       <c r="C51" t="n">
-        <v>3.035</v>
+        <v>3.041</v>
       </c>
       <c r="D51" t="n">
-        <v>3.035</v>
+        <v>3.041</v>
       </c>
       <c r="E51" t="n">
-        <v>3.035</v>
+        <v>3.034</v>
       </c>
       <c r="F51" t="n">
-        <v>15000</v>
+        <v>361437.6209</v>
       </c>
       <c r="G51" t="n">
-        <v>-5222594.234946951</v>
+        <v>-3364047.5807</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2241,19 +2241,19 @@
         <v>3.05</v>
       </c>
       <c r="C52" t="n">
-        <v>3.035</v>
+        <v>3.05</v>
       </c>
       <c r="D52" t="n">
         <v>3.05</v>
       </c>
       <c r="E52" t="n">
-        <v>3.035</v>
+        <v>3.05</v>
       </c>
       <c r="F52" t="n">
-        <v>1169</v>
+        <v>7239.4253</v>
       </c>
       <c r="G52" t="n">
-        <v>-5222594.234946951</v>
+        <v>-3356808.1554</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.035</v>
+        <v>3.068</v>
       </c>
       <c r="C53" t="n">
-        <v>3.035</v>
+        <v>3.068</v>
       </c>
       <c r="D53" t="n">
-        <v>3.035</v>
+        <v>3.068</v>
       </c>
       <c r="E53" t="n">
-        <v>3.035</v>
+        <v>3.068</v>
       </c>
       <c r="F53" t="n">
-        <v>544</v>
+        <v>7171.2895</v>
       </c>
       <c r="G53" t="n">
-        <v>-5222594.234946951</v>
+        <v>-3349636.8659</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.035</v>
+        <v>3.07</v>
       </c>
       <c r="C54" t="n">
-        <v>3.035</v>
+        <v>3.11</v>
       </c>
       <c r="D54" t="n">
-        <v>3.035</v>
+        <v>3.11</v>
       </c>
       <c r="E54" t="n">
-        <v>3.035</v>
+        <v>3.07</v>
       </c>
       <c r="F54" t="n">
-        <v>656</v>
+        <v>178474.6503</v>
       </c>
       <c r="G54" t="n">
-        <v>-5222594.234946951</v>
+        <v>-3171162.2156</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3.035</v>
+        <v>3.11</v>
       </c>
       <c r="C55" t="n">
-        <v>3.035</v>
+        <v>3.11</v>
       </c>
       <c r="D55" t="n">
-        <v>3.035</v>
+        <v>3.11</v>
       </c>
       <c r="E55" t="n">
-        <v>3.035</v>
+        <v>3.11</v>
       </c>
       <c r="F55" t="n">
-        <v>642</v>
+        <v>16793.8107</v>
       </c>
       <c r="G55" t="n">
-        <v>-5222594.234946951</v>
+        <v>-3171162.2156</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3.035</v>
+        <v>3.11</v>
       </c>
       <c r="C56" t="n">
-        <v>3.035</v>
+        <v>3.109</v>
       </c>
       <c r="D56" t="n">
-        <v>3.035</v>
+        <v>3.11</v>
       </c>
       <c r="E56" t="n">
-        <v>3.035</v>
+        <v>3.109</v>
       </c>
       <c r="F56" t="n">
-        <v>613</v>
+        <v>63498.5721</v>
       </c>
       <c r="G56" t="n">
-        <v>-5222594.234946951</v>
+        <v>-3234660.7877</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.035</v>
+        <v>3.125</v>
       </c>
       <c r="C57" t="n">
-        <v>3.035</v>
+        <v>3.125</v>
       </c>
       <c r="D57" t="n">
-        <v>3.035</v>
+        <v>3.125</v>
       </c>
       <c r="E57" t="n">
-        <v>3.035</v>
+        <v>3.125</v>
       </c>
       <c r="F57" t="n">
-        <v>6253.69</v>
+        <v>200</v>
       </c>
       <c r="G57" t="n">
-        <v>-5222594.234946951</v>
+        <v>-3234460.7877</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3.04</v>
+        <v>3.099</v>
       </c>
       <c r="C58" t="n">
-        <v>3.035</v>
+        <v>3.099</v>
       </c>
       <c r="D58" t="n">
-        <v>3.04</v>
+        <v>3.099</v>
       </c>
       <c r="E58" t="n">
-        <v>3.035</v>
+        <v>3.099</v>
       </c>
       <c r="F58" t="n">
-        <v>50397.0974</v>
+        <v>144104.5203</v>
       </c>
       <c r="G58" t="n">
-        <v>-5222594.234946951</v>
+        <v>-3378565.308</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3.026</v>
+        <v>3.115</v>
       </c>
       <c r="C59" t="n">
-        <v>3.026</v>
+        <v>3.115</v>
       </c>
       <c r="D59" t="n">
-        <v>3.026</v>
+        <v>3.115</v>
       </c>
       <c r="E59" t="n">
-        <v>3.026</v>
+        <v>3.115</v>
       </c>
       <c r="F59" t="n">
-        <v>609</v>
+        <v>1036.9133</v>
       </c>
       <c r="G59" t="n">
-        <v>-5223203.234946951</v>
+        <v>-3377528.3947</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3.026</v>
+        <v>3.1</v>
       </c>
       <c r="C60" t="n">
-        <v>3.026</v>
+        <v>3.115</v>
       </c>
       <c r="D60" t="n">
-        <v>3.026</v>
+        <v>3.115</v>
       </c>
       <c r="E60" t="n">
-        <v>3.026</v>
+        <v>3.1</v>
       </c>
       <c r="F60" t="n">
-        <v>625</v>
+        <v>9451.483899999999</v>
       </c>
       <c r="G60" t="n">
-        <v>-5223203.234946951</v>
+        <v>-3377528.3947</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3.026</v>
+        <v>3.085</v>
       </c>
       <c r="C61" t="n">
-        <v>3.026</v>
+        <v>3.085</v>
       </c>
       <c r="D61" t="n">
-        <v>3.026</v>
+        <v>3.085</v>
       </c>
       <c r="E61" t="n">
-        <v>3.026</v>
+        <v>3.085</v>
       </c>
       <c r="F61" t="n">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="G61" t="n">
-        <v>-5223203.234946951</v>
+        <v>-3378038.3947</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3.026</v>
+        <v>3.085</v>
       </c>
       <c r="C62" t="n">
-        <v>3.026</v>
+        <v>3.085</v>
       </c>
       <c r="D62" t="n">
-        <v>3.026</v>
+        <v>3.085</v>
       </c>
       <c r="E62" t="n">
-        <v>3.026</v>
+        <v>3.085</v>
       </c>
       <c r="F62" t="n">
-        <v>659</v>
+        <v>10093.8078</v>
       </c>
       <c r="G62" t="n">
-        <v>-5223203.234946951</v>
+        <v>-3378038.3947</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3.026</v>
+        <v>3.085</v>
       </c>
       <c r="C63" t="n">
-        <v>3.026</v>
+        <v>3.085</v>
       </c>
       <c r="D63" t="n">
-        <v>3.026</v>
+        <v>3.085</v>
       </c>
       <c r="E63" t="n">
-        <v>3.026</v>
+        <v>3.085</v>
       </c>
       <c r="F63" t="n">
-        <v>609</v>
+        <v>16149.2217</v>
       </c>
       <c r="G63" t="n">
-        <v>-5223203.234946951</v>
+        <v>-3378038.3947</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.026</v>
+        <v>3.08</v>
       </c>
       <c r="C64" t="n">
-        <v>3.026</v>
+        <v>3.08</v>
       </c>
       <c r="D64" t="n">
-        <v>3.026</v>
+        <v>3.08</v>
       </c>
       <c r="E64" t="n">
-        <v>3.026</v>
+        <v>3.08</v>
       </c>
       <c r="F64" t="n">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="G64" t="n">
-        <v>-5223203.234946951</v>
+        <v>-3378548.3947</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.026</v>
+        <v>3.08</v>
       </c>
       <c r="C65" t="n">
-        <v>3.026</v>
+        <v>3.08</v>
       </c>
       <c r="D65" t="n">
-        <v>3.026</v>
+        <v>3.08</v>
       </c>
       <c r="E65" t="n">
-        <v>3.026</v>
+        <v>3.08</v>
       </c>
       <c r="F65" t="n">
-        <v>567</v>
+        <v>3973.407</v>
       </c>
       <c r="G65" t="n">
-        <v>-5223203.234946951</v>
+        <v>-3378548.3947</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3.026</v>
+        <v>3.08</v>
       </c>
       <c r="C66" t="n">
-        <v>3.026</v>
+        <v>3.084</v>
       </c>
       <c r="D66" t="n">
-        <v>3.026</v>
+        <v>3.084</v>
       </c>
       <c r="E66" t="n">
-        <v>3.026</v>
+        <v>3.08</v>
       </c>
       <c r="F66" t="n">
-        <v>619</v>
+        <v>77943.4633</v>
       </c>
       <c r="G66" t="n">
-        <v>-5223203.234946951</v>
+        <v>-3300604.9314</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3.028</v>
+        <v>3.07</v>
       </c>
       <c r="C67" t="n">
-        <v>3.028</v>
+        <v>3.07</v>
       </c>
       <c r="D67" t="n">
-        <v>3.028</v>
+        <v>3.07</v>
       </c>
       <c r="E67" t="n">
-        <v>3.028</v>
+        <v>3.07</v>
       </c>
       <c r="F67" t="n">
-        <v>649</v>
+        <v>833.6825</v>
       </c>
       <c r="G67" t="n">
-        <v>-5222554.234946951</v>
+        <v>-3301438.6139</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3.028</v>
+        <v>3.084</v>
       </c>
       <c r="C68" t="n">
-        <v>3.028</v>
+        <v>3.084</v>
       </c>
       <c r="D68" t="n">
-        <v>3.028</v>
+        <v>3.084</v>
       </c>
       <c r="E68" t="n">
-        <v>3.028</v>
+        <v>3.084</v>
       </c>
       <c r="F68" t="n">
-        <v>1647</v>
+        <v>510</v>
       </c>
       <c r="G68" t="n">
-        <v>-5222554.234946951</v>
+        <v>-3300928.6139</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3.028</v>
+        <v>3.084</v>
       </c>
       <c r="C69" t="n">
-        <v>3.028</v>
+        <v>3.084</v>
       </c>
       <c r="D69" t="n">
-        <v>3.028</v>
+        <v>3.084</v>
       </c>
       <c r="E69" t="n">
-        <v>3.028</v>
+        <v>3.084</v>
       </c>
       <c r="F69" t="n">
-        <v>569</v>
+        <v>267.8453</v>
       </c>
       <c r="G69" t="n">
-        <v>-5222554.234946951</v>
+        <v>-3300928.6139</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.028</v>
+        <v>3.07</v>
       </c>
       <c r="C70" t="n">
-        <v>3.038</v>
+        <v>3.07</v>
       </c>
       <c r="D70" t="n">
-        <v>3.038</v>
+        <v>3.07</v>
       </c>
       <c r="E70" t="n">
-        <v>3.028</v>
+        <v>3.07</v>
       </c>
       <c r="F70" t="n">
-        <v>27536.2123</v>
+        <v>8799</v>
       </c>
       <c r="G70" t="n">
-        <v>-5195018.022646951</v>
+        <v>-3309727.6139</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,35 +2922,31 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3.038</v>
+        <v>3.084</v>
       </c>
       <c r="C71" t="n">
-        <v>3.038</v>
+        <v>3.084</v>
       </c>
       <c r="D71" t="n">
-        <v>3.038</v>
+        <v>3.084</v>
       </c>
       <c r="E71" t="n">
-        <v>3.038</v>
+        <v>3.084</v>
       </c>
       <c r="F71" t="n">
-        <v>559</v>
+        <v>3242.54215304799</v>
       </c>
       <c r="G71" t="n">
-        <v>-5195018.022646951</v>
+        <v>-3306485.071746952</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="K71" t="n">
-        <v>3.038</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
@@ -2962,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.037</v>
+        <v>3.07</v>
       </c>
       <c r="C72" t="n">
-        <v>3.035</v>
+        <v>3.065</v>
       </c>
       <c r="D72" t="n">
-        <v>3.037</v>
+        <v>3.07</v>
       </c>
       <c r="E72" t="n">
-        <v>3.035</v>
+        <v>3.065</v>
       </c>
       <c r="F72" t="n">
-        <v>53976.0498</v>
+        <v>162244.8074</v>
       </c>
       <c r="G72" t="n">
-        <v>-5248994.072446952</v>
+        <v>-3468729.879146952</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2986,14 +2982,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3004,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3.035</v>
+        <v>3.065</v>
       </c>
       <c r="C73" t="n">
-        <v>3.035</v>
+        <v>3.07</v>
       </c>
       <c r="D73" t="n">
-        <v>3.035</v>
+        <v>3.07</v>
       </c>
       <c r="E73" t="n">
-        <v>3.035</v>
+        <v>3.065</v>
       </c>
       <c r="F73" t="n">
-        <v>608</v>
+        <v>1245.3287</v>
       </c>
       <c r="G73" t="n">
-        <v>-5248994.072446952</v>
+        <v>-3467484.550446952</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3028,14 +3018,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3046,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3.035</v>
+        <v>3.065</v>
       </c>
       <c r="C74" t="n">
-        <v>3.035</v>
+        <v>3.065</v>
       </c>
       <c r="D74" t="n">
-        <v>3.035</v>
+        <v>3.065</v>
       </c>
       <c r="E74" t="n">
-        <v>3.035</v>
+        <v>3.065</v>
       </c>
       <c r="F74" t="n">
-        <v>593</v>
+        <v>2545.6583</v>
       </c>
       <c r="G74" t="n">
-        <v>-5248994.072446952</v>
+        <v>-3470030.208746952</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3070,14 +3054,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3088,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3.065</v>
+        <v>3.06</v>
       </c>
       <c r="C75" t="n">
-        <v>3.035</v>
+        <v>3.06</v>
       </c>
       <c r="D75" t="n">
-        <v>3.065</v>
+        <v>3.06</v>
       </c>
       <c r="E75" t="n">
-        <v>3.035</v>
+        <v>3.06</v>
       </c>
       <c r="F75" t="n">
-        <v>1118</v>
+        <v>3000</v>
       </c>
       <c r="G75" t="n">
-        <v>-5248994.072446952</v>
+        <v>-3473030.208746952</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3112,14 +3090,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3130,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3.035</v>
+        <v>3.059</v>
       </c>
       <c r="C76" t="n">
-        <v>3.035</v>
+        <v>3.059</v>
       </c>
       <c r="D76" t="n">
-        <v>3.035</v>
+        <v>3.059</v>
       </c>
       <c r="E76" t="n">
-        <v>3.035</v>
+        <v>3.059</v>
       </c>
       <c r="F76" t="n">
-        <v>78380.09450000001</v>
+        <v>10075.4698</v>
       </c>
       <c r="G76" t="n">
-        <v>-5248994.072446952</v>
+        <v>-3483105.678546952</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3154,14 +3126,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3172,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3.035</v>
+        <v>3.05</v>
       </c>
       <c r="C77" t="n">
-        <v>3.035</v>
+        <v>3.047</v>
       </c>
       <c r="D77" t="n">
-        <v>3.035</v>
+        <v>3.05</v>
       </c>
       <c r="E77" t="n">
-        <v>3.035</v>
+        <v>3.047</v>
       </c>
       <c r="F77" t="n">
-        <v>448.667</v>
+        <v>166390.7342</v>
       </c>
       <c r="G77" t="n">
-        <v>-5248994.072446952</v>
+        <v>-3649496.412746952</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3196,14 +3162,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3214,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3.035</v>
+        <v>3.047</v>
       </c>
       <c r="C78" t="n">
-        <v>3.035</v>
+        <v>3.047</v>
       </c>
       <c r="D78" t="n">
-        <v>3.035</v>
+        <v>3.047</v>
       </c>
       <c r="E78" t="n">
-        <v>3.035</v>
+        <v>3.047</v>
       </c>
       <c r="F78" t="n">
-        <v>625</v>
+        <v>1639878.443</v>
       </c>
       <c r="G78" t="n">
-        <v>-5248994.072446952</v>
+        <v>-3649496.412746952</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3238,14 +3198,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3256,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3.035</v>
+        <v>3.059</v>
       </c>
       <c r="C79" t="n">
-        <v>3.035</v>
+        <v>3.059</v>
       </c>
       <c r="D79" t="n">
-        <v>3.035</v>
+        <v>3.059</v>
       </c>
       <c r="E79" t="n">
-        <v>3.035</v>
+        <v>3.059</v>
       </c>
       <c r="F79" t="n">
-        <v>621</v>
+        <v>522.4858</v>
       </c>
       <c r="G79" t="n">
-        <v>-5248994.072446952</v>
+        <v>-3648973.926946952</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3280,14 +3234,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3298,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.065</v>
+        <v>3.044</v>
       </c>
       <c r="C80" t="n">
-        <v>3.045</v>
+        <v>3.044</v>
       </c>
       <c r="D80" t="n">
-        <v>3.082</v>
+        <v>3.044</v>
       </c>
       <c r="E80" t="n">
-        <v>3.045</v>
+        <v>3.044</v>
       </c>
       <c r="F80" t="n">
-        <v>55216.1021843608</v>
+        <v>42751.5545</v>
       </c>
       <c r="G80" t="n">
-        <v>-5193777.970262591</v>
+        <v>-3691725.481446952</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3322,14 +3270,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3340,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.045</v>
+        <v>3.044</v>
       </c>
       <c r="C81" t="n">
-        <v>3.045</v>
+        <v>3.044</v>
       </c>
       <c r="D81" t="n">
-        <v>3.045</v>
+        <v>3.044</v>
       </c>
       <c r="E81" t="n">
-        <v>3.045</v>
+        <v>3.044</v>
       </c>
       <c r="F81" t="n">
-        <v>587</v>
+        <v>1278.4455</v>
       </c>
       <c r="G81" t="n">
-        <v>-5193777.970262591</v>
+        <v>-3691725.481446952</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3364,14 +3306,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3382,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3.045</v>
+        <v>3.043</v>
       </c>
       <c r="C82" t="n">
-        <v>3.045</v>
+        <v>3.016</v>
       </c>
       <c r="D82" t="n">
-        <v>3.045</v>
+        <v>3.043</v>
       </c>
       <c r="E82" t="n">
-        <v>3.045</v>
+        <v>3.012</v>
       </c>
       <c r="F82" t="n">
-        <v>640</v>
+        <v>1244976.5197</v>
       </c>
       <c r="G82" t="n">
-        <v>-5193777.970262591</v>
+        <v>-4936702.001146952</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3406,14 +3342,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3424,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3.045</v>
+        <v>3.016</v>
       </c>
       <c r="C83" t="n">
-        <v>3.045</v>
+        <v>3.016</v>
       </c>
       <c r="D83" t="n">
-        <v>3.045</v>
+        <v>3.016</v>
       </c>
       <c r="E83" t="n">
-        <v>3.045</v>
+        <v>3.016</v>
       </c>
       <c r="F83" t="n">
-        <v>520</v>
+        <v>67531.5772</v>
       </c>
       <c r="G83" t="n">
-        <v>-5193777.970262591</v>
+        <v>-4936702.001146952</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3448,14 +3378,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3466,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3.045</v>
+        <v>3.049</v>
       </c>
       <c r="C84" t="n">
-        <v>3.037</v>
+        <v>3.049</v>
       </c>
       <c r="D84" t="n">
-        <v>3.045</v>
+        <v>3.049</v>
       </c>
       <c r="E84" t="n">
-        <v>3.037</v>
+        <v>3.049</v>
       </c>
       <c r="F84" t="n">
-        <v>12113</v>
+        <v>8244.546200000001</v>
       </c>
       <c r="G84" t="n">
-        <v>-5205890.970262591</v>
+        <v>-4928457.454946952</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3490,14 +3414,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3508,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>3.037</v>
+        <v>3.049</v>
       </c>
       <c r="C85" t="n">
-        <v>3.037</v>
+        <v>3.049</v>
       </c>
       <c r="D85" t="n">
-        <v>3.037</v>
+        <v>3.049</v>
       </c>
       <c r="E85" t="n">
-        <v>3.037</v>
+        <v>3.049</v>
       </c>
       <c r="F85" t="n">
-        <v>586</v>
+        <v>15666.7743</v>
       </c>
       <c r="G85" t="n">
-        <v>-5205890.970262591</v>
+        <v>-4928457.454946952</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3532,14 +3450,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3550,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3.037</v>
+        <v>3.023</v>
       </c>
       <c r="C86" t="n">
-        <v>3.037</v>
+        <v>3.012</v>
       </c>
       <c r="D86" t="n">
-        <v>3.037</v>
+        <v>3.023</v>
       </c>
       <c r="E86" t="n">
-        <v>3.037</v>
+        <v>3.012</v>
       </c>
       <c r="F86" t="n">
-        <v>684</v>
+        <v>100000</v>
       </c>
       <c r="G86" t="n">
-        <v>-5205890.970262591</v>
+        <v>-5028457.454946952</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3574,14 +3486,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3592,7 +3498,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3.047</v>
+        <v>3.049</v>
       </c>
       <c r="C87" t="n">
         <v>3.05</v>
@@ -3601,13 +3507,13 @@
         <v>3.05</v>
       </c>
       <c r="E87" t="n">
-        <v>3.047</v>
+        <v>3.049</v>
       </c>
       <c r="F87" t="n">
-        <v>19869.0328</v>
+        <v>10504.5661</v>
       </c>
       <c r="G87" t="n">
-        <v>-5186021.937462591</v>
+        <v>-5017952.888846952</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3616,14 +3522,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3634,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>3.037</v>
+        <v>3.049</v>
       </c>
       <c r="C88" t="n">
-        <v>3.037</v>
+        <v>3.023</v>
       </c>
       <c r="D88" t="n">
-        <v>3.037</v>
+        <v>3.049</v>
       </c>
       <c r="E88" t="n">
-        <v>3.037</v>
+        <v>3.023</v>
       </c>
       <c r="F88" t="n">
-        <v>532</v>
+        <v>16817.9014</v>
       </c>
       <c r="G88" t="n">
-        <v>-5186553.937462591</v>
+        <v>-5034770.790246951</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3658,14 +3558,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3676,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="C89" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="D89" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="E89" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="F89" t="n">
-        <v>512</v>
+        <v>1554.412</v>
       </c>
       <c r="G89" t="n">
-        <v>-5186553.937462591</v>
+        <v>-5033216.378246952</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3700,14 +3594,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3718,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>3.037</v>
+        <v>3.023</v>
       </c>
       <c r="C90" t="n">
-        <v>3.06</v>
+        <v>3.023</v>
       </c>
       <c r="D90" t="n">
-        <v>3.06</v>
+        <v>3.023</v>
       </c>
       <c r="E90" t="n">
-        <v>3.037</v>
+        <v>3.023</v>
       </c>
       <c r="F90" t="n">
-        <v>860</v>
+        <v>510</v>
       </c>
       <c r="G90" t="n">
-        <v>-5185693.937462591</v>
+        <v>-5033726.378246952</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3742,14 +3630,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3760,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="C91" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="D91" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="E91" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="F91" t="n">
-        <v>665</v>
+        <v>2954.0506</v>
       </c>
       <c r="G91" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5030772.327646952</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3784,14 +3666,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3802,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="C92" t="n">
-        <v>3.037</v>
+        <v>3.059</v>
       </c>
       <c r="D92" t="n">
-        <v>3.037</v>
+        <v>3.059</v>
       </c>
       <c r="E92" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="F92" t="n">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G92" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5030262.327646952</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3826,14 +3702,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3844,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>3.037</v>
+        <v>3.059</v>
       </c>
       <c r="C93" t="n">
-        <v>3.037</v>
+        <v>3.059</v>
       </c>
       <c r="D93" t="n">
-        <v>3.037</v>
+        <v>3.059</v>
       </c>
       <c r="E93" t="n">
-        <v>3.037</v>
+        <v>3.059</v>
       </c>
       <c r="F93" t="n">
-        <v>688</v>
+        <v>510</v>
       </c>
       <c r="G93" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5030262.327646952</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3868,14 +3738,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3886,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>3.037</v>
+        <v>3.059</v>
       </c>
       <c r="C94" t="n">
-        <v>3.037</v>
+        <v>3.059</v>
       </c>
       <c r="D94" t="n">
-        <v>3.037</v>
+        <v>3.059</v>
       </c>
       <c r="E94" t="n">
-        <v>3.037</v>
+        <v>3.059</v>
       </c>
       <c r="F94" t="n">
-        <v>650</v>
+        <v>689.7662</v>
       </c>
       <c r="G94" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5030262.327646952</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3910,14 +3774,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3928,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>3.037</v>
+        <v>3.033</v>
       </c>
       <c r="C95" t="n">
-        <v>3.037</v>
+        <v>3.033</v>
       </c>
       <c r="D95" t="n">
-        <v>3.037</v>
+        <v>3.033</v>
       </c>
       <c r="E95" t="n">
-        <v>3.037</v>
+        <v>3.033</v>
       </c>
       <c r="F95" t="n">
-        <v>688</v>
+        <v>13160</v>
       </c>
       <c r="G95" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5043422.327646952</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3952,14 +3810,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3970,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>3.037</v>
+        <v>3.023</v>
       </c>
       <c r="C96" t="n">
-        <v>3.037</v>
+        <v>3.018</v>
       </c>
       <c r="D96" t="n">
-        <v>3.037</v>
+        <v>3.023</v>
       </c>
       <c r="E96" t="n">
-        <v>3.037</v>
+        <v>3.018</v>
       </c>
       <c r="F96" t="n">
-        <v>560</v>
+        <v>510</v>
       </c>
       <c r="G96" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5043932.327646952</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3994,14 +3846,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4012,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>3.037</v>
+        <v>3.018</v>
       </c>
       <c r="C97" t="n">
-        <v>3.037</v>
+        <v>3.018</v>
       </c>
       <c r="D97" t="n">
-        <v>3.037</v>
+        <v>3.018</v>
       </c>
       <c r="E97" t="n">
-        <v>3.037</v>
+        <v>3.018</v>
       </c>
       <c r="F97" t="n">
-        <v>699</v>
+        <v>68379.9826</v>
       </c>
       <c r="G97" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5043932.327646952</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4036,14 +3882,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4054,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>3.06</v>
+        <v>3.013</v>
       </c>
       <c r="C98" t="n">
-        <v>3.037</v>
+        <v>3.013</v>
       </c>
       <c r="D98" t="n">
-        <v>3.06</v>
+        <v>3.013</v>
       </c>
       <c r="E98" t="n">
-        <v>3.037</v>
+        <v>3.013</v>
       </c>
       <c r="F98" t="n">
-        <v>1066</v>
+        <v>510</v>
       </c>
       <c r="G98" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5044442.327646952</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4078,14 +3918,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4096,38 +3930,36 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3.037</v>
+        <v>3.013</v>
       </c>
       <c r="C99" t="n">
-        <v>3.037</v>
+        <v>3.013</v>
       </c>
       <c r="D99" t="n">
-        <v>3.037</v>
+        <v>3.013</v>
       </c>
       <c r="E99" t="n">
-        <v>3.037</v>
+        <v>3.013</v>
       </c>
       <c r="F99" t="n">
-        <v>505</v>
+        <v>67288.70080000001</v>
       </c>
       <c r="G99" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5044442.327646952</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>3.013</v>
+      </c>
       <c r="K99" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3.013</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4138,36 +3970,38 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3.037</v>
+        <v>3.018</v>
       </c>
       <c r="C100" t="n">
-        <v>3.037</v>
+        <v>3.018</v>
       </c>
       <c r="D100" t="n">
-        <v>3.037</v>
+        <v>3.018</v>
       </c>
       <c r="E100" t="n">
-        <v>3.037</v>
+        <v>3.018</v>
       </c>
       <c r="F100" t="n">
-        <v>599</v>
+        <v>510</v>
       </c>
       <c r="G100" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5043932.327646952</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>3.013</v>
+      </c>
       <c r="K100" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M100" t="n">
@@ -4180,36 +4014,38 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>3.037</v>
+        <v>3.012</v>
       </c>
       <c r="C101" t="n">
-        <v>3.037</v>
+        <v>3.012</v>
       </c>
       <c r="D101" t="n">
-        <v>3.037</v>
+        <v>3.012</v>
       </c>
       <c r="E101" t="n">
-        <v>3.037</v>
+        <v>3.012</v>
       </c>
       <c r="F101" t="n">
-        <v>591</v>
+        <v>9599.634</v>
       </c>
       <c r="G101" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5053531.961646952</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>3.018</v>
+      </c>
       <c r="K101" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M101" t="n">
@@ -4222,36 +4058,38 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>3.037</v>
+        <v>3.022</v>
       </c>
       <c r="C102" t="n">
-        <v>3.037</v>
+        <v>3.012</v>
       </c>
       <c r="D102" t="n">
-        <v>3.037</v>
+        <v>3.022</v>
       </c>
       <c r="E102" t="n">
-        <v>3.037</v>
+        <v>3.012</v>
       </c>
       <c r="F102" t="n">
-        <v>581</v>
+        <v>32825.9252</v>
       </c>
       <c r="G102" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5053531.961646952</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>3.012</v>
+      </c>
       <c r="K102" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M102" t="n">
@@ -4264,32 +4102,34 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>3.037</v>
+        <v>3.02</v>
       </c>
       <c r="C103" t="n">
-        <v>3.037</v>
+        <v>3.013</v>
       </c>
       <c r="D103" t="n">
-        <v>3.037</v>
+        <v>3.02</v>
       </c>
       <c r="E103" t="n">
-        <v>3.037</v>
+        <v>3.013</v>
       </c>
       <c r="F103" t="n">
-        <v>697</v>
+        <v>28360.3429</v>
       </c>
       <c r="G103" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5025171.618746952</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>3.012</v>
+      </c>
       <c r="K103" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4306,32 +4146,34 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>3.037</v>
+        <v>3.02</v>
       </c>
       <c r="C104" t="n">
-        <v>3.037</v>
+        <v>3.02</v>
       </c>
       <c r="D104" t="n">
-        <v>3.037</v>
+        <v>3.02</v>
       </c>
       <c r="E104" t="n">
-        <v>3.037</v>
+        <v>3.02</v>
       </c>
       <c r="F104" t="n">
-        <v>553</v>
+        <v>510</v>
       </c>
       <c r="G104" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5024661.618746952</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>3.013</v>
+      </c>
       <c r="K104" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4348,22 +4190,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>3.037</v>
+        <v>3.049</v>
       </c>
       <c r="C105" t="n">
-        <v>3.037</v>
+        <v>3.049</v>
       </c>
       <c r="D105" t="n">
-        <v>3.037</v>
+        <v>3.049</v>
       </c>
       <c r="E105" t="n">
-        <v>3.037</v>
+        <v>3.049</v>
       </c>
       <c r="F105" t="n">
-        <v>677</v>
+        <v>200</v>
       </c>
       <c r="G105" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5024461.618746952</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4373,7 +4215,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4390,22 +4232,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>3.037</v>
+        <v>3.049</v>
       </c>
       <c r="C106" t="n">
-        <v>3.037</v>
+        <v>3.049</v>
       </c>
       <c r="D106" t="n">
-        <v>3.037</v>
+        <v>3.049</v>
       </c>
       <c r="E106" t="n">
-        <v>3.037</v>
+        <v>3.049</v>
       </c>
       <c r="F106" t="n">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G106" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5024461.618746952</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4415,7 +4257,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4432,22 +4274,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>3.037</v>
+        <v>3.013</v>
       </c>
       <c r="C107" t="n">
-        <v>3.037</v>
+        <v>3.013</v>
       </c>
       <c r="D107" t="n">
-        <v>3.037</v>
+        <v>3.013</v>
       </c>
       <c r="E107" t="n">
-        <v>3.037</v>
+        <v>3.013</v>
       </c>
       <c r="F107" t="n">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G107" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5024971.618746952</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4457,7 +4299,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4474,22 +4316,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>3.037</v>
+        <v>3.049</v>
       </c>
       <c r="C108" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="D108" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="E108" t="n">
-        <v>3.037</v>
+        <v>3.049</v>
       </c>
       <c r="F108" t="n">
-        <v>633</v>
+        <v>12164.3528</v>
       </c>
       <c r="G108" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5012807.265946952</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4499,7 +4341,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4516,22 +4358,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="C109" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="D109" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="E109" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="F109" t="n">
-        <v>524</v>
+        <v>4078.5053</v>
       </c>
       <c r="G109" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5012807.265946952</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4541,7 +4383,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4558,22 +4400,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="C110" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="D110" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="E110" t="n">
-        <v>3.037</v>
+        <v>3.05</v>
       </c>
       <c r="F110" t="n">
-        <v>622</v>
+        <v>7623.9535</v>
       </c>
       <c r="G110" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5012807.265946952</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4583,7 +4425,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4600,22 +4442,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>3.037</v>
+        <v>3.049</v>
       </c>
       <c r="C111" t="n">
-        <v>3.037</v>
+        <v>3.049</v>
       </c>
       <c r="D111" t="n">
-        <v>3.037</v>
+        <v>3.049</v>
       </c>
       <c r="E111" t="n">
-        <v>3.037</v>
+        <v>3.049</v>
       </c>
       <c r="F111" t="n">
-        <v>633</v>
+        <v>90240</v>
       </c>
       <c r="G111" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5103047.265946952</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4625,7 +4467,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4642,22 +4484,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>3.037</v>
+        <v>3.049</v>
       </c>
       <c r="C112" t="n">
-        <v>3.037</v>
+        <v>3.049</v>
       </c>
       <c r="D112" t="n">
-        <v>3.037</v>
+        <v>3.049</v>
       </c>
       <c r="E112" t="n">
-        <v>3.037</v>
+        <v>3.049</v>
       </c>
       <c r="F112" t="n">
-        <v>554</v>
+        <v>510</v>
       </c>
       <c r="G112" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5103047.265946952</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4667,7 +4509,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4684,34 +4526,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>3.037</v>
+        <v>3.04</v>
       </c>
       <c r="C113" t="n">
-        <v>3.037</v>
+        <v>3.04</v>
       </c>
       <c r="D113" t="n">
-        <v>3.037</v>
+        <v>3.04</v>
       </c>
       <c r="E113" t="n">
-        <v>3.037</v>
+        <v>3.04</v>
       </c>
       <c r="F113" t="n">
-        <v>698</v>
+        <v>70000</v>
       </c>
       <c r="G113" t="n">
-        <v>-5186358.937462591</v>
+        <v>-5173047.265946952</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>3.037</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4728,7 +4568,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>3.038</v>
+        <v>3.039</v>
       </c>
       <c r="C114" t="n">
         <v>3.039</v>
@@ -4737,13 +4577,13 @@
         <v>3.039</v>
       </c>
       <c r="E114" t="n">
-        <v>3.038</v>
+        <v>3.039</v>
       </c>
       <c r="F114" t="n">
-        <v>1104</v>
+        <v>34097.969</v>
       </c>
       <c r="G114" t="n">
-        <v>-5185254.937462591</v>
+        <v>-5207145.234946951</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4753,7 +4593,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4770,22 +4610,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>3.039</v>
+        <v>3.037</v>
       </c>
       <c r="C115" t="n">
-        <v>3.039</v>
+        <v>3.037</v>
       </c>
       <c r="D115" t="n">
-        <v>3.039</v>
+        <v>3.037</v>
       </c>
       <c r="E115" t="n">
-        <v>3.039</v>
+        <v>3.037</v>
       </c>
       <c r="F115" t="n">
-        <v>563</v>
+        <v>585</v>
       </c>
       <c r="G115" t="n">
-        <v>-5185254.937462591</v>
+        <v>-5207730.234946951</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4795,7 +4635,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4812,22 +4652,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>3.039</v>
+        <v>3.04</v>
       </c>
       <c r="C116" t="n">
-        <v>3.039</v>
+        <v>3.04</v>
       </c>
       <c r="D116" t="n">
-        <v>3.039</v>
+        <v>3.04</v>
       </c>
       <c r="E116" t="n">
-        <v>3.039</v>
+        <v>3.04</v>
       </c>
       <c r="F116" t="n">
-        <v>637</v>
+        <v>544</v>
       </c>
       <c r="G116" t="n">
-        <v>-5185254.937462591</v>
+        <v>-5207186.234946951</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4837,7 +4677,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4854,22 +4694,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>3.06</v>
+        <v>3.035</v>
       </c>
       <c r="C117" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="D117" t="n">
-        <v>3.06</v>
+        <v>3.035</v>
       </c>
       <c r="E117" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="F117" t="n">
-        <v>1524.3259</v>
+        <v>608</v>
       </c>
       <c r="G117" t="n">
-        <v>-5185254.937462591</v>
+        <v>-5207794.234946951</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4879,7 +4719,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4896,22 +4736,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="C118" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="D118" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="E118" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="F118" t="n">
-        <v>613</v>
+        <v>663</v>
       </c>
       <c r="G118" t="n">
-        <v>-5185254.937462591</v>
+        <v>-5207794.234946951</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4921,7 +4761,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4938,34 +4778,32 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="C119" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="D119" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="E119" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="F119" t="n">
-        <v>610</v>
+        <v>556</v>
       </c>
       <c r="G119" t="n">
-        <v>-5185254.937462591</v>
+        <v>-5207794.234946951</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>3.039</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -4982,34 +4820,32 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="C120" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="D120" t="n">
-        <v>3.039</v>
+        <v>3.059</v>
       </c>
       <c r="E120" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="F120" t="n">
-        <v>569</v>
+        <v>17910.06</v>
       </c>
       <c r="G120" t="n">
-        <v>-5185254.937462591</v>
+        <v>-5207794.234946951</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>3.039</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5026,34 +4862,32 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>3.039</v>
+        <v>3.05</v>
       </c>
       <c r="C121" t="n">
-        <v>3.039</v>
+        <v>3.05</v>
       </c>
       <c r="D121" t="n">
-        <v>3.039</v>
+        <v>3.05</v>
       </c>
       <c r="E121" t="n">
-        <v>3.039</v>
+        <v>3.05</v>
       </c>
       <c r="F121" t="n">
-        <v>551</v>
+        <v>200</v>
       </c>
       <c r="G121" t="n">
-        <v>-5185254.937462591</v>
+        <v>-5207594.234946951</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>3.039</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5070,34 +4904,32 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="C122" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="D122" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="E122" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="F122" t="n">
-        <v>588</v>
+        <v>15000</v>
       </c>
       <c r="G122" t="n">
-        <v>-5185254.937462591</v>
+        <v>-5222594.234946951</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>3.039</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5114,34 +4946,32 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>3.039</v>
+        <v>3.05</v>
       </c>
       <c r="C123" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="D123" t="n">
-        <v>3.039</v>
+        <v>3.05</v>
       </c>
       <c r="E123" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="F123" t="n">
-        <v>533</v>
+        <v>1169</v>
       </c>
       <c r="G123" t="n">
-        <v>-5185254.937462591</v>
+        <v>-5222594.234946951</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>3.039</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5158,34 +4988,32 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="C124" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="D124" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="E124" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="F124" t="n">
-        <v>643</v>
+        <v>544</v>
       </c>
       <c r="G124" t="n">
-        <v>-5185254.937462591</v>
+        <v>-5222594.234946951</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>3.039</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5202,34 +5030,32 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="C125" t="n">
-        <v>3.06</v>
+        <v>3.035</v>
       </c>
       <c r="D125" t="n">
-        <v>3.06</v>
+        <v>3.035</v>
       </c>
       <c r="E125" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="F125" t="n">
-        <v>1150</v>
+        <v>656</v>
       </c>
       <c r="G125" t="n">
-        <v>-5184104.937462591</v>
+        <v>-5222594.234946951</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>3.039</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5246,34 +5072,32 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="C126" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="D126" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="E126" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="F126" t="n">
-        <v>519</v>
+        <v>642</v>
       </c>
       <c r="G126" t="n">
-        <v>-5184623.937462591</v>
+        <v>-5222594.234946951</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>3.06</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5290,22 +5114,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="C127" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="D127" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="E127" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="F127" t="n">
         <v>613</v>
       </c>
       <c r="G127" t="n">
-        <v>-5184623.937462591</v>
+        <v>-5222594.234946951</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5315,7 +5139,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5332,22 +5156,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="C128" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="D128" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="E128" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="F128" t="n">
-        <v>582</v>
+        <v>6253.69</v>
       </c>
       <c r="G128" t="n">
-        <v>-5184623.937462591</v>
+        <v>-5222594.234946951</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5357,7 +5181,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5374,22 +5198,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.039</v>
+        <v>3.04</v>
       </c>
       <c r="C129" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="D129" t="n">
-        <v>3.039</v>
+        <v>3.04</v>
       </c>
       <c r="E129" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="F129" t="n">
-        <v>690</v>
+        <v>50397.0974</v>
       </c>
       <c r="G129" t="n">
-        <v>-5184623.937462591</v>
+        <v>-5222594.234946951</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5399,7 +5223,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5416,22 +5240,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3.039</v>
+        <v>3.026</v>
       </c>
       <c r="C130" t="n">
-        <v>3.039</v>
+        <v>3.026</v>
       </c>
       <c r="D130" t="n">
-        <v>3.039</v>
+        <v>3.026</v>
       </c>
       <c r="E130" t="n">
-        <v>3.039</v>
+        <v>3.026</v>
       </c>
       <c r="F130" t="n">
-        <v>696</v>
+        <v>609</v>
       </c>
       <c r="G130" t="n">
-        <v>-5184623.937462591</v>
+        <v>-5223203.234946951</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5441,7 +5265,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5458,22 +5282,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3.06</v>
+        <v>3.026</v>
       </c>
       <c r="C131" t="n">
-        <v>3.06</v>
+        <v>3.026</v>
       </c>
       <c r="D131" t="n">
-        <v>3.06</v>
+        <v>3.026</v>
       </c>
       <c r="E131" t="n">
-        <v>3.06</v>
+        <v>3.026</v>
       </c>
       <c r="F131" t="n">
-        <v>510</v>
+        <v>625</v>
       </c>
       <c r="G131" t="n">
-        <v>-5184113.937462591</v>
+        <v>-5223203.234946951</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5483,7 +5307,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5500,22 +5324,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3.039</v>
+        <v>3.026</v>
       </c>
       <c r="C132" t="n">
-        <v>3.039</v>
+        <v>3.026</v>
       </c>
       <c r="D132" t="n">
-        <v>3.039</v>
+        <v>3.026</v>
       </c>
       <c r="E132" t="n">
-        <v>3.039</v>
+        <v>3.026</v>
       </c>
       <c r="F132" t="n">
-        <v>648</v>
+        <v>519</v>
       </c>
       <c r="G132" t="n">
-        <v>-5184761.937462591</v>
+        <v>-5223203.234946951</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5525,7 +5349,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5542,22 +5366,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3.039</v>
+        <v>3.026</v>
       </c>
       <c r="C133" t="n">
-        <v>3.039</v>
+        <v>3.026</v>
       </c>
       <c r="D133" t="n">
-        <v>3.039</v>
+        <v>3.026</v>
       </c>
       <c r="E133" t="n">
-        <v>3.039</v>
+        <v>3.026</v>
       </c>
       <c r="F133" t="n">
-        <v>12781.8271</v>
+        <v>659</v>
       </c>
       <c r="G133" t="n">
-        <v>-5184761.937462591</v>
+        <v>-5223203.234946951</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5567,7 +5391,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5584,22 +5408,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3.039</v>
+        <v>3.026</v>
       </c>
       <c r="C134" t="n">
-        <v>3.039</v>
+        <v>3.026</v>
       </c>
       <c r="D134" t="n">
-        <v>3.039</v>
+        <v>3.026</v>
       </c>
       <c r="E134" t="n">
-        <v>3.039</v>
+        <v>3.026</v>
       </c>
       <c r="F134" t="n">
-        <v>115288.2981</v>
+        <v>609</v>
       </c>
       <c r="G134" t="n">
-        <v>-5184761.937462591</v>
+        <v>-5223203.234946951</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5609,7 +5433,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5626,32 +5450,34 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3.06</v>
+        <v>3.026</v>
       </c>
       <c r="C135" t="n">
-        <v>3.06</v>
+        <v>3.026</v>
       </c>
       <c r="D135" t="n">
-        <v>3.06</v>
+        <v>3.026</v>
       </c>
       <c r="E135" t="n">
-        <v>3.06</v>
+        <v>3.026</v>
       </c>
       <c r="F135" t="n">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="G135" t="n">
-        <v>-5184251.937462591</v>
+        <v>-5223203.234946951</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>3.026</v>
+      </c>
       <c r="K135" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5668,32 +5494,34 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3.06</v>
+        <v>3.026</v>
       </c>
       <c r="C136" t="n">
-        <v>3.06</v>
+        <v>3.026</v>
       </c>
       <c r="D136" t="n">
-        <v>3.06</v>
+        <v>3.026</v>
       </c>
       <c r="E136" t="n">
-        <v>3.06</v>
+        <v>3.026</v>
       </c>
       <c r="F136" t="n">
-        <v>2578.7069</v>
+        <v>567</v>
       </c>
       <c r="G136" t="n">
-        <v>-5184251.937462591</v>
+        <v>-5223203.234946951</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>3.026</v>
+      </c>
       <c r="K136" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5710,32 +5538,34 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3.072</v>
+        <v>3.026</v>
       </c>
       <c r="C137" t="n">
-        <v>3.072</v>
+        <v>3.026</v>
       </c>
       <c r="D137" t="n">
-        <v>3.072</v>
+        <v>3.026</v>
       </c>
       <c r="E137" t="n">
-        <v>3.072</v>
+        <v>3.026</v>
       </c>
       <c r="F137" t="n">
-        <v>7080.6345</v>
+        <v>619</v>
       </c>
       <c r="G137" t="n">
-        <v>-5177171.302962591</v>
+        <v>-5223203.234946951</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>3.026</v>
+      </c>
       <c r="K137" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5752,22 +5582,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3.06</v>
+        <v>3.028</v>
       </c>
       <c r="C138" t="n">
-        <v>3.06</v>
+        <v>3.028</v>
       </c>
       <c r="D138" t="n">
-        <v>3.06</v>
+        <v>3.028</v>
       </c>
       <c r="E138" t="n">
-        <v>3.06</v>
+        <v>3.028</v>
       </c>
       <c r="F138" t="n">
-        <v>13218.1398</v>
+        <v>649</v>
       </c>
       <c r="G138" t="n">
-        <v>-5190389.442762591</v>
+        <v>-5222554.234946951</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5777,7 +5607,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5794,32 +5624,34 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>3.06</v>
+        <v>3.028</v>
       </c>
       <c r="C139" t="n">
-        <v>3.06</v>
+        <v>3.028</v>
       </c>
       <c r="D139" t="n">
-        <v>3.06</v>
+        <v>3.028</v>
       </c>
       <c r="E139" t="n">
-        <v>3.06</v>
+        <v>3.028</v>
       </c>
       <c r="F139" t="n">
-        <v>24684.8874</v>
+        <v>1647</v>
       </c>
       <c r="G139" t="n">
-        <v>-5190389.442762591</v>
+        <v>-5222554.234946951</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K139" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5836,32 +5668,34 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3.06</v>
+        <v>3.028</v>
       </c>
       <c r="C140" t="n">
-        <v>3.06</v>
+        <v>3.028</v>
       </c>
       <c r="D140" t="n">
-        <v>3.06</v>
+        <v>3.028</v>
       </c>
       <c r="E140" t="n">
-        <v>3.06</v>
+        <v>3.028</v>
       </c>
       <c r="F140" t="n">
-        <v>32731.9446</v>
+        <v>569</v>
       </c>
       <c r="G140" t="n">
-        <v>-5190389.442762591</v>
+        <v>-5222554.234946951</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K140" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5878,32 +5712,34 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3.048</v>
+        <v>3.028</v>
       </c>
       <c r="C141" t="n">
-        <v>3.048</v>
+        <v>3.038</v>
       </c>
       <c r="D141" t="n">
-        <v>3.048</v>
+        <v>3.038</v>
       </c>
       <c r="E141" t="n">
-        <v>3.048</v>
+        <v>3.028</v>
       </c>
       <c r="F141" t="n">
-        <v>7080</v>
+        <v>27536.2123</v>
       </c>
       <c r="G141" t="n">
-        <v>-5197469.442762591</v>
+        <v>-5195018.022646951</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K141" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5920,32 +5756,34 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>3.044</v>
+        <v>3.038</v>
       </c>
       <c r="C142" t="n">
-        <v>3.044</v>
+        <v>3.038</v>
       </c>
       <c r="D142" t="n">
-        <v>3.044</v>
+        <v>3.038</v>
       </c>
       <c r="E142" t="n">
-        <v>3.044</v>
+        <v>3.038</v>
       </c>
       <c r="F142" t="n">
-        <v>5520.8414</v>
+        <v>559</v>
       </c>
       <c r="G142" t="n">
-        <v>-5202990.284162591</v>
+        <v>-5195018.022646951</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>3.038</v>
+      </c>
       <c r="K142" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5962,32 +5800,34 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>3.041</v>
+        <v>3.037</v>
       </c>
       <c r="C143" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="D143" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="F143" t="n">
+        <v>53976.0498</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-5248994.072446952</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
         <v>3.038</v>
       </c>
-      <c r="D143" t="n">
-        <v>3.041</v>
-      </c>
-      <c r="E143" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="F143" t="n">
-        <v>279343.0868</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-5482333.370962591</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -6004,32 +5844,34 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3.06</v>
+        <v>3.035</v>
       </c>
       <c r="C144" t="n">
-        <v>3.06</v>
+        <v>3.035</v>
       </c>
       <c r="D144" t="n">
-        <v>3.06</v>
+        <v>3.035</v>
       </c>
       <c r="E144" t="n">
-        <v>3.06</v>
+        <v>3.035</v>
       </c>
       <c r="F144" t="n">
-        <v>510</v>
+        <v>608</v>
       </c>
       <c r="G144" t="n">
-        <v>-5481823.370962591</v>
+        <v>-5248994.072446952</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>3.035</v>
+      </c>
       <c r="K144" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -6046,32 +5888,34 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3.038</v>
+        <v>3.035</v>
       </c>
       <c r="C145" t="n">
-        <v>3.038</v>
+        <v>3.035</v>
       </c>
       <c r="D145" t="n">
-        <v>3.038</v>
+        <v>3.035</v>
       </c>
       <c r="E145" t="n">
-        <v>3.038</v>
+        <v>3.035</v>
       </c>
       <c r="F145" t="n">
-        <v>510</v>
+        <v>593</v>
       </c>
       <c r="G145" t="n">
-        <v>-5482333.370962591</v>
+        <v>-5248994.072446952</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>3.035</v>
+      </c>
       <c r="K145" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6088,32 +5932,34 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>3.038</v>
+        <v>3.065</v>
       </c>
       <c r="C146" t="n">
-        <v>3.038</v>
+        <v>3.035</v>
       </c>
       <c r="D146" t="n">
-        <v>3.038</v>
+        <v>3.065</v>
       </c>
       <c r="E146" t="n">
-        <v>3.038</v>
+        <v>3.035</v>
       </c>
       <c r="F146" t="n">
-        <v>15870</v>
+        <v>1118</v>
       </c>
       <c r="G146" t="n">
-        <v>-5482333.370962591</v>
+        <v>-5248994.072446952</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>3.035</v>
+      </c>
       <c r="K146" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6130,32 +5976,34 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>3.06</v>
+        <v>3.035</v>
       </c>
       <c r="C147" t="n">
-        <v>3.06</v>
+        <v>3.035</v>
       </c>
       <c r="D147" t="n">
-        <v>3.06</v>
+        <v>3.035</v>
       </c>
       <c r="E147" t="n">
-        <v>3.06</v>
+        <v>3.035</v>
       </c>
       <c r="F147" t="n">
-        <v>510</v>
+        <v>78380.09450000001</v>
       </c>
       <c r="G147" t="n">
-        <v>-5481823.370962591</v>
+        <v>-5248994.072446952</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>3.035</v>
+      </c>
       <c r="K147" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6172,32 +6020,34 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="C148" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="D148" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="E148" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="F148" t="n">
-        <v>510</v>
+        <v>448.667</v>
       </c>
       <c r="G148" t="n">
-        <v>-5482333.370962591</v>
+        <v>-5248994.072446952</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>3.035</v>
+      </c>
       <c r="K148" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6214,32 +6064,34 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>3.06</v>
+        <v>3.035</v>
       </c>
       <c r="C149" t="n">
-        <v>3.06</v>
+        <v>3.035</v>
       </c>
       <c r="D149" t="n">
-        <v>3.06</v>
+        <v>3.035</v>
       </c>
       <c r="E149" t="n">
-        <v>3.06</v>
+        <v>3.035</v>
       </c>
       <c r="F149" t="n">
-        <v>510</v>
+        <v>625</v>
       </c>
       <c r="G149" t="n">
-        <v>-5481823.370962591</v>
+        <v>-5248994.072446952</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>3.035</v>
+      </c>
       <c r="K149" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6256,32 +6108,34 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="C150" t="n">
-        <v>3.038</v>
+        <v>3.035</v>
       </c>
       <c r="D150" t="n">
-        <v>3.039</v>
+        <v>3.035</v>
       </c>
       <c r="E150" t="n">
-        <v>3.038</v>
+        <v>3.035</v>
       </c>
       <c r="F150" t="n">
-        <v>365195.6367</v>
+        <v>621</v>
       </c>
       <c r="G150" t="n">
-        <v>-5847019.007662591</v>
+        <v>-5248994.072446952</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>3.035</v>
+      </c>
       <c r="K150" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6298,32 +6152,34 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>3.039</v>
+        <v>3.065</v>
       </c>
       <c r="C151" t="n">
-        <v>3.039</v>
+        <v>3.045</v>
       </c>
       <c r="D151" t="n">
-        <v>3.039</v>
+        <v>3.082</v>
       </c>
       <c r="E151" t="n">
-        <v>3.039</v>
+        <v>3.045</v>
       </c>
       <c r="F151" t="n">
-        <v>510</v>
+        <v>55216.1021843608</v>
       </c>
       <c r="G151" t="n">
-        <v>-5846509.007662591</v>
+        <v>-5193777.970262591</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>3.035</v>
+      </c>
       <c r="K151" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6340,32 +6196,34 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3.06</v>
+        <v>3.045</v>
       </c>
       <c r="C152" t="n">
-        <v>3.06</v>
+        <v>3.045</v>
       </c>
       <c r="D152" t="n">
-        <v>3.06</v>
+        <v>3.045</v>
       </c>
       <c r="E152" t="n">
-        <v>3.06</v>
+        <v>3.045</v>
       </c>
       <c r="F152" t="n">
-        <v>16441.6611</v>
+        <v>587</v>
       </c>
       <c r="G152" t="n">
-        <v>-5830067.34656259</v>
+        <v>-5193777.970262591</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>3.045</v>
+      </c>
       <c r="K152" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6382,22 +6240,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3.061</v>
+        <v>3.045</v>
       </c>
       <c r="C153" t="n">
-        <v>3.061</v>
+        <v>3.045</v>
       </c>
       <c r="D153" t="n">
-        <v>3.061</v>
+        <v>3.045</v>
       </c>
       <c r="E153" t="n">
-        <v>3.061</v>
+        <v>3.045</v>
       </c>
       <c r="F153" t="n">
-        <v>6086.5939</v>
+        <v>640</v>
       </c>
       <c r="G153" t="n">
-        <v>-5823980.752662591</v>
+        <v>-5193777.970262591</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6407,7 +6265,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6424,22 +6282,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3.072</v>
+        <v>3.045</v>
       </c>
       <c r="C154" t="n">
-        <v>3.072</v>
+        <v>3.045</v>
       </c>
       <c r="D154" t="n">
-        <v>3.072</v>
+        <v>3.045</v>
       </c>
       <c r="E154" t="n">
-        <v>3.072</v>
+        <v>3.045</v>
       </c>
       <c r="F154" t="n">
-        <v>575.7018</v>
+        <v>520</v>
       </c>
       <c r="G154" t="n">
-        <v>-5823405.050862591</v>
+        <v>-5193777.970262591</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6449,7 +6307,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6466,22 +6324,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3.072</v>
+        <v>3.045</v>
       </c>
       <c r="C155" t="n">
-        <v>3.072</v>
+        <v>3.037</v>
       </c>
       <c r="D155" t="n">
-        <v>3.072</v>
+        <v>3.045</v>
       </c>
       <c r="E155" t="n">
-        <v>3.072</v>
+        <v>3.037</v>
       </c>
       <c r="F155" t="n">
-        <v>370</v>
+        <v>12113</v>
       </c>
       <c r="G155" t="n">
-        <v>-5823405.050862591</v>
+        <v>-5205890.970262591</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6491,7 +6349,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6508,22 +6366,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>3.061</v>
+        <v>3.037</v>
       </c>
       <c r="C156" t="n">
-        <v>3.06</v>
+        <v>3.037</v>
       </c>
       <c r="D156" t="n">
-        <v>3.061</v>
+        <v>3.037</v>
       </c>
       <c r="E156" t="n">
-        <v>3.06</v>
+        <v>3.037</v>
       </c>
       <c r="F156" t="n">
-        <v>121731.0772</v>
+        <v>586</v>
       </c>
       <c r="G156" t="n">
-        <v>-5945136.128062591</v>
+        <v>-5205890.970262591</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6533,7 +6391,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6550,22 +6408,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3.06</v>
+        <v>3.037</v>
       </c>
       <c r="C157" t="n">
-        <v>3.06</v>
+        <v>3.037</v>
       </c>
       <c r="D157" t="n">
-        <v>3.06</v>
+        <v>3.037</v>
       </c>
       <c r="E157" t="n">
-        <v>3.06</v>
+        <v>3.037</v>
       </c>
       <c r="F157" t="n">
-        <v>27242.7644</v>
+        <v>684</v>
       </c>
       <c r="G157" t="n">
-        <v>-5945136.128062591</v>
+        <v>-5205890.970262591</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6575,7 +6433,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6592,22 +6450,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>3.06</v>
+        <v>3.047</v>
       </c>
       <c r="C158" t="n">
-        <v>3.06</v>
+        <v>3.05</v>
       </c>
       <c r="D158" t="n">
-        <v>3.06</v>
+        <v>3.05</v>
       </c>
       <c r="E158" t="n">
-        <v>3.06</v>
+        <v>3.047</v>
       </c>
       <c r="F158" t="n">
-        <v>294.7576</v>
+        <v>19869.0328</v>
       </c>
       <c r="G158" t="n">
-        <v>-5945136.128062591</v>
+        <v>-5186021.937462591</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6617,7 +6475,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6634,22 +6492,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>3.06</v>
+        <v>3.037</v>
       </c>
       <c r="C159" t="n">
-        <v>3.061</v>
+        <v>3.037</v>
       </c>
       <c r="D159" t="n">
-        <v>3.061</v>
+        <v>3.037</v>
       </c>
       <c r="E159" t="n">
-        <v>3.06</v>
+        <v>3.037</v>
       </c>
       <c r="F159" t="n">
-        <v>33980.26516073179</v>
+        <v>532</v>
       </c>
       <c r="G159" t="n">
-        <v>-5911155.862901859</v>
+        <v>-5186553.937462591</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6659,7 +6517,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6676,22 +6534,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>3.071</v>
+        <v>3.037</v>
       </c>
       <c r="C160" t="n">
-        <v>3.071</v>
+        <v>3.037</v>
       </c>
       <c r="D160" t="n">
-        <v>3.071</v>
+        <v>3.037</v>
       </c>
       <c r="E160" t="n">
-        <v>3.071</v>
+        <v>3.037</v>
       </c>
       <c r="F160" t="n">
-        <v>1127.5779</v>
+        <v>512</v>
       </c>
       <c r="G160" t="n">
-        <v>-5910028.285001859</v>
+        <v>-5186553.937462591</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6701,7 +6559,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6718,22 +6576,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>3.071</v>
+        <v>3.037</v>
       </c>
       <c r="C161" t="n">
-        <v>3.074</v>
+        <v>3.06</v>
       </c>
       <c r="D161" t="n">
-        <v>3.074</v>
+        <v>3.06</v>
       </c>
       <c r="E161" t="n">
-        <v>3.071</v>
+        <v>3.037</v>
       </c>
       <c r="F161" t="n">
-        <v>172794.2311</v>
+        <v>860</v>
       </c>
       <c r="G161" t="n">
-        <v>-5737234.053901859</v>
+        <v>-5185693.937462591</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6743,7 +6601,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6760,22 +6618,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>3.084</v>
+        <v>3.037</v>
       </c>
       <c r="C162" t="n">
-        <v>3.093</v>
+        <v>3.037</v>
       </c>
       <c r="D162" t="n">
-        <v>3.093</v>
+        <v>3.037</v>
       </c>
       <c r="E162" t="n">
-        <v>3.084</v>
+        <v>3.037</v>
       </c>
       <c r="F162" t="n">
-        <v>85355.7411</v>
+        <v>665</v>
       </c>
       <c r="G162" t="n">
-        <v>-5651878.312801858</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6785,7 +6643,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6802,22 +6660,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>3.093</v>
+        <v>3.037</v>
       </c>
       <c r="C163" t="n">
-        <v>3.093</v>
+        <v>3.037</v>
       </c>
       <c r="D163" t="n">
-        <v>3.093</v>
+        <v>3.037</v>
       </c>
       <c r="E163" t="n">
-        <v>3.093</v>
+        <v>3.037</v>
       </c>
       <c r="F163" t="n">
-        <v>5050</v>
+        <v>513</v>
       </c>
       <c r="G163" t="n">
-        <v>-5651878.312801858</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6827,7 +6685,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6844,22 +6702,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>3.093</v>
+        <v>3.037</v>
       </c>
       <c r="C164" t="n">
-        <v>3.093</v>
+        <v>3.037</v>
       </c>
       <c r="D164" t="n">
-        <v>3.093</v>
+        <v>3.037</v>
       </c>
       <c r="E164" t="n">
-        <v>3.093</v>
+        <v>3.037</v>
       </c>
       <c r="F164" t="n">
-        <v>1734.5385</v>
+        <v>688</v>
       </c>
       <c r="G164" t="n">
-        <v>-5651878.312801858</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6869,7 +6727,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6886,22 +6744,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>3.093</v>
+        <v>3.037</v>
       </c>
       <c r="C165" t="n">
-        <v>3.093</v>
+        <v>3.037</v>
       </c>
       <c r="D165" t="n">
-        <v>3.093</v>
+        <v>3.037</v>
       </c>
       <c r="E165" t="n">
-        <v>3.093</v>
+        <v>3.037</v>
       </c>
       <c r="F165" t="n">
-        <v>20300</v>
+        <v>650</v>
       </c>
       <c r="G165" t="n">
-        <v>-5651878.312801858</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6911,7 +6769,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6928,22 +6786,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>3.093</v>
+        <v>3.037</v>
       </c>
       <c r="C166" t="n">
-        <v>3.093</v>
+        <v>3.037</v>
       </c>
       <c r="D166" t="n">
-        <v>3.093</v>
+        <v>3.037</v>
       </c>
       <c r="E166" t="n">
-        <v>3.093</v>
+        <v>3.037</v>
       </c>
       <c r="F166" t="n">
-        <v>13424.4118</v>
+        <v>688</v>
       </c>
       <c r="G166" t="n">
-        <v>-5651878.312801858</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6953,7 +6811,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6970,32 +6828,34 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>3.093</v>
+        <v>3.037</v>
       </c>
       <c r="C167" t="n">
-        <v>3.093</v>
+        <v>3.037</v>
       </c>
       <c r="D167" t="n">
-        <v>3.093</v>
+        <v>3.037</v>
       </c>
       <c r="E167" t="n">
-        <v>3.093</v>
+        <v>3.037</v>
       </c>
       <c r="F167" t="n">
-        <v>33702.9395</v>
+        <v>560</v>
       </c>
       <c r="G167" t="n">
-        <v>-5651878.312801858</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>3.037</v>
+      </c>
       <c r="K167" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -7012,32 +6872,34 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>3.093</v>
+        <v>3.037</v>
       </c>
       <c r="C168" t="n">
-        <v>3.1</v>
+        <v>3.037</v>
       </c>
       <c r="D168" t="n">
-        <v>3.105</v>
+        <v>3.037</v>
       </c>
       <c r="E168" t="n">
-        <v>3.093</v>
+        <v>3.037</v>
       </c>
       <c r="F168" t="n">
-        <v>540278.3208457327</v>
+        <v>699</v>
       </c>
       <c r="G168" t="n">
-        <v>-5111599.991956126</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>3.037</v>
+      </c>
       <c r="K168" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -7054,32 +6916,34 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>3.105</v>
+        <v>3.06</v>
       </c>
       <c r="C169" t="n">
-        <v>3.1</v>
+        <v>3.037</v>
       </c>
       <c r="D169" t="n">
-        <v>3.105</v>
+        <v>3.06</v>
       </c>
       <c r="E169" t="n">
-        <v>3.1</v>
+        <v>3.037</v>
       </c>
       <c r="F169" t="n">
-        <v>23261.003</v>
+        <v>1066</v>
       </c>
       <c r="G169" t="n">
-        <v>-5111599.991956126</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>3.037</v>
+      </c>
       <c r="K169" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -7096,22 +6960,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>3.1</v>
+        <v>3.037</v>
       </c>
       <c r="C170" t="n">
-        <v>3.125</v>
+        <v>3.037</v>
       </c>
       <c r="D170" t="n">
-        <v>3.125</v>
+        <v>3.037</v>
       </c>
       <c r="E170" t="n">
-        <v>3.1</v>
+        <v>3.037</v>
       </c>
       <c r="F170" t="n">
-        <v>27891.24365426731</v>
+        <v>505</v>
       </c>
       <c r="G170" t="n">
-        <v>-5083708.748301859</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -7121,7 +6985,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -7138,22 +7002,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>3.125</v>
+        <v>3.037</v>
       </c>
       <c r="C171" t="n">
-        <v>3.136</v>
+        <v>3.037</v>
       </c>
       <c r="D171" t="n">
-        <v>3.136</v>
+        <v>3.037</v>
       </c>
       <c r="E171" t="n">
-        <v>3.125</v>
+        <v>3.037</v>
       </c>
       <c r="F171" t="n">
-        <v>35157.355</v>
+        <v>599</v>
       </c>
       <c r="G171" t="n">
-        <v>-5048551.393301859</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -7163,7 +7027,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -7180,32 +7044,34 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>3.136</v>
+        <v>3.037</v>
       </c>
       <c r="C172" t="n">
-        <v>3.138</v>
+        <v>3.037</v>
       </c>
       <c r="D172" t="n">
-        <v>3.138</v>
+        <v>3.037</v>
       </c>
       <c r="E172" t="n">
-        <v>3.1</v>
+        <v>3.037</v>
       </c>
       <c r="F172" t="n">
-        <v>16851.6028</v>
+        <v>591</v>
       </c>
       <c r="G172" t="n">
-        <v>-5031699.790501858</v>
+        <v>-5186358.937462591</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>3.037</v>
+      </c>
       <c r="K172" t="n">
-        <v>3.038</v>
+        <v>3.013</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -7222,42 +7088,3064 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="C173" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="D173" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="E173" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="F173" t="n">
+        <v>581</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-5186358.937462591</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="K173" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="C174" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="D174" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="E174" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="F174" t="n">
+        <v>697</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-5186358.937462591</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="K174" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="C175" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="D175" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="E175" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="F175" t="n">
+        <v>553</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-5186358.937462591</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="K175" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="C176" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="D176" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="E176" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="F176" t="n">
+        <v>677</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-5186358.937462591</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="K176" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="C177" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="D177" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="E177" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="F177" t="n">
+        <v>512</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-5186358.937462591</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="K177" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="C178" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="D178" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="E178" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="F178" t="n">
+        <v>514</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-5186358.937462591</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="K178" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="C179" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="D179" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="E179" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="F179" t="n">
+        <v>633</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-5186358.937462591</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="K179" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="C180" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="D180" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="E180" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="F180" t="n">
+        <v>524</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-5186358.937462591</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="K180" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="C181" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="D181" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="E181" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="F181" t="n">
+        <v>622</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-5186358.937462591</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="K181" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="C182" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="D182" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="E182" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="F182" t="n">
+        <v>633</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-5186358.937462591</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="K182" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="C183" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="D183" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="E183" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="F183" t="n">
+        <v>554</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-5186358.937462591</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="K183" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="C184" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="D184" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="E184" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="F184" t="n">
+        <v>698</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-5186358.937462591</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="K184" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>3.038</v>
+      </c>
+      <c r="C185" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="D185" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="E185" t="n">
+        <v>3.038</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1104</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-5185254.937462591</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="K185" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="C186" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="D186" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="E186" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="F186" t="n">
+        <v>563</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-5185254.937462591</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="K186" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="C187" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="D187" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="E187" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="F187" t="n">
+        <v>637</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-5185254.937462591</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="K187" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="C188" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="D188" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E188" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1524.3259</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-5185254.937462591</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="K188" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="C189" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="D189" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="E189" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="F189" t="n">
+        <v>613</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-5185254.937462591</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="K189" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="C190" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="D190" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="E190" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="F190" t="n">
+        <v>610</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-5185254.937462591</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="K190" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="C191" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="D191" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="E191" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="F191" t="n">
+        <v>569</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-5185254.937462591</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="K191" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="C192" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="D192" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="E192" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="F192" t="n">
+        <v>551</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-5185254.937462591</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="K192" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="C193" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="D193" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="E193" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="F193" t="n">
+        <v>588</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-5185254.937462591</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="C194" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="D194" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="E194" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="F194" t="n">
+        <v>533</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-5185254.937462591</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="C195" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="D195" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="E195" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="F195" t="n">
+        <v>643</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-5185254.937462591</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D196" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E196" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1150</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-5184104.937462591</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="C197" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="D197" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="E197" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="F197" t="n">
+        <v>519</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-5184623.937462591</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="C198" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="D198" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="E198" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="F198" t="n">
+        <v>613</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-5184623.937462591</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="C199" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="D199" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="E199" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="F199" t="n">
+        <v>582</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-5184623.937462591</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="D200" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="E200" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="F200" t="n">
+        <v>690</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-5184623.937462591</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="C201" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="D201" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="E201" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="F201" t="n">
+        <v>696</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-5184623.937462591</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="C202" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D202" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E202" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F202" t="n">
+        <v>510</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-5184113.937462591</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="C203" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="D203" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="E203" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="F203" t="n">
+        <v>648</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-5184761.937462591</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="C204" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="D204" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="E204" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="F204" t="n">
+        <v>12781.8271</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-5184761.937462591</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="C205" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="D205" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="E205" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="F205" t="n">
+        <v>115288.2981</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-5184761.937462591</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="C206" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D206" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E206" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F206" t="n">
+        <v>510</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-5184251.937462591</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="C207" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D207" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E207" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F207" t="n">
+        <v>2578.7069</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-5184251.937462591</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>3.072</v>
+      </c>
+      <c r="C208" t="n">
+        <v>3.072</v>
+      </c>
+      <c r="D208" t="n">
+        <v>3.072</v>
+      </c>
+      <c r="E208" t="n">
+        <v>3.072</v>
+      </c>
+      <c r="F208" t="n">
+        <v>7080.6345</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-5177171.302962591</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="C209" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D209" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E209" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F209" t="n">
+        <v>13218.1398</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-5190389.442762591</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="C210" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D210" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E210" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F210" t="n">
+        <v>24684.8874</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-5190389.442762591</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="C211" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D211" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E211" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F211" t="n">
+        <v>32731.9446</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-5190389.442762591</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>3.048</v>
+      </c>
+      <c r="C212" t="n">
+        <v>3.048</v>
+      </c>
+      <c r="D212" t="n">
+        <v>3.048</v>
+      </c>
+      <c r="E212" t="n">
+        <v>3.048</v>
+      </c>
+      <c r="F212" t="n">
+        <v>7080</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-5197469.442762591</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>3.044</v>
+      </c>
+      <c r="C213" t="n">
+        <v>3.044</v>
+      </c>
+      <c r="D213" t="n">
+        <v>3.044</v>
+      </c>
+      <c r="E213" t="n">
+        <v>3.044</v>
+      </c>
+      <c r="F213" t="n">
+        <v>5520.8414</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-5202990.284162591</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>3.041</v>
+      </c>
+      <c r="C214" t="n">
+        <v>3.038</v>
+      </c>
+      <c r="D214" t="n">
+        <v>3.041</v>
+      </c>
+      <c r="E214" t="n">
+        <v>3.038</v>
+      </c>
+      <c r="F214" t="n">
+        <v>279343.0868</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-5482333.370962591</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="C215" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D215" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E215" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F215" t="n">
+        <v>510</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-5481823.370962591</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>3.038</v>
+      </c>
+      <c r="C216" t="n">
+        <v>3.038</v>
+      </c>
+      <c r="D216" t="n">
+        <v>3.038</v>
+      </c>
+      <c r="E216" t="n">
+        <v>3.038</v>
+      </c>
+      <c r="F216" t="n">
+        <v>510</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-5482333.370962591</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>3.038</v>
+      </c>
+      <c r="C217" t="n">
+        <v>3.038</v>
+      </c>
+      <c r="D217" t="n">
+        <v>3.038</v>
+      </c>
+      <c r="E217" t="n">
+        <v>3.038</v>
+      </c>
+      <c r="F217" t="n">
+        <v>15870</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-5482333.370962591</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="C218" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D218" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E218" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F218" t="n">
+        <v>510</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-5481823.370962591</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="C219" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="D219" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="E219" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="F219" t="n">
+        <v>510</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-5482333.370962591</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="C220" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D220" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E220" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F220" t="n">
+        <v>510</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-5481823.370962591</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="C221" t="n">
+        <v>3.038</v>
+      </c>
+      <c r="D221" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="E221" t="n">
+        <v>3.038</v>
+      </c>
+      <c r="F221" t="n">
+        <v>365195.6367</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-5847019.007662591</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="C222" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="D222" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="E222" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="F222" t="n">
+        <v>510</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-5846509.007662591</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="C223" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D223" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E223" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F223" t="n">
+        <v>16441.6611</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-5830067.34656259</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>3.061</v>
+      </c>
+      <c r="C224" t="n">
+        <v>3.061</v>
+      </c>
+      <c r="D224" t="n">
+        <v>3.061</v>
+      </c>
+      <c r="E224" t="n">
+        <v>3.061</v>
+      </c>
+      <c r="F224" t="n">
+        <v>6086.5939</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-5823980.752662591</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>3.072</v>
+      </c>
+      <c r="C225" t="n">
+        <v>3.072</v>
+      </c>
+      <c r="D225" t="n">
+        <v>3.072</v>
+      </c>
+      <c r="E225" t="n">
+        <v>3.072</v>
+      </c>
+      <c r="F225" t="n">
+        <v>575.7018</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-5823405.050862591</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>3.072</v>
+      </c>
+      <c r="C226" t="n">
+        <v>3.072</v>
+      </c>
+      <c r="D226" t="n">
+        <v>3.072</v>
+      </c>
+      <c r="E226" t="n">
+        <v>3.072</v>
+      </c>
+      <c r="F226" t="n">
+        <v>370</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-5823405.050862591</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>3.061</v>
+      </c>
+      <c r="C227" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D227" t="n">
+        <v>3.061</v>
+      </c>
+      <c r="E227" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F227" t="n">
+        <v>121731.0772</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-5945136.128062591</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="C228" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D228" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E228" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F228" t="n">
+        <v>27242.7644</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-5945136.128062591</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="C229" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D229" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E229" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F229" t="n">
+        <v>294.7576</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-5945136.128062591</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="C230" t="n">
+        <v>3.061</v>
+      </c>
+      <c r="D230" t="n">
+        <v>3.061</v>
+      </c>
+      <c r="E230" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F230" t="n">
+        <v>33980.26516073179</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-5911155.862901859</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="C231" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="D231" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="E231" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1127.5779</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-5910028.285001859</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="C232" t="n">
+        <v>3.074</v>
+      </c>
+      <c r="D232" t="n">
+        <v>3.074</v>
+      </c>
+      <c r="E232" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="F232" t="n">
+        <v>172794.2311</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-5737234.053901859</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>3.084</v>
+      </c>
+      <c r="C233" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="D233" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="E233" t="n">
+        <v>3.084</v>
+      </c>
+      <c r="F233" t="n">
+        <v>85355.7411</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-5651878.312801858</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="C234" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="D234" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="E234" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="F234" t="n">
+        <v>5050</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-5651878.312801858</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="C235" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="D235" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="E235" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1734.5385</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-5651878.312801858</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="C236" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="D236" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="E236" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="F236" t="n">
+        <v>20300</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-5651878.312801858</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="C237" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="D237" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="E237" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="F237" t="n">
+        <v>13424.4118</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-5651878.312801858</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="C238" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="D238" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="E238" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="F238" t="n">
+        <v>33702.9395</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-5651878.312801858</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="C239" t="n">
         <v>3.1</v>
       </c>
-      <c r="C173" t="n">
+      <c r="D239" t="n">
+        <v>3.105</v>
+      </c>
+      <c r="E239" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="F239" t="n">
+        <v>540278.3208457327</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-5111599.991956126</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>3.105</v>
+      </c>
+      <c r="C240" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D240" t="n">
+        <v>3.105</v>
+      </c>
+      <c r="E240" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F240" t="n">
+        <v>23261.003</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-5111599.991956126</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C241" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="D241" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E241" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F241" t="n">
+        <v>27891.24365426731</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-5083708.748301859</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="C242" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="D242" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="E242" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="F242" t="n">
+        <v>35157.355</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-5048551.393301859</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="C243" t="n">
         <v>3.138</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D243" t="n">
         <v>3.138</v>
       </c>
-      <c r="E173" t="n">
+      <c r="E243" t="n">
         <v>3.1</v>
       </c>
-      <c r="F173" t="n">
+      <c r="F243" t="n">
+        <v>16851.6028</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-5031699.790501858</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C244" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="D244" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="E244" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F244" t="n">
         <v>9008.482599999999</v>
       </c>
-      <c r="G173" t="n">
+      <c r="G244" t="n">
         <v>-5031699.790501858</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-14 BackTest MIX.xlsx
+++ b/BackTest/2020-01-14 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N244"/>
+  <dimension ref="A1:M244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-672642.9449999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-599624.7346999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-626284.7346999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-626284.7346999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-1526284.7347</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>-3234460.7877</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>-3378565.308</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,15 @@
         <v>-3377528.3947</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3948,22 +3652,15 @@
         <v>-5044442.327646952</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="K99" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3988,26 +3685,15 @@
         <v>-5043932.327646952</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="K100" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4032,26 +3718,15 @@
         <v>-5053531.961646952</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>3.018</v>
-      </c>
-      <c r="K101" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4076,26 +3751,15 @@
         <v>-5053531.961646952</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>3.012</v>
-      </c>
-      <c r="K102" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4120,26 +3784,15 @@
         <v>-5025171.618746952</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>3.012</v>
-      </c>
-      <c r="K103" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4164,26 +3817,15 @@
         <v>-5024661.618746952</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="K104" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4210,22 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4252,22 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4294,22 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4336,22 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4378,22 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4420,22 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4462,22 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4504,22 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4546,22 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4588,22 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4630,22 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4672,22 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4714,22 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4756,22 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4798,22 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4840,22 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4882,22 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4924,22 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4966,22 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5008,22 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5050,22 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5092,22 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5134,22 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5176,22 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5218,22 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5260,22 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5302,22 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5344,22 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5386,22 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5428,22 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5468,26 +4840,15 @@
         <v>-5223203.234946951</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>3.026</v>
-      </c>
-      <c r="K135" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5512,26 +4873,15 @@
         <v>-5223203.234946951</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>3.026</v>
-      </c>
-      <c r="K136" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5556,26 +4906,15 @@
         <v>-5223203.234946951</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>3.026</v>
-      </c>
-      <c r="K137" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5602,22 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5642,26 +4972,19 @@
         <v>-5222554.234946951</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>3.028</v>
       </c>
       <c r="J139" t="n">
         <v>3.028</v>
       </c>
-      <c r="K139" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5686,26 +5009,21 @@
         <v>-5222554.234946951</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
         <v>3.028</v>
       </c>
-      <c r="K140" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5730,26 +5048,21 @@
         <v>-5195018.022646951</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
         <v>3.028</v>
       </c>
-      <c r="K141" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5774,26 +5087,21 @@
         <v>-5195018.022646951</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="K142" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5818,26 +5126,23 @@
         <v>-5248994.072446952</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>3.038</v>
       </c>
       <c r="J143" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="K143" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5862,26 +5167,23 @@
         <v>-5248994.072446952</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>3.035</v>
       </c>
       <c r="J144" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="K144" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5906,26 +5208,23 @@
         <v>-5248994.072446952</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>3.035</v>
       </c>
       <c r="J145" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="K145" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5950,26 +5249,23 @@
         <v>-5248994.072446952</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>3.035</v>
       </c>
       <c r="J146" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="K146" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5994,26 +5290,21 @@
         <v>-5248994.072446952</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="K147" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6038,26 +5329,21 @@
         <v>-5248994.072446952</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="K148" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6082,26 +5368,23 @@
         <v>-5248994.072446952</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>3.035</v>
       </c>
       <c r="J149" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="K149" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6126,26 +5409,23 @@
         <v>-5248994.072446952</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>3.035</v>
       </c>
       <c r="J150" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="K150" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6170,26 +5450,23 @@
         <v>-5193777.970262591</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>3.035</v>
       </c>
       <c r="J151" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="K151" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6214,26 +5491,23 @@
         <v>-5193777.970262591</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>3.045</v>
       </c>
       <c r="J152" t="n">
-        <v>3.045</v>
-      </c>
-      <c r="K152" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6258,24 +5532,23 @@
         <v>-5193777.970262591</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+        <v>3.045</v>
+      </c>
+      <c r="J153" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6300,24 +5573,23 @@
         <v>-5193777.970262591</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+        <v>3.045</v>
+      </c>
+      <c r="J154" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6342,24 +5614,23 @@
         <v>-5205890.970262591</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+        <v>3.045</v>
+      </c>
+      <c r="J155" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6386,22 +5657,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6428,22 +5696,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6468,24 +5733,23 @@
         <v>-5186021.937462591</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+        <v>3.037</v>
+      </c>
+      <c r="J158" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6512,22 +5776,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6552,24 +5813,23 @@
         <v>-5186553.937462591</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+        <v>3.037</v>
+      </c>
+      <c r="J160" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6594,24 +5854,23 @@
         <v>-5185693.937462591</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+        <v>3.037</v>
+      </c>
+      <c r="J161" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6636,24 +5895,23 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+        <v>3.06</v>
+      </c>
+      <c r="J162" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6678,24 +5936,23 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+        <v>3.037</v>
+      </c>
+      <c r="J163" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6720,24 +5977,23 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+        <v>3.037</v>
+      </c>
+      <c r="J164" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6762,24 +6018,23 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+        <v>3.037</v>
+      </c>
+      <c r="J165" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6804,24 +6059,23 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+        <v>3.037</v>
+      </c>
+      <c r="J166" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6846,26 +6100,23 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>3.037</v>
       </c>
       <c r="J167" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="K167" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6890,26 +6141,23 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>3.037</v>
       </c>
       <c r="J168" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="K168" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6934,26 +6182,23 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>3.037</v>
       </c>
       <c r="J169" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="K169" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6978,24 +6223,23 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+        <v>3.037</v>
+      </c>
+      <c r="J170" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7022,22 +6266,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7062,26 +6303,21 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="K172" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7106,26 +6342,21 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="K173" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7150,26 +6381,21 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="K174" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7194,26 +6420,21 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="K175" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7238,26 +6459,21 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="K176" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7282,26 +6498,21 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="K177" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7326,26 +6537,23 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>3.037</v>
       </c>
       <c r="J178" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="K178" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7370,26 +6578,23 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>3.037</v>
       </c>
       <c r="J179" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="K179" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7414,26 +6619,23 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>3.037</v>
       </c>
       <c r="J180" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="K180" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7458,26 +6660,21 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="K181" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7502,26 +6699,23 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>3.037</v>
       </c>
       <c r="J182" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="K182" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7546,26 +6740,23 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>3.037</v>
       </c>
       <c r="J183" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="K183" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7590,26 +6781,23 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>3.037</v>
       </c>
       <c r="J184" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="K184" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7634,26 +6822,23 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>3.037</v>
       </c>
       <c r="J185" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="K185" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7678,26 +6863,23 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>3.039</v>
       </c>
       <c r="J186" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K186" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7722,26 +6904,23 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>3.039</v>
       </c>
       <c r="J187" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K187" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7766,26 +6945,23 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>3.039</v>
       </c>
       <c r="J188" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K188" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7810,26 +6986,23 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>3.039</v>
       </c>
       <c r="J189" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K189" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7854,26 +7027,23 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>3.039</v>
       </c>
       <c r="J190" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K190" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7898,26 +7068,23 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>3.039</v>
       </c>
       <c r="J191" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K191" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7942,26 +7109,23 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>3.039</v>
       </c>
       <c r="J192" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="K192" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+        <v>3.028</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7986,24 +7150,23 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+        <v>3.039</v>
+      </c>
+      <c r="J193" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8028,24 +7191,23 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+        <v>3.039</v>
+      </c>
+      <c r="J194" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8070,24 +7232,23 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+        <v>3.039</v>
+      </c>
+      <c r="J195" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8112,24 +7273,23 @@
         <v>-5184104.937462591</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+        <v>3.039</v>
+      </c>
+      <c r="J196" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8156,22 +7316,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8196,24 +7353,23 @@
         <v>-5184623.937462591</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+        <v>3.039</v>
+      </c>
+      <c r="J198" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8238,24 +7394,23 @@
         <v>-5184623.937462591</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+        <v>3.039</v>
+      </c>
+      <c r="J199" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8280,24 +7435,23 @@
         <v>-5184623.937462591</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+        <v>3.039</v>
+      </c>
+      <c r="J200" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8322,24 +7476,23 @@
         <v>-5184623.937462591</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+        <v>3.039</v>
+      </c>
+      <c r="J201" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8364,24 +7517,23 @@
         <v>-5184113.937462591</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+        <v>3.039</v>
+      </c>
+      <c r="J202" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8408,22 +7560,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8450,22 +7599,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8492,22 +7638,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8534,22 +7677,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8574,24 +7714,23 @@
         <v>-5184251.937462591</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+        <v>3.06</v>
+      </c>
+      <c r="J207" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8618,22 +7757,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8658,24 +7794,23 @@
         <v>-5190389.442762591</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+        <v>3.072</v>
+      </c>
+      <c r="J209" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8702,22 +7837,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8744,22 +7876,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8784,24 +7913,23 @@
         <v>-5197469.442762591</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+        <v>3.06</v>
+      </c>
+      <c r="J212" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8826,24 +7954,23 @@
         <v>-5202990.284162591</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+        <v>3.048</v>
+      </c>
+      <c r="J213" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8868,24 +7995,23 @@
         <v>-5482333.370962591</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+        <v>3.044</v>
+      </c>
+      <c r="J214" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8910,24 +8036,23 @@
         <v>-5481823.370962591</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+        <v>3.038</v>
+      </c>
+      <c r="J215" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8952,24 +8077,23 @@
         <v>-5482333.370962591</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+        <v>3.06</v>
+      </c>
+      <c r="J216" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8994,24 +8118,23 @@
         <v>-5482333.370962591</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+        <v>3.038</v>
+      </c>
+      <c r="J217" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9036,24 +8159,23 @@
         <v>-5481823.370962591</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+        <v>3.038</v>
+      </c>
+      <c r="J218" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9078,24 +8200,23 @@
         <v>-5482333.370962591</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+        <v>3.06</v>
+      </c>
+      <c r="J219" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9122,22 +8243,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9162,24 +8280,23 @@
         <v>-5847019.007662591</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+        <v>3.06</v>
+      </c>
+      <c r="J221" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9206,22 +8323,19 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9246,24 +8360,23 @@
         <v>-5830067.34656259</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+        <v>3.039</v>
+      </c>
+      <c r="J223" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9290,22 +8403,19 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9330,24 +8440,23 @@
         <v>-5823405.050862591</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+        <v>3.061</v>
+      </c>
+      <c r="J225" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9374,22 +8483,19 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9414,24 +8520,23 @@
         <v>-5945136.128062591</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+        <v>3.072</v>
+      </c>
+      <c r="J227" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9458,22 +8563,19 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9500,22 +8602,19 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9542,22 +8641,19 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9584,22 +8680,19 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9626,22 +8719,19 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9668,22 +8758,19 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9710,22 +8797,19 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9752,22 +8836,19 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9794,22 +8875,19 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9836,22 +8914,19 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9878,22 +8953,19 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9920,22 +8992,19 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9962,22 +9031,19 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -10004,22 +9070,19 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -10046,22 +9109,19 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -10088,22 +9148,19 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -10130,24 +9187,21 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>3.013</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest MIX.xlsx
+++ b/BackTest/2020-01-14 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-629836.5072</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-672642.9449999999</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-599624.7346999999</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-626284.7346999999</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-626284.7346999999</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1526284.7347</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1525284.7347</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1525284.7347</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1065284.7347</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1062955.0302</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1063901.2141</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1071084.8623</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1070401.5468</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1070401.5468</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1070401.5468</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1070401.5468</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1069979.3026</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1141230.7607</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1264944.5397</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1264944.5397</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1264944.5397</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1192765.2729</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1192765.2729</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1357566.9623</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-3234460.7877</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-3378565.308</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-3377528.3947</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -4906,10 +4906,14 @@
         <v>-5223203.234946951</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>3.026</v>
+      </c>
+      <c r="J137" t="n">
+        <v>3.026</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
@@ -4939,11 +4943,19 @@
         <v>-5222554.234946951</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>3.026</v>
+      </c>
+      <c r="J138" t="n">
+        <v>3.026</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4972,15 +4984,19 @@
         <v>-5222554.234946951</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>3.028</v>
       </c>
       <c r="J139" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
+        <v>3.026</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5009,17 +5025,15 @@
         <v>-5222554.234946951</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>3.028</v>
+      </c>
       <c r="J140" t="n">
         <v>3.028</v>
       </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5048,9 +5062,11 @@
         <v>-5195018.022646951</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>3.028</v>
+      </c>
       <c r="J141" t="n">
         <v>3.028</v>
       </c>
@@ -5087,9 +5103,11 @@
         <v>-5195018.022646951</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>3.038</v>
+      </c>
       <c r="J142" t="n">
         <v>3.028</v>
       </c>
@@ -5126,7 +5144,7 @@
         <v>-5248994.072446952</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>3.038</v>
@@ -5167,7 +5185,7 @@
         <v>-5248994.072446952</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>3.035</v>
@@ -5208,7 +5226,7 @@
         <v>-5248994.072446952</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>3.035</v>
@@ -5249,7 +5267,7 @@
         <v>-5248994.072446952</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>3.035</v>
@@ -5329,9 +5347,11 @@
         <v>-5248994.072446952</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>3.035</v>
+      </c>
       <c r="J148" t="n">
         <v>3.028</v>
       </c>
@@ -5368,7 +5388,7 @@
         <v>-5248994.072446952</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>3.035</v>
@@ -5409,7 +5429,7 @@
         <v>-5248994.072446952</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>3.035</v>
@@ -5450,7 +5470,7 @@
         <v>-5193777.970262591</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>3.035</v>
@@ -5491,7 +5511,7 @@
         <v>-5193777.970262591</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>3.045</v>
@@ -5532,7 +5552,7 @@
         <v>-5193777.970262591</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>3.045</v>
@@ -5573,7 +5593,7 @@
         <v>-5193777.970262591</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>3.045</v>
@@ -5614,7 +5634,7 @@
         <v>-5205890.970262591</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>3.045</v>
@@ -5655,9 +5675,11 @@
         <v>-5205890.970262591</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>3.037</v>
+      </c>
       <c r="J156" t="n">
         <v>3.028</v>
       </c>
@@ -5694,9 +5716,11 @@
         <v>-5205890.970262591</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>3.037</v>
+      </c>
       <c r="J157" t="n">
         <v>3.028</v>
       </c>
@@ -5733,7 +5757,7 @@
         <v>-5186021.937462591</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>3.037</v>
@@ -5774,9 +5798,11 @@
         <v>-5186553.937462591</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>3.05</v>
+      </c>
       <c r="J159" t="n">
         <v>3.028</v>
       </c>
@@ -5813,7 +5839,7 @@
         <v>-5186553.937462591</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>3.037</v>
@@ -5854,7 +5880,7 @@
         <v>-5185693.937462591</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>3.037</v>
@@ -5895,7 +5921,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>3.06</v>
@@ -5936,7 +5962,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>3.037</v>
@@ -5977,7 +6003,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>3.037</v>
@@ -6018,7 +6044,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>3.037</v>
@@ -6059,7 +6085,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>3.037</v>
@@ -6100,7 +6126,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>3.037</v>
@@ -6141,7 +6167,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>3.037</v>
@@ -6182,7 +6208,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>3.037</v>
@@ -6223,7 +6249,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>3.037</v>
@@ -6264,9 +6290,11 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>3.037</v>
+      </c>
       <c r="J171" t="n">
         <v>3.028</v>
       </c>
@@ -6303,9 +6331,11 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>3.037</v>
+      </c>
       <c r="J172" t="n">
         <v>3.028</v>
       </c>
@@ -6342,9 +6372,11 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>3.037</v>
+      </c>
       <c r="J173" t="n">
         <v>3.028</v>
       </c>
@@ -6381,9 +6413,11 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>3.037</v>
+      </c>
       <c r="J174" t="n">
         <v>3.028</v>
       </c>
@@ -6420,9 +6454,11 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>3.037</v>
+      </c>
       <c r="J175" t="n">
         <v>3.028</v>
       </c>
@@ -6459,9 +6495,11 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>3.037</v>
+      </c>
       <c r="J176" t="n">
         <v>3.028</v>
       </c>
@@ -6498,9 +6536,11 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>3.037</v>
+      </c>
       <c r="J177" t="n">
         <v>3.028</v>
       </c>
@@ -6537,7 +6577,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>3.037</v>
@@ -6578,7 +6618,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>3.037</v>
@@ -6619,7 +6659,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>3.037</v>
@@ -6660,9 +6700,11 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>3.037</v>
+      </c>
       <c r="J181" t="n">
         <v>3.028</v>
       </c>
@@ -6699,7 +6741,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>3.037</v>
@@ -6740,7 +6782,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>3.037</v>
@@ -6781,7 +6823,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>3.037</v>
@@ -6822,7 +6864,7 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>3.037</v>
@@ -6863,7 +6905,7 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>3.039</v>
@@ -6904,7 +6946,7 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>3.039</v>
@@ -6945,7 +6987,7 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>3.039</v>
@@ -6986,7 +7028,7 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>3.039</v>
@@ -7027,7 +7069,7 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>3.039</v>
@@ -7068,7 +7110,7 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>3.039</v>
@@ -7109,7 +7151,7 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>3.039</v>
@@ -7150,7 +7192,7 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>3.039</v>
@@ -7191,7 +7233,7 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>3.039</v>
@@ -7232,7 +7274,7 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>3.039</v>
@@ -7273,7 +7315,7 @@
         <v>-5184104.937462591</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>3.039</v>
@@ -7314,9 +7356,11 @@
         <v>-5184623.937462591</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>3.06</v>
+      </c>
       <c r="J197" t="n">
         <v>3.028</v>
       </c>
@@ -7353,7 +7397,7 @@
         <v>-5184623.937462591</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>3.039</v>
@@ -7394,7 +7438,7 @@
         <v>-5184623.937462591</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>3.039</v>
@@ -7435,7 +7479,7 @@
         <v>-5184623.937462591</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>3.039</v>
@@ -7476,7 +7520,7 @@
         <v>-5184623.937462591</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>3.039</v>
@@ -7517,7 +7561,7 @@
         <v>-5184113.937462591</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>3.039</v>
@@ -7636,9 +7680,11 @@
         <v>-5184761.937462591</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>3.039</v>
+      </c>
       <c r="J205" t="n">
         <v>3.028</v>
       </c>
@@ -7675,9 +7721,11 @@
         <v>-5184251.937462591</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>3.039</v>
+      </c>
       <c r="J206" t="n">
         <v>3.028</v>
       </c>
@@ -7714,7 +7762,7 @@
         <v>-5184251.937462591</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>3.06</v>
@@ -7794,11 +7842,9 @@
         <v>-5190389.442762591</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="n">
-        <v>3.072</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
         <v>3.028</v>
       </c>
@@ -7913,11 +7959,9 @@
         <v>-5197469.442762591</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="n">
-        <v>3.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
         <v>3.028</v>
       </c>
@@ -7954,7 +7998,7 @@
         <v>-5202990.284162591</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>3.048</v>
@@ -7995,7 +8039,7 @@
         <v>-5482333.370962591</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>3.044</v>
@@ -8036,7 +8080,7 @@
         <v>-5481823.370962591</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>3.038</v>
@@ -8077,7 +8121,7 @@
         <v>-5482333.370962591</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>3.06</v>
@@ -8118,7 +8162,7 @@
         <v>-5482333.370962591</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>3.038</v>
@@ -8159,7 +8203,7 @@
         <v>-5481823.370962591</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>3.038</v>
@@ -8200,11 +8244,9 @@
         <v>-5482333.370962591</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="n">
-        <v>3.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
         <v>3.028</v>
       </c>
@@ -8241,9 +8283,11 @@
         <v>-5481823.370962591</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>3.039</v>
+      </c>
       <c r="J220" t="n">
         <v>3.028</v>
       </c>
@@ -8280,11 +8324,9 @@
         <v>-5847019.007662591</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="n">
-        <v>3.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
         <v>3.028</v>
       </c>
@@ -8360,7 +8402,7 @@
         <v>-5830067.34656259</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>3.039</v>
@@ -8401,9 +8443,11 @@
         <v>-5823980.752662591</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>3.06</v>
+      </c>
       <c r="J224" t="n">
         <v>3.028</v>
       </c>
@@ -8440,7 +8484,7 @@
         <v>-5823405.050862591</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>3.061</v>
@@ -8520,11 +8564,9 @@
         <v>-5945136.128062591</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>3.072</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
         <v>3.028</v>
       </c>
@@ -8639,9 +8681,11 @@
         <v>-5911155.862901859</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>3.06</v>
+      </c>
       <c r="J230" t="n">
         <v>3.028</v>
       </c>
@@ -8717,9 +8761,11 @@
         <v>-5737234.053901859</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>3.071</v>
+      </c>
       <c r="J232" t="n">
         <v>3.028</v>
       </c>
@@ -9202,6 +9248,6 @@
       <c r="M244" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest MIX.xlsx
+++ b/BackTest/2020-01-14 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-629836.5072</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1526284.7347</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1525284.7347</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1525284.7347</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1065284.7347</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1062955.0302</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1063901.2141</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1071084.8623</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1070401.5468</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1070401.5468</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1070401.5468</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1070401.5468</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1069979.3026</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1141230.7607</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1264944.5397</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1264944.5397</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1264944.5397</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1192765.2729</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1192765.2729</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1357566.9623</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-5030262.327646952</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-5043932.327646952</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4906,14 +4906,10 @@
         <v>-5223203.234946951</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>3.026</v>
-      </c>
-      <c r="J137" t="n">
-        <v>3.026</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
@@ -4943,19 +4939,11 @@
         <v>-5222554.234946951</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>3.026</v>
-      </c>
-      <c r="J138" t="n">
-        <v>3.026</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4984,19 +4972,11 @@
         <v>-5222554.234946951</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="J139" t="n">
-        <v>3.026</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5025,14 +5005,10 @@
         <v>-5222554.234946951</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="J140" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
@@ -5062,837 +5038,677 @@
         <v>-5195018.022646951</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="J141" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K141" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>3.038</v>
+      </c>
+      <c r="C142" t="n">
+        <v>3.038</v>
+      </c>
+      <c r="D142" t="n">
+        <v>3.038</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3.038</v>
+      </c>
+      <c r="F142" t="n">
+        <v>559</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-5195018.022646951</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="C143" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="D143" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="F143" t="n">
+        <v>53976.0498</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-5248994.072446952</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="C144" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="D144" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="F144" t="n">
+        <v>608</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-5248994.072446952</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="C145" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="D145" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="E145" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="F145" t="n">
+        <v>593</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-5248994.072446952</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>3.065</v>
+      </c>
+      <c r="C146" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="D146" t="n">
+        <v>3.065</v>
+      </c>
+      <c r="E146" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1118</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-5248994.072446952</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="C147" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="D147" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="E147" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="F147" t="n">
+        <v>78380.09450000001</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-5248994.072446952</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="C148" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="D148" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="E148" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="F148" t="n">
+        <v>448.667</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-5248994.072446952</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="C149" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="D149" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="E149" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="F149" t="n">
+        <v>625</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-5248994.072446952</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="C150" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="D150" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="E150" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="F150" t="n">
+        <v>621</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-5248994.072446952</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>3.065</v>
+      </c>
+      <c r="C151" t="n">
+        <v>3.045</v>
+      </c>
+      <c r="D151" t="n">
+        <v>3.082</v>
+      </c>
+      <c r="E151" t="n">
+        <v>3.045</v>
+      </c>
+      <c r="F151" t="n">
+        <v>55216.1021843608</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-5193777.970262591</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>3.045</v>
+      </c>
+      <c r="C152" t="n">
+        <v>3.045</v>
+      </c>
+      <c r="D152" t="n">
+        <v>3.045</v>
+      </c>
+      <c r="E152" t="n">
+        <v>3.045</v>
+      </c>
+      <c r="F152" t="n">
+        <v>587</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-5193777.970262591</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>3.045</v>
+      </c>
+      <c r="C153" t="n">
+        <v>3.045</v>
+      </c>
+      <c r="D153" t="n">
+        <v>3.045</v>
+      </c>
+      <c r="E153" t="n">
+        <v>3.045</v>
+      </c>
+      <c r="F153" t="n">
+        <v>640</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-5193777.970262591</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>3.045</v>
+      </c>
+      <c r="C154" t="n">
+        <v>3.045</v>
+      </c>
+      <c r="D154" t="n">
+        <v>3.045</v>
+      </c>
+      <c r="E154" t="n">
+        <v>3.045</v>
+      </c>
+      <c r="F154" t="n">
+        <v>520</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-5193777.970262591</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>3.045</v>
+      </c>
+      <c r="C155" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="D155" t="n">
+        <v>3.045</v>
+      </c>
+      <c r="E155" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="F155" t="n">
+        <v>12113</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-5205890.970262591</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="C156" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="D156" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="E156" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="F156" t="n">
+        <v>586</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-5205890.970262591</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="C157" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="D157" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="E157" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="F157" t="n">
+        <v>684</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-5205890.970262591</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>3.047</v>
+      </c>
+      <c r="C158" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="D158" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E158" t="n">
+        <v>3.047</v>
+      </c>
+      <c r="F158" t="n">
+        <v>19869.0328</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-5186021.937462591</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="C159" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="D159" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="E159" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="F159" t="n">
+        <v>532</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-5186553.937462591</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="C160" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="D160" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="E160" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="F160" t="n">
+        <v>512</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-5186553.937462591</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="C161" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D161" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E161" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="F161" t="n">
+        <v>860</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-5185693.937462591</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="C142" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="D142" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="E142" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="F142" t="n">
-        <v>559</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-5195018.022646951</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="J142" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="C143" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="D143" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="E143" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="F143" t="n">
-        <v>53976.0498</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-5248994.072446952</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="J143" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="C144" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="D144" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="E144" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="F144" t="n">
-        <v>608</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-5248994.072446952</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="J144" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="C145" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="D145" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="E145" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="F145" t="n">
-        <v>593</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-5248994.072446952</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="J145" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>3.065</v>
-      </c>
-      <c r="C146" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="D146" t="n">
-        <v>3.065</v>
-      </c>
-      <c r="E146" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1118</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-5248994.072446952</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="J146" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="C147" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="D147" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="E147" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="F147" t="n">
-        <v>78380.09450000001</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-5248994.072446952</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="C148" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="D148" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="E148" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="F148" t="n">
-        <v>448.667</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-5248994.072446952</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="J148" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="C149" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="D149" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="E149" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="F149" t="n">
-        <v>625</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-5248994.072446952</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="J149" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="C150" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="D150" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="E150" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="F150" t="n">
-        <v>621</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-5248994.072446952</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="J150" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>3.065</v>
-      </c>
-      <c r="C151" t="n">
-        <v>3.045</v>
-      </c>
-      <c r="D151" t="n">
-        <v>3.082</v>
-      </c>
-      <c r="E151" t="n">
-        <v>3.045</v>
-      </c>
-      <c r="F151" t="n">
-        <v>55216.1021843608</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-5193777.970262591</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="J151" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>3.045</v>
-      </c>
-      <c r="C152" t="n">
-        <v>3.045</v>
-      </c>
-      <c r="D152" t="n">
-        <v>3.045</v>
-      </c>
-      <c r="E152" t="n">
-        <v>3.045</v>
-      </c>
-      <c r="F152" t="n">
-        <v>587</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-5193777.970262591</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>3.045</v>
-      </c>
-      <c r="J152" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>3.045</v>
-      </c>
-      <c r="C153" t="n">
-        <v>3.045</v>
-      </c>
-      <c r="D153" t="n">
-        <v>3.045</v>
-      </c>
-      <c r="E153" t="n">
-        <v>3.045</v>
-      </c>
-      <c r="F153" t="n">
-        <v>640</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-5193777.970262591</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>3.045</v>
-      </c>
-      <c r="J153" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>3.045</v>
-      </c>
-      <c r="C154" t="n">
-        <v>3.045</v>
-      </c>
-      <c r="D154" t="n">
-        <v>3.045</v>
-      </c>
-      <c r="E154" t="n">
-        <v>3.045</v>
-      </c>
-      <c r="F154" t="n">
-        <v>520</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-5193777.970262591</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>3.045</v>
-      </c>
-      <c r="J154" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>3.045</v>
-      </c>
-      <c r="C155" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="D155" t="n">
-        <v>3.045</v>
-      </c>
-      <c r="E155" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="F155" t="n">
-        <v>12113</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-5205890.970262591</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>3.045</v>
-      </c>
-      <c r="J155" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="C156" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="D156" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="E156" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="F156" t="n">
-        <v>586</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-5205890.970262591</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J156" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="C157" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="D157" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="E157" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="F157" t="n">
-        <v>684</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-5205890.970262591</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J157" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>3.047</v>
-      </c>
-      <c r="C158" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="D158" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="E158" t="n">
-        <v>3.047</v>
-      </c>
-      <c r="F158" t="n">
-        <v>19869.0328</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-5186021.937462591</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J158" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="C159" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="D159" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="E159" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="F159" t="n">
-        <v>532</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-5186553.937462591</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J159" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="C160" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="D160" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="E160" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="F160" t="n">
-        <v>512</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-5186553.937462591</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J160" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="C161" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="D161" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="E161" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="F161" t="n">
-        <v>860</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-5185693.937462591</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J161" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5921,14 +5737,10 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="J162" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5962,14 +5774,10 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J163" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6003,14 +5811,10 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J164" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6044,14 +5848,10 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J165" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6085,14 +5885,10 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J166" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6126,14 +5922,10 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J167" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6167,14 +5959,10 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J168" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6208,14 +5996,10 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J169" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6249,14 +6033,10 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J170" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6295,9 +6075,7 @@
       <c r="I171" t="n">
         <v>3.037</v>
       </c>
-      <c r="J171" t="n">
-        <v>3.028</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6336,9 +6114,7 @@
       <c r="I172" t="n">
         <v>3.037</v>
       </c>
-      <c r="J172" t="n">
-        <v>3.028</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6372,14 +6148,10 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J173" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6413,14 +6185,10 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J174" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6454,14 +6222,10 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J175" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6495,14 +6259,10 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J176" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6536,14 +6296,10 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J177" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6577,14 +6333,10 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J178" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6623,9 +6375,7 @@
       <c r="I179" t="n">
         <v>3.037</v>
       </c>
-      <c r="J179" t="n">
-        <v>3.028</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6664,9 +6414,7 @@
       <c r="I180" t="n">
         <v>3.037</v>
       </c>
-      <c r="J180" t="n">
-        <v>3.028</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6700,14 +6448,10 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J181" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6741,14 +6485,10 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J182" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6782,14 +6522,10 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J183" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6828,9 +6564,7 @@
       <c r="I184" t="n">
         <v>3.037</v>
       </c>
-      <c r="J184" t="n">
-        <v>3.028</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6864,14 +6598,10 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J185" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6905,14 +6635,10 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J186" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6951,9 +6677,7 @@
       <c r="I187" t="n">
         <v>3.039</v>
       </c>
-      <c r="J187" t="n">
-        <v>3.028</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6987,14 +6711,10 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J188" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7028,14 +6748,10 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J189" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7069,14 +6785,10 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J190" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7115,9 +6827,7 @@
       <c r="I191" t="n">
         <v>3.039</v>
       </c>
-      <c r="J191" t="n">
-        <v>3.028</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7151,14 +6861,10 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J192" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7192,14 +6898,10 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J193" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7238,9 +6940,7 @@
       <c r="I194" t="n">
         <v>3.039</v>
       </c>
-      <c r="J194" t="n">
-        <v>3.028</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7279,9 +6979,7 @@
       <c r="I195" t="n">
         <v>3.039</v>
       </c>
-      <c r="J195" t="n">
-        <v>3.028</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7320,9 +7018,7 @@
       <c r="I196" t="n">
         <v>3.039</v>
       </c>
-      <c r="J196" t="n">
-        <v>3.028</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7356,14 +7052,10 @@
         <v>-5184623.937462591</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="J197" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7402,9 +7094,7 @@
       <c r="I198" t="n">
         <v>3.039</v>
       </c>
-      <c r="J198" t="n">
-        <v>3.028</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7443,9 +7133,7 @@
       <c r="I199" t="n">
         <v>3.039</v>
       </c>
-      <c r="J199" t="n">
-        <v>3.028</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7479,14 +7167,10 @@
         <v>-5184623.937462591</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J200" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7525,9 +7209,7 @@
       <c r="I201" t="n">
         <v>3.039</v>
       </c>
-      <c r="J201" t="n">
-        <v>3.028</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7566,9 +7248,7 @@
       <c r="I202" t="n">
         <v>3.039</v>
       </c>
-      <c r="J202" t="n">
-        <v>3.028</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7602,12 +7282,12 @@
         <v>-5184761.937462591</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>3.028</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7644,9 +7324,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>3.028</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7680,14 +7358,10 @@
         <v>-5184761.937462591</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J205" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7726,9 +7400,7 @@
       <c r="I206" t="n">
         <v>3.039</v>
       </c>
-      <c r="J206" t="n">
-        <v>3.028</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7762,14 +7434,10 @@
         <v>-5184251.937462591</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="J207" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7806,9 +7474,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>3.028</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7845,9 +7511,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>3.028</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7884,9 +7548,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>3.028</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7923,9 +7585,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>3.028</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7962,9 +7622,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>3.028</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7998,14 +7656,10 @@
         <v>-5202990.284162591</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>3.048</v>
-      </c>
-      <c r="J213" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8039,14 +7693,10 @@
         <v>-5482333.370962591</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>3.044</v>
-      </c>
-      <c r="J214" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8080,14 +7730,10 @@
         <v>-5481823.370962591</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="J215" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8121,14 +7767,10 @@
         <v>-5482333.370962591</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="J216" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8162,14 +7804,10 @@
         <v>-5482333.370962591</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="J217" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8203,14 +7841,10 @@
         <v>-5481823.370962591</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="J218" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8247,9 +7881,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>3.028</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8283,14 +7915,10 @@
         <v>-5481823.370962591</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J220" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8327,9 +7955,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>3.028</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8366,9 +7992,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>3.028</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8402,14 +8026,10 @@
         <v>-5830067.34656259</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J223" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8443,14 +8063,10 @@
         <v>-5823980.752662591</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="J224" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8484,14 +8100,10 @@
         <v>-5823405.050862591</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>3.061</v>
-      </c>
-      <c r="J225" t="n">
-        <v>3.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8528,9 +8140,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>3.028</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8564,20 +8174,16 @@
         <v>-5945136.128062591</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>3.028</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
@@ -8603,17 +8209,11 @@
         <v>-5945136.128062591</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8642,17 +8242,11 @@
         <v>-5945136.128062591</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8681,19 +8275,11 @@
         <v>-5911155.862901859</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="J230" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8722,17 +8308,11 @@
         <v>-5910028.285001859</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8761,19 +8341,11 @@
         <v>-5737234.053901859</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>3.071</v>
-      </c>
-      <c r="J232" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8802,17 +8374,11 @@
         <v>-5651878.312801858</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8841,17 +8407,11 @@
         <v>-5651878.312801858</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8880,17 +8440,11 @@
         <v>-5651878.312801858</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8919,17 +8473,11 @@
         <v>-5651878.312801858</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8958,17 +8506,11 @@
         <v>-5651878.312801858</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8997,17 +8539,11 @@
         <v>-5651878.312801858</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9036,17 +8572,11 @@
         <v>-5111599.991956126</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9075,17 +8605,11 @@
         <v>-5111599.991956126</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9114,17 +8638,11 @@
         <v>-5083708.748301859</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9153,17 +8671,11 @@
         <v>-5048551.393301859</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9195,14 +8707,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9234,20 +8740,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
       <c r="M244" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest MIX.xlsx
+++ b/BackTest/2020-01-14 BackTest MIX.xlsx
@@ -451,7 +451,7 @@
         <v>-629836.5072</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-645656.5072</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-642510.9449999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-672642.9449999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-669288.7102</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-599624.7346999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-626284.7346999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-626284.7346999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1526284.7347</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1071084.8623</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-5030262.327646952</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-5043932.327646952</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4906,10 +4906,14 @@
         <v>-5223203.234946951</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>3.026</v>
+      </c>
+      <c r="J137" t="n">
+        <v>3.026</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
@@ -4942,8 +4946,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>3.026</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +4982,19 @@
         <v>-5222554.234946951</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="J139" t="n">
+        <v>3.026</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5005,10 +5023,14 @@
         <v>-5222554.234946951</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="J140" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
@@ -5038,11 +5060,19 @@
         <v>-5195018.022646951</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="J141" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +5101,19 @@
         <v>-5195018.022646951</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>3.038</v>
+      </c>
+      <c r="J142" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +5142,19 @@
         <v>-5248994.072446952</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>3.038</v>
+      </c>
+      <c r="J143" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +5183,19 @@
         <v>-5248994.072446952</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="J144" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5224,19 @@
         <v>-5248994.072446952</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="J145" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5265,19 @@
         <v>-5248994.072446952</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="J146" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +5309,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +5348,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5384,19 @@
         <v>-5248994.072446952</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="J149" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5425,19 @@
         <v>-5248994.072446952</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="J150" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5466,19 @@
         <v>-5193777.970262591</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="J151" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5507,19 @@
         <v>-5193777.970262591</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>3.045</v>
+      </c>
+      <c r="J152" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5548,19 @@
         <v>-5193777.970262591</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>3.045</v>
+      </c>
+      <c r="J153" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5589,19 @@
         <v>-5193777.970262591</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>3.045</v>
+      </c>
+      <c r="J154" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +5630,19 @@
         <v>-5205890.970262591</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>3.045</v>
+      </c>
+      <c r="J155" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5671,19 @@
         <v>-5205890.970262591</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="J156" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +5715,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +5754,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +5793,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +5832,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,15 +5868,15 @@
         <v>-5185693.937462591</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L161" t="n">
@@ -5740,7 +5910,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5777,7 +5949,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5814,7 +5988,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5851,7 +6027,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5888,7 +6066,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5922,10 +6102,14 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="J167" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5959,10 +6143,14 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="J168" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5996,10 +6184,14 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="J169" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6036,7 +6228,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6075,7 +6269,9 @@
       <c r="I171" t="n">
         <v>3.037</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6114,7 +6310,9 @@
       <c r="I172" t="n">
         <v>3.037</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6148,10 +6346,14 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="J173" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6185,10 +6387,14 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="J174" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6222,10 +6428,14 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="J175" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6259,10 +6469,14 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="J176" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6296,10 +6510,14 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="J177" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6333,10 +6551,14 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="J178" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6375,7 +6597,9 @@
       <c r="I179" t="n">
         <v>3.037</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6414,7 +6638,9 @@
       <c r="I180" t="n">
         <v>3.037</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6448,10 +6674,14 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="J181" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6485,10 +6715,14 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="J182" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6522,10 +6756,14 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="J183" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6564,7 +6802,9 @@
       <c r="I184" t="n">
         <v>3.037</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6598,10 +6838,14 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="J185" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6635,10 +6879,14 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="J186" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6677,7 +6925,9 @@
       <c r="I187" t="n">
         <v>3.039</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6711,10 +6961,14 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="J188" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6748,10 +7002,14 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="J189" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6785,10 +7043,14 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="J190" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6827,7 +7089,9 @@
       <c r="I191" t="n">
         <v>3.039</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6861,10 +7125,14 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="J192" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6898,10 +7166,14 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="J193" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6940,7 +7212,9 @@
       <c r="I194" t="n">
         <v>3.039</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6979,7 +7253,9 @@
       <c r="I195" t="n">
         <v>3.039</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7018,7 +7294,9 @@
       <c r="I196" t="n">
         <v>3.039</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7055,7 +7333,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7089,12 +7369,12 @@
         <v>-5184623.937462591</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7133,7 +7413,9 @@
       <c r="I199" t="n">
         <v>3.039</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7167,10 +7449,14 @@
         <v>-5184623.937462591</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="J200" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7209,7 +7495,9 @@
       <c r="I201" t="n">
         <v>3.039</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7248,7 +7536,9 @@
       <c r="I202" t="n">
         <v>3.039</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7282,12 +7572,12 @@
         <v>-5184761.937462591</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7324,7 +7614,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7361,7 +7653,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7395,12 +7689,12 @@
         <v>-5184251.937462591</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7437,7 +7731,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7474,7 +7770,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7511,7 +7809,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7548,7 +7848,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7585,7 +7887,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7622,7 +7926,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7659,7 +7965,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7696,7 +8004,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7733,7 +8043,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7770,7 +8082,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7807,7 +8121,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7844,7 +8160,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7881,7 +8199,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7918,7 +8238,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7955,7 +8277,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7992,7 +8316,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8029,7 +8355,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8066,7 +8394,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8103,7 +8433,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8140,7 +8472,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8174,16 +8508,20 @@
         <v>-5945136.128062591</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>3.028</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L227" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
       <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
@@ -8209,11 +8547,17 @@
         <v>-5945136.128062591</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8242,11 +8586,17 @@
         <v>-5945136.128062591</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8275,11 +8625,17 @@
         <v>-5911155.862901859</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8308,11 +8664,17 @@
         <v>-5910028.285001859</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8341,11 +8703,17 @@
         <v>-5737234.053901859</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8374,11 +8742,17 @@
         <v>-5651878.312801858</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8407,11 +8781,17 @@
         <v>-5651878.312801858</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8440,11 +8820,17 @@
         <v>-5651878.312801858</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8473,11 +8859,17 @@
         <v>-5651878.312801858</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8506,11 +8898,17 @@
         <v>-5651878.312801858</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8539,11 +8937,17 @@
         <v>-5651878.312801858</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8572,11 +8976,17 @@
         <v>-5111599.991956126</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8605,11 +9015,17 @@
         <v>-5111599.991956126</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8638,11 +9054,17 @@
         <v>-5083708.748301859</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8671,11 +9093,17 @@
         <v>-5048551.393301859</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8707,8 +9135,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8740,8 +9174,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-14 BackTest MIX.xlsx
+++ b/BackTest/2020-01-14 BackTest MIX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M244"/>
+  <dimension ref="A1:L244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>25012.3482</v>
       </c>
       <c r="G2" t="n">
-        <v>-629836.5072</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>15820</v>
       </c>
       <c r="G3" t="n">
-        <v>-645656.5072</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>3145.5622</v>
       </c>
       <c r="G4" t="n">
-        <v>-642510.9449999999</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>30132</v>
       </c>
       <c r="G5" t="n">
-        <v>-672642.9449999999</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>3354.2348</v>
       </c>
       <c r="G6" t="n">
-        <v>-669288.7102</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>69663.9755</v>
       </c>
       <c r="G7" t="n">
-        <v>-599624.7346999999</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>26660</v>
       </c>
       <c r="G8" t="n">
-        <v>-626284.7346999999</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>26660</v>
       </c>
       <c r="G9" t="n">
-        <v>-626284.7346999999</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>900000</v>
       </c>
       <c r="G10" t="n">
-        <v>-1526284.7347</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1000</v>
       </c>
       <c r="G11" t="n">
-        <v>-1525284.7347</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>12330</v>
       </c>
       <c r="G12" t="n">
-        <v>-1525284.7347</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>460000</v>
       </c>
       <c r="G13" t="n">
-        <v>-1065284.7347</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>2329.7045</v>
       </c>
       <c r="G14" t="n">
-        <v>-1062955.0302</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>946.1839</v>
       </c>
       <c r="G15" t="n">
-        <v>-1063901.2141</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>7183.6482</v>
       </c>
       <c r="G16" t="n">
-        <v>-1071084.8623</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>683.3155</v>
       </c>
       <c r="G17" t="n">
-        <v>-1070401.5468</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>3502.2685</v>
       </c>
       <c r="G18" t="n">
-        <v>-1070401.5468</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>1538.3171</v>
       </c>
       <c r="G19" t="n">
-        <v>-1070401.5468</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>2309.4859</v>
       </c>
       <c r="G20" t="n">
-        <v>-1070401.5468</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>422.2442</v>
       </c>
       <c r="G21" t="n">
-        <v>-1069979.3026</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>71251.4581</v>
       </c>
       <c r="G22" t="n">
-        <v>-1141230.7607</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>123713.779</v>
       </c>
       <c r="G23" t="n">
-        <v>-1264944.5397</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>36503.5293</v>
       </c>
       <c r="G24" t="n">
-        <v>-1264944.5397</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>883.3869999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>-1264944.5397</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>72179.2668</v>
       </c>
       <c r="G26" t="n">
-        <v>-1192765.2729</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>124298.7332</v>
       </c>
       <c r="G27" t="n">
-        <v>-1192765.2729</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>164801.6894</v>
       </c>
       <c r="G28" t="n">
-        <v>-1357566.9623</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>17890</v>
       </c>
       <c r="G29" t="n">
-        <v>-1339676.9623</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>49656.6763</v>
       </c>
       <c r="G30" t="n">
-        <v>-1389333.6386</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>159787.1266</v>
       </c>
       <c r="G31" t="n">
-        <v>-1389333.6386</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>39946.7816</v>
       </c>
       <c r="G32" t="n">
-        <v>-1389333.6386</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>916.2931</v>
       </c>
       <c r="G33" t="n">
-        <v>-1388417.3455</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>100000</v>
       </c>
       <c r="G34" t="n">
-        <v>-1488417.3455</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>500000</v>
       </c>
       <c r="G35" t="n">
-        <v>-1488417.3455</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>56997.2455</v>
       </c>
       <c r="G36" t="n">
-        <v>-1431420.1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>5082.237</v>
       </c>
       <c r="G37" t="n">
-        <v>-1436502.337</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>133627.2868</v>
       </c>
       <c r="G38" t="n">
-        <v>-1570129.6238</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>17899.3428</v>
       </c>
       <c r="G39" t="n">
-        <v>-1570129.6238</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>184916.0382</v>
       </c>
       <c r="G40" t="n">
-        <v>-1755045.662</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>862967.5305</v>
       </c>
       <c r="G41" t="n">
-        <v>-2618013.1925</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>763150.5575999999</v>
       </c>
       <c r="G42" t="n">
-        <v>-3381163.7501</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>97849.4357</v>
       </c>
       <c r="G43" t="n">
-        <v>-3479013.1858</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>280377.6365</v>
       </c>
       <c r="G44" t="n">
-        <v>-3479013.1858</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>203924.6599</v>
       </c>
       <c r="G45" t="n">
-        <v>-3275088.5259</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>127774.6103</v>
       </c>
       <c r="G46" t="n">
-        <v>-3402863.1362</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>7325.7754</v>
       </c>
       <c r="G47" t="n">
-        <v>-3410188.9116</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>179634.7963</v>
       </c>
       <c r="G48" t="n">
-        <v>-3589823.7079</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>135661.4937</v>
       </c>
       <c r="G49" t="n">
-        <v>-3725485.2016</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>22926.3403</v>
       </c>
       <c r="G50" t="n">
-        <v>-3725485.2016</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>361437.6209</v>
       </c>
       <c r="G51" t="n">
-        <v>-3364047.5807</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>7239.4253</v>
       </c>
       <c r="G52" t="n">
-        <v>-3356808.1554</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>7171.2895</v>
       </c>
       <c r="G53" t="n">
-        <v>-3349636.8659</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>178474.6503</v>
       </c>
       <c r="G54" t="n">
-        <v>-3171162.2156</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>16793.8107</v>
       </c>
       <c r="G55" t="n">
-        <v>-3171162.2156</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>63498.5721</v>
       </c>
       <c r="G56" t="n">
-        <v>-3234660.7877</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>200</v>
       </c>
       <c r="G57" t="n">
-        <v>-3234460.7877</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>144104.5203</v>
       </c>
       <c r="G58" t="n">
-        <v>-3378565.308</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>1036.9133</v>
       </c>
       <c r="G59" t="n">
-        <v>-3377528.3947</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>9451.483899999999</v>
       </c>
       <c r="G60" t="n">
-        <v>-3377528.3947</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>510</v>
       </c>
       <c r="G61" t="n">
-        <v>-3378038.3947</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>10093.8078</v>
       </c>
       <c r="G62" t="n">
-        <v>-3378038.3947</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>16149.2217</v>
       </c>
       <c r="G63" t="n">
-        <v>-3378038.3947</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>510</v>
       </c>
       <c r="G64" t="n">
-        <v>-3378548.3947</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>3973.407</v>
       </c>
       <c r="G65" t="n">
-        <v>-3378548.3947</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>77943.4633</v>
       </c>
       <c r="G66" t="n">
-        <v>-3300604.9314</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>833.6825</v>
       </c>
       <c r="G67" t="n">
-        <v>-3301438.6139</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>510</v>
       </c>
       <c r="G68" t="n">
-        <v>-3300928.6139</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>267.8453</v>
       </c>
       <c r="G69" t="n">
-        <v>-3300928.6139</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>8799</v>
       </c>
       <c r="G70" t="n">
-        <v>-3309727.6139</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>3242.54215304799</v>
       </c>
       <c r="G71" t="n">
-        <v>-3306485.071746952</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>162244.8074</v>
       </c>
       <c r="G72" t="n">
-        <v>-3468729.879146952</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>1245.3287</v>
       </c>
       <c r="G73" t="n">
-        <v>-3467484.550446952</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>2545.6583</v>
       </c>
       <c r="G74" t="n">
-        <v>-3470030.208746952</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>3000</v>
       </c>
       <c r="G75" t="n">
-        <v>-3473030.208746952</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>10075.4698</v>
       </c>
       <c r="G76" t="n">
-        <v>-3483105.678546952</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>166390.7342</v>
       </c>
       <c r="G77" t="n">
-        <v>-3649496.412746952</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>1639878.443</v>
       </c>
       <c r="G78" t="n">
-        <v>-3649496.412746952</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>522.4858</v>
       </c>
       <c r="G79" t="n">
-        <v>-3648973.926946952</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>42751.5545</v>
       </c>
       <c r="G80" t="n">
-        <v>-3691725.481446952</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>1278.4455</v>
       </c>
       <c r="G81" t="n">
-        <v>-3691725.481446952</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>1244976.5197</v>
       </c>
       <c r="G82" t="n">
-        <v>-4936702.001146952</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>67531.5772</v>
       </c>
       <c r="G83" t="n">
-        <v>-4936702.001146952</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>8244.546200000001</v>
       </c>
       <c r="G84" t="n">
-        <v>-4928457.454946952</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>15666.7743</v>
       </c>
       <c r="G85" t="n">
-        <v>-4928457.454946952</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>100000</v>
       </c>
       <c r="G86" t="n">
-        <v>-5028457.454946952</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>10504.5661</v>
       </c>
       <c r="G87" t="n">
-        <v>-5017952.888846952</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>16817.9014</v>
       </c>
       <c r="G88" t="n">
-        <v>-5034770.790246951</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>1554.412</v>
       </c>
       <c r="G89" t="n">
-        <v>-5033216.378246952</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>510</v>
       </c>
       <c r="G90" t="n">
-        <v>-5033726.378246952</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>2954.0506</v>
       </c>
       <c r="G91" t="n">
-        <v>-5030772.327646952</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>510</v>
       </c>
       <c r="G92" t="n">
-        <v>-5030262.327646952</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>510</v>
       </c>
       <c r="G93" t="n">
-        <v>-5030262.327646952</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>689.7662</v>
       </c>
       <c r="G94" t="n">
-        <v>-5030262.327646952</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>13160</v>
       </c>
       <c r="G95" t="n">
-        <v>-5043422.327646952</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>510</v>
       </c>
       <c r="G96" t="n">
-        <v>-5043932.327646952</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>68379.9826</v>
       </c>
       <c r="G97" t="n">
-        <v>-5043932.327646952</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>510</v>
       </c>
       <c r="G98" t="n">
-        <v>-5044442.327646952</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>67288.70080000001</v>
       </c>
       <c r="G99" t="n">
-        <v>-5044442.327646952</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>510</v>
       </c>
       <c r="G100" t="n">
-        <v>-5043932.327646952</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>9599.634</v>
       </c>
       <c r="G101" t="n">
-        <v>-5053531.961646952</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>32825.9252</v>
       </c>
       <c r="G102" t="n">
-        <v>-5053531.961646952</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>28360.3429</v>
       </c>
       <c r="G103" t="n">
-        <v>-5025171.618746952</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>510</v>
       </c>
       <c r="G104" t="n">
-        <v>-5024661.618746952</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,19 @@
         <v>200</v>
       </c>
       <c r="G105" t="n">
-        <v>-5024461.618746952</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>3.02</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3.02</v>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3567,23 @@
         <v>510</v>
       </c>
       <c r="G106" t="n">
-        <v>-5024461.618746952</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>3.049</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3605,23 @@
         <v>510</v>
       </c>
       <c r="G107" t="n">
-        <v>-5024971.618746952</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>3.049</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3643,19 @@
         <v>12164.3528</v>
       </c>
       <c r="G108" t="n">
-        <v>-5012807.265946952</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>3.013</v>
+      </c>
+      <c r="I108" t="n">
+        <v>3.013</v>
+      </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3677,21 @@
         <v>4078.5053</v>
       </c>
       <c r="G109" t="n">
-        <v>-5012807.265946952</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3713,21 @@
         <v>7623.9535</v>
       </c>
       <c r="G110" t="n">
-        <v>-5012807.265946952</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3749,15 @@
         <v>90240</v>
       </c>
       <c r="G111" t="n">
-        <v>-5103047.265946952</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3779,15 @@
         <v>510</v>
       </c>
       <c r="G112" t="n">
-        <v>-5103047.265946952</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3809,15 @@
         <v>70000</v>
       </c>
       <c r="G113" t="n">
-        <v>-5173047.265946952</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3839,15 @@
         <v>34097.969</v>
       </c>
       <c r="G114" t="n">
-        <v>-5207145.234946951</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3869,15 @@
         <v>585</v>
       </c>
       <c r="G115" t="n">
-        <v>-5207730.234946951</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3899,15 @@
         <v>544</v>
       </c>
       <c r="G116" t="n">
-        <v>-5207186.234946951</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3929,15 @@
         <v>608</v>
       </c>
       <c r="G117" t="n">
-        <v>-5207794.234946951</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3959,15 @@
         <v>663</v>
       </c>
       <c r="G118" t="n">
-        <v>-5207794.234946951</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3989,15 @@
         <v>556</v>
       </c>
       <c r="G119" t="n">
-        <v>-5207794.234946951</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4019,15 @@
         <v>17910.06</v>
       </c>
       <c r="G120" t="n">
-        <v>-5207794.234946951</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4049,15 @@
         <v>200</v>
       </c>
       <c r="G121" t="n">
-        <v>-5207594.234946951</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4079,15 @@
         <v>15000</v>
       </c>
       <c r="G122" t="n">
-        <v>-5222594.234946951</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4109,15 @@
         <v>1169</v>
       </c>
       <c r="G123" t="n">
-        <v>-5222594.234946951</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4139,15 @@
         <v>544</v>
       </c>
       <c r="G124" t="n">
-        <v>-5222594.234946951</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4169,15 @@
         <v>656</v>
       </c>
       <c r="G125" t="n">
-        <v>-5222594.234946951</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4199,15 @@
         <v>642</v>
       </c>
       <c r="G126" t="n">
-        <v>-5222594.234946951</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4229,15 @@
         <v>613</v>
       </c>
       <c r="G127" t="n">
-        <v>-5222594.234946951</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4259,15 @@
         <v>6253.69</v>
       </c>
       <c r="G128" t="n">
-        <v>-5222594.234946951</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4289,15 @@
         <v>50397.0974</v>
       </c>
       <c r="G129" t="n">
-        <v>-5222594.234946951</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4319,15 @@
         <v>609</v>
       </c>
       <c r="G130" t="n">
-        <v>-5223203.234946951</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4349,15 @@
         <v>625</v>
       </c>
       <c r="G131" t="n">
-        <v>-5223203.234946951</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4379,15 @@
         <v>519</v>
       </c>
       <c r="G132" t="n">
-        <v>-5223203.234946951</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4409,15 @@
         <v>659</v>
       </c>
       <c r="G133" t="n">
-        <v>-5223203.234946951</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4439,15 @@
         <v>609</v>
       </c>
       <c r="G134" t="n">
-        <v>-5223203.234946951</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4469,15 @@
         <v>530</v>
       </c>
       <c r="G135" t="n">
-        <v>-5223203.234946951</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4499,15 @@
         <v>567</v>
       </c>
       <c r="G136" t="n">
-        <v>-5223203.234946951</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,22 +4529,15 @@
         <v>619</v>
       </c>
       <c r="G137" t="n">
-        <v>-5223203.234946951</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>3.026</v>
-      </c>
-      <c r="J137" t="n">
-        <v>3.026</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4940,24 +4559,15 @@
         <v>649</v>
       </c>
       <c r="G138" t="n">
-        <v>-5222554.234946951</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>3.026</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4979,26 +4589,15 @@
         <v>1647</v>
       </c>
       <c r="G139" t="n">
-        <v>-5222554.234946951</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="J139" t="n">
-        <v>3.026</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5020,22 +4619,15 @@
         <v>569</v>
       </c>
       <c r="G140" t="n">
-        <v>-5222554.234946951</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="J140" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5057,26 +4649,15 @@
         <v>27536.2123</v>
       </c>
       <c r="G141" t="n">
-        <v>-5195018.022646951</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="J141" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5098,26 +4679,15 @@
         <v>559</v>
       </c>
       <c r="G142" t="n">
-        <v>-5195018.022646951</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="J142" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5139,26 +4709,15 @@
         <v>53976.0498</v>
       </c>
       <c r="G143" t="n">
-        <v>-5248994.072446952</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>3.038</v>
-      </c>
-      <c r="J143" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5180,26 +4739,15 @@
         <v>608</v>
       </c>
       <c r="G144" t="n">
-        <v>-5248994.072446952</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="J144" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5221,26 +4769,15 @@
         <v>593</v>
       </c>
       <c r="G145" t="n">
-        <v>-5248994.072446952</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="J145" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5262,26 +4799,15 @@
         <v>1118</v>
       </c>
       <c r="G146" t="n">
-        <v>-5248994.072446952</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="J146" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5303,24 +4829,15 @@
         <v>78380.09450000001</v>
       </c>
       <c r="G147" t="n">
-        <v>-5248994.072446952</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5342,24 +4859,15 @@
         <v>448.667</v>
       </c>
       <c r="G148" t="n">
-        <v>-5248994.072446952</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5381,26 +4889,15 @@
         <v>625</v>
       </c>
       <c r="G149" t="n">
-        <v>-5248994.072446952</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="J149" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5422,26 +4919,15 @@
         <v>621</v>
       </c>
       <c r="G150" t="n">
-        <v>-5248994.072446952</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="J150" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5463,26 +4949,15 @@
         <v>55216.1021843608</v>
       </c>
       <c r="G151" t="n">
-        <v>-5193777.970262591</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>3.035</v>
-      </c>
-      <c r="J151" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5504,26 +4979,15 @@
         <v>587</v>
       </c>
       <c r="G152" t="n">
-        <v>-5193777.970262591</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>3.045</v>
-      </c>
-      <c r="J152" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5545,26 +5009,15 @@
         <v>640</v>
       </c>
       <c r="G153" t="n">
-        <v>-5193777.970262591</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>3.045</v>
-      </c>
-      <c r="J153" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5586,26 +5039,15 @@
         <v>520</v>
       </c>
       <c r="G154" t="n">
-        <v>-5193777.970262591</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>3.045</v>
-      </c>
-      <c r="J154" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5627,26 +5069,15 @@
         <v>12113</v>
       </c>
       <c r="G155" t="n">
-        <v>-5205890.970262591</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>3.045</v>
-      </c>
-      <c r="J155" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5668,26 +5099,15 @@
         <v>586</v>
       </c>
       <c r="G156" t="n">
-        <v>-5205890.970262591</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J156" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5709,24 +5129,15 @@
         <v>684</v>
       </c>
       <c r="G157" t="n">
-        <v>-5205890.970262591</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5748,24 +5159,15 @@
         <v>19869.0328</v>
       </c>
       <c r="G158" t="n">
-        <v>-5186021.937462591</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5787,24 +5189,15 @@
         <v>532</v>
       </c>
       <c r="G159" t="n">
-        <v>-5186553.937462591</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5826,24 +5219,15 @@
         <v>512</v>
       </c>
       <c r="G160" t="n">
-        <v>-5186553.937462591</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5865,24 +5249,15 @@
         <v>860</v>
       </c>
       <c r="G161" t="n">
-        <v>-5185693.937462591</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5904,24 +5279,15 @@
         <v>665</v>
       </c>
       <c r="G162" t="n">
-        <v>-5186358.937462591</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5943,24 +5309,15 @@
         <v>513</v>
       </c>
       <c r="G163" t="n">
-        <v>-5186358.937462591</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5982,24 +5339,15 @@
         <v>688</v>
       </c>
       <c r="G164" t="n">
-        <v>-5186358.937462591</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6021,24 +5369,15 @@
         <v>650</v>
       </c>
       <c r="G165" t="n">
-        <v>-5186358.937462591</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6060,24 +5399,15 @@
         <v>688</v>
       </c>
       <c r="G166" t="n">
-        <v>-5186358.937462591</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6099,26 +5429,15 @@
         <v>560</v>
       </c>
       <c r="G167" t="n">
-        <v>-5186358.937462591</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J167" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6140,26 +5459,15 @@
         <v>699</v>
       </c>
       <c r="G168" t="n">
-        <v>-5186358.937462591</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J168" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6181,26 +5489,15 @@
         <v>1066</v>
       </c>
       <c r="G169" t="n">
-        <v>-5186358.937462591</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J169" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6222,24 +5519,15 @@
         <v>505</v>
       </c>
       <c r="G170" t="n">
-        <v>-5186358.937462591</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6261,26 +5549,15 @@
         <v>599</v>
       </c>
       <c r="G171" t="n">
-        <v>-5186358.937462591</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J171" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6302,26 +5579,15 @@
         <v>591</v>
       </c>
       <c r="G172" t="n">
-        <v>-5186358.937462591</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J172" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6343,26 +5609,15 @@
         <v>581</v>
       </c>
       <c r="G173" t="n">
-        <v>-5186358.937462591</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J173" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6384,26 +5639,15 @@
         <v>697</v>
       </c>
       <c r="G174" t="n">
-        <v>-5186358.937462591</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J174" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6425,26 +5669,15 @@
         <v>553</v>
       </c>
       <c r="G175" t="n">
-        <v>-5186358.937462591</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J175" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6466,26 +5699,15 @@
         <v>677</v>
       </c>
       <c r="G176" t="n">
-        <v>-5186358.937462591</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J176" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6507,26 +5729,15 @@
         <v>512</v>
       </c>
       <c r="G177" t="n">
-        <v>-5186358.937462591</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J177" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6548,26 +5759,15 @@
         <v>514</v>
       </c>
       <c r="G178" t="n">
-        <v>-5186358.937462591</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J178" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6589,26 +5789,15 @@
         <v>633</v>
       </c>
       <c r="G179" t="n">
-        <v>-5186358.937462591</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J179" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6630,26 +5819,15 @@
         <v>524</v>
       </c>
       <c r="G180" t="n">
-        <v>-5186358.937462591</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J180" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6671,26 +5849,15 @@
         <v>622</v>
       </c>
       <c r="G181" t="n">
-        <v>-5186358.937462591</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J181" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6712,26 +5879,15 @@
         <v>633</v>
       </c>
       <c r="G182" t="n">
-        <v>-5186358.937462591</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J182" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6753,26 +5909,15 @@
         <v>554</v>
       </c>
       <c r="G183" t="n">
-        <v>-5186358.937462591</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J183" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6794,26 +5939,15 @@
         <v>698</v>
       </c>
       <c r="G184" t="n">
-        <v>-5186358.937462591</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J184" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6835,26 +5969,15 @@
         <v>1104</v>
       </c>
       <c r="G185" t="n">
-        <v>-5185254.937462591</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>3.037</v>
-      </c>
-      <c r="J185" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6876,26 +5999,15 @@
         <v>563</v>
       </c>
       <c r="G186" t="n">
-        <v>-5185254.937462591</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J186" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6917,26 +6029,15 @@
         <v>637</v>
       </c>
       <c r="G187" t="n">
-        <v>-5185254.937462591</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J187" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6958,26 +6059,15 @@
         <v>1524.3259</v>
       </c>
       <c r="G188" t="n">
-        <v>-5185254.937462591</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J188" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6999,26 +6089,15 @@
         <v>613</v>
       </c>
       <c r="G189" t="n">
-        <v>-5185254.937462591</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J189" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7040,26 +6119,15 @@
         <v>610</v>
       </c>
       <c r="G190" t="n">
-        <v>-5185254.937462591</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J190" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7081,26 +6149,15 @@
         <v>569</v>
       </c>
       <c r="G191" t="n">
-        <v>-5185254.937462591</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J191" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7122,26 +6179,15 @@
         <v>551</v>
       </c>
       <c r="G192" t="n">
-        <v>-5185254.937462591</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J192" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7163,26 +6209,15 @@
         <v>588</v>
       </c>
       <c r="G193" t="n">
-        <v>-5185254.937462591</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J193" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7204,26 +6239,15 @@
         <v>533</v>
       </c>
       <c r="G194" t="n">
-        <v>-5185254.937462591</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J194" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7245,26 +6269,15 @@
         <v>643</v>
       </c>
       <c r="G195" t="n">
-        <v>-5185254.937462591</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J195" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7286,26 +6299,15 @@
         <v>1150</v>
       </c>
       <c r="G196" t="n">
-        <v>-5184104.937462591</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J196" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7327,24 +6329,15 @@
         <v>519</v>
       </c>
       <c r="G197" t="n">
-        <v>-5184623.937462591</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7366,24 +6359,15 @@
         <v>613</v>
       </c>
       <c r="G198" t="n">
-        <v>-5184623.937462591</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7405,26 +6389,15 @@
         <v>582</v>
       </c>
       <c r="G199" t="n">
-        <v>-5184623.937462591</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J199" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7446,26 +6419,15 @@
         <v>690</v>
       </c>
       <c r="G200" t="n">
-        <v>-5184623.937462591</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J200" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7487,26 +6449,15 @@
         <v>696</v>
       </c>
       <c r="G201" t="n">
-        <v>-5184623.937462591</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J201" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7528,26 +6479,15 @@
         <v>510</v>
       </c>
       <c r="G202" t="n">
-        <v>-5184113.937462591</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>3.039</v>
-      </c>
-      <c r="J202" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7569,24 +6509,15 @@
         <v>648</v>
       </c>
       <c r="G203" t="n">
-        <v>-5184761.937462591</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7608,24 +6539,15 @@
         <v>12781.8271</v>
       </c>
       <c r="G204" t="n">
-        <v>-5184761.937462591</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7647,24 +6569,15 @@
         <v>115288.2981</v>
       </c>
       <c r="G205" t="n">
-        <v>-5184761.937462591</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7686,24 +6599,15 @@
         <v>510</v>
       </c>
       <c r="G206" t="n">
-        <v>-5184251.937462591</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7725,24 +6629,15 @@
         <v>2578.7069</v>
       </c>
       <c r="G207" t="n">
-        <v>-5184251.937462591</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7764,24 +6659,15 @@
         <v>7080.6345</v>
       </c>
       <c r="G208" t="n">
-        <v>-5177171.302962591</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7803,24 +6689,15 @@
         <v>13218.1398</v>
       </c>
       <c r="G209" t="n">
-        <v>-5190389.442762591</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7842,24 +6719,15 @@
         <v>24684.8874</v>
       </c>
       <c r="G210" t="n">
-        <v>-5190389.442762591</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7881,24 +6749,15 @@
         <v>32731.9446</v>
       </c>
       <c r="G211" t="n">
-        <v>-5190389.442762591</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7920,24 +6779,15 @@
         <v>7080</v>
       </c>
       <c r="G212" t="n">
-        <v>-5197469.442762591</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7959,24 +6809,15 @@
         <v>5520.8414</v>
       </c>
       <c r="G213" t="n">
-        <v>-5202990.284162591</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7998,24 +6839,15 @@
         <v>279343.0868</v>
       </c>
       <c r="G214" t="n">
-        <v>-5482333.370962591</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8037,24 +6869,15 @@
         <v>510</v>
       </c>
       <c r="G215" t="n">
-        <v>-5481823.370962591</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8076,24 +6899,15 @@
         <v>510</v>
       </c>
       <c r="G216" t="n">
-        <v>-5482333.370962591</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8115,24 +6929,15 @@
         <v>15870</v>
       </c>
       <c r="G217" t="n">
-        <v>-5482333.370962591</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8154,24 +6959,15 @@
         <v>510</v>
       </c>
       <c r="G218" t="n">
-        <v>-5481823.370962591</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8193,24 +6989,15 @@
         <v>510</v>
       </c>
       <c r="G219" t="n">
-        <v>-5482333.370962591</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8232,24 +7019,15 @@
         <v>510</v>
       </c>
       <c r="G220" t="n">
-        <v>-5481823.370962591</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8271,24 +7049,15 @@
         <v>365195.6367</v>
       </c>
       <c r="G221" t="n">
-        <v>-5847019.007662591</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8310,24 +7079,15 @@
         <v>510</v>
       </c>
       <c r="G222" t="n">
-        <v>-5846509.007662591</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8349,24 +7109,15 @@
         <v>16441.6611</v>
       </c>
       <c r="G223" t="n">
-        <v>-5830067.34656259</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8388,24 +7139,15 @@
         <v>6086.5939</v>
       </c>
       <c r="G224" t="n">
-        <v>-5823980.752662591</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8427,24 +7169,15 @@
         <v>575.7018</v>
       </c>
       <c r="G225" t="n">
-        <v>-5823405.050862591</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8466,24 +7199,15 @@
         <v>370</v>
       </c>
       <c r="G226" t="n">
-        <v>-5823405.050862591</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8505,24 +7229,15 @@
         <v>121731.0772</v>
       </c>
       <c r="G227" t="n">
-        <v>-5945136.128062591</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8544,24 +7259,15 @@
         <v>27242.7644</v>
       </c>
       <c r="G228" t="n">
-        <v>-5945136.128062591</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8583,24 +7289,15 @@
         <v>294.7576</v>
       </c>
       <c r="G229" t="n">
-        <v>-5945136.128062591</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8622,24 +7319,15 @@
         <v>33980.26516073179</v>
       </c>
       <c r="G230" t="n">
-        <v>-5911155.862901859</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8661,24 +7349,15 @@
         <v>1127.5779</v>
       </c>
       <c r="G231" t="n">
-        <v>-5910028.285001859</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8700,24 +7379,15 @@
         <v>172794.2311</v>
       </c>
       <c r="G232" t="n">
-        <v>-5737234.053901859</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8739,24 +7409,15 @@
         <v>85355.7411</v>
       </c>
       <c r="G233" t="n">
-        <v>-5651878.312801858</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8778,24 +7439,15 @@
         <v>5050</v>
       </c>
       <c r="G234" t="n">
-        <v>-5651878.312801858</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8817,24 +7469,15 @@
         <v>1734.5385</v>
       </c>
       <c r="G235" t="n">
-        <v>-5651878.312801858</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8856,24 +7499,15 @@
         <v>20300</v>
       </c>
       <c r="G236" t="n">
-        <v>-5651878.312801858</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8895,24 +7529,15 @@
         <v>13424.4118</v>
       </c>
       <c r="G237" t="n">
-        <v>-5651878.312801858</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8934,24 +7559,15 @@
         <v>33702.9395</v>
       </c>
       <c r="G238" t="n">
-        <v>-5651878.312801858</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8973,24 +7589,15 @@
         <v>540278.3208457327</v>
       </c>
       <c r="G239" t="n">
-        <v>-5111599.991956126</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9012,24 +7619,15 @@
         <v>23261.003</v>
       </c>
       <c r="G240" t="n">
-        <v>-5111599.991956126</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9051,24 +7649,15 @@
         <v>27891.24365426731</v>
       </c>
       <c r="G241" t="n">
-        <v>-5083708.748301859</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9090,24 +7679,15 @@
         <v>35157.355</v>
       </c>
       <c r="G242" t="n">
-        <v>-5048551.393301859</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9129,24 +7709,15 @@
         <v>16851.6028</v>
       </c>
       <c r="G243" t="n">
-        <v>-5031699.790501858</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9168,24 +7739,15 @@
         <v>9008.482599999999</v>
       </c>
       <c r="G244" t="n">
-        <v>-5031699.790501858</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>3.028</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
